--- a/File KPI.xlsx
+++ b/File KPI.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\yonatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6542A47D-CB5E-4EB1-A3FC-D4BEAA031BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE4F1E3-49AE-438F-A974-39A40093AFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
     <sheet name="Pemukiman" sheetId="1" r:id="rId2"/>
-    <sheet name="Ojol" sheetId="2" r:id="rId3"/>
-    <sheet name="Amu Sekolah" sheetId="5" r:id="rId4"/>
+    <sheet name="Amu Sekolah" sheetId="5" r:id="rId3"/>
+    <sheet name="Ojol" sheetId="2" r:id="rId4"/>
     <sheet name="Formasi" sheetId="3" r:id="rId5"/>
     <sheet name="Target Program" sheetId="4" r:id="rId6"/>
   </sheets>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="37" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3196,6 +3196,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3219,21 +3234,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3364,7 +3364,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35ED9F92-6780-4D68-8823-CAF69936F42B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35ED9F92-6780-4D68-8823-CAF69936F42B}" name="PivotTable2" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -3928,7 +3928,7 @@
   <dimension ref="A1:K501"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19495,1671 +19495,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BF88FA-18C1-4B68-BD02-7E04D8DA2DB1}">
-  <dimension ref="A1:K51"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>49</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>49</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>49</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I4" s="1">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5</v>
-      </c>
-      <c r="K4" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>49</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <v>4</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>49</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>49</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>49</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I8" s="1">
-        <v>5</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>49</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>49</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>50</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="1">
-        <v>3</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" s="1">
-        <v>4</v>
-      </c>
-      <c r="J13" s="1">
-        <v>6</v>
-      </c>
-      <c r="K13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>50</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1">
-        <v>5</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>50</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I16" s="1">
-        <v>3</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>50</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>18</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>50</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I19" s="1">
-        <v>8</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>50</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>50</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>50</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1">
-        <v>30</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>51</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I24" s="1">
-        <v>3</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>51</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1">
-        <v>20</v>
-      </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1">
-        <v>2</v>
-      </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>51</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>51</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I29" s="1">
-        <v>4</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>51</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>20</v>
-      </c>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>51</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>51</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1">
-        <v>11</v>
-      </c>
-      <c r="K32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>52</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>52</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>52</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>52</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I36" s="1">
-        <v>3</v>
-      </c>
-      <c r="J36" s="1">
-        <v>26</v>
-      </c>
-      <c r="K36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>52</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>52</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1">
-        <v>30</v>
-      </c>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>52</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I39" s="1">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>52</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I40" s="1">
-        <v>2</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>52</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1">
-        <v>10</v>
-      </c>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>52</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>52</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I43" s="1">
-        <v>3</v>
-      </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>52</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I44" s="1">
-        <v>8</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>52</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1">
-        <v>40</v>
-      </c>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>52</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>52</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I47" s="1">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>52</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1">
-        <v>3</v>
-      </c>
-      <c r="K48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>52</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>52</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1">
-        <v>13</v>
-      </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>52</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1">
-        <v>40</v>
-      </c>
-      <c r="K51" s="1"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C2:C51">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E63E29-95E2-4652-8249-573E7E5C6E10}">
   <dimension ref="A1:K346"/>
   <sheetViews>
@@ -32244,6 +30579,1671 @@
       <c r="K346" s="86"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BF88FA-18C1-4B68-BD02-7E04D8DA2DB1}">
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <v>5</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>18</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I19" s="1">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1">
+        <v>30</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1">
+        <v>20</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I29" s="1">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>20</v>
+      </c>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>51</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>51</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1">
+        <v>11</v>
+      </c>
+      <c r="K32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>52</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>52</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="1">
+        <v>3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>26</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>52</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>52</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1">
+        <v>30</v>
+      </c>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>52</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>52</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>52</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1">
+        <v>10</v>
+      </c>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>52</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>52</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I43" s="1">
+        <v>3</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>52</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I44" s="1">
+        <v>8</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1">
+        <v>40</v>
+      </c>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>52</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>52</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>52</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1">
+        <v>3</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>52</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1">
+        <v>13</v>
+      </c>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1">
+        <v>40</v>
+      </c>
+      <c r="K51" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C51">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -32315,12 +32315,12 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="101" t="s">
         <v>374</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
       <c r="H5" s="12" t="s">
         <v>375</v>
       </c>
@@ -32341,41 +32341,41 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="15"/>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="98" t="s">
         <v>376</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="90" t="s">
+      <c r="G7" s="99"/>
+      <c r="H7" s="95" t="s">
         <v>377</v>
       </c>
-      <c r="I7" s="91"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="93" t="s">
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="98" t="s">
         <v>378</v>
       </c>
-      <c r="L7" s="94"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="90" t="s">
+      <c r="L7" s="99"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="95" t="s">
         <v>379</v>
       </c>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="93" t="s">
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="98" t="s">
         <v>380</v>
       </c>
-      <c r="S7" s="94"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="90" t="s">
+      <c r="S7" s="99"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="95" t="s">
         <v>381</v>
       </c>
-      <c r="V7" s="91"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="93" t="s">
+      <c r="V7" s="96"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="98" t="s">
         <v>382</v>
       </c>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="95"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="100"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
@@ -32796,8 +32796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A5F7F2-13AC-4287-B69F-1BE84F34780F}">
   <dimension ref="A1:H490"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32813,7 +32813,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
@@ -32839,7 +32839,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="91" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="79">
@@ -32865,7 +32865,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="92" t="s">
         <v>348</v>
       </c>
       <c r="B3" s="72">
@@ -32891,7 +32891,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="93" t="s">
         <v>104</v>
       </c>
       <c r="B4" s="74">
@@ -32917,7 +32917,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="93" t="s">
         <v>110</v>
       </c>
       <c r="B5" s="74">
@@ -32943,7 +32943,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="93" t="s">
         <v>127</v>
       </c>
       <c r="B6" s="74">
@@ -32969,7 +32969,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="94" t="s">
         <v>136</v>
       </c>
       <c r="B7" s="76">

--- a/File KPI.xlsx
+++ b/File KPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\yonatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645BEFC0-6275-44F1-932B-7C752EC62D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B303C7BC-6D5A-4B49-AF91-CC9663259187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2956,7 +2956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3215,10 +3215,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -32670,7 +32666,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32766,11 +32762,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/File KPI.xlsx
+++ b/File KPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\yonatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B303C7BC-6D5A-4B49-AF91-CC9663259187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E072EF6-6DB3-45BB-B5CC-E776BC91BE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pemukiman" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6353" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7886" uniqueCount="692">
   <si>
     <t>Promotor</t>
   </si>
@@ -2098,6 +2098,78 @@
   </si>
   <si>
     <t xml:space="preserve">CIPE01 VERA </t>
+  </si>
+  <si>
+    <t>207F9407</t>
+  </si>
+  <si>
+    <t>SKMA01  DINTA</t>
+  </si>
+  <si>
+    <t>JL CILODONG</t>
+  </si>
+  <si>
+    <t>207D8213</t>
+  </si>
+  <si>
+    <t>SUBA05 TK HAMIM PEMDA</t>
+  </si>
+  <si>
+    <t>JL BAKTI ABRI</t>
+  </si>
+  <si>
+    <t>207E9322</t>
+  </si>
+  <si>
+    <t>ABJA03 KEYDS TK. PRIMA (jumat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Proklamasi. </t>
+  </si>
+  <si>
+    <t>207E2459</t>
+  </si>
+  <si>
+    <t>PAMA09 KHOIRUL (KAM2.29)</t>
+  </si>
+  <si>
+    <t>Jl program</t>
+  </si>
+  <si>
+    <t>207E2251</t>
+  </si>
+  <si>
+    <t>DPOK02 KEYMLD ICA (PMK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl, H.Sa'i </t>
+  </si>
+  <si>
+    <t>207E0531</t>
+  </si>
+  <si>
+    <t>CIPE18 ABANG ADIK</t>
+  </si>
+  <si>
+    <t>Jl. M KAFI 2</t>
+  </si>
+  <si>
+    <t>207E4723</t>
+  </si>
+  <si>
+    <t>SUMA15 KEY TK IDA (senin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABDULGANI PGRI KANAN </t>
+  </si>
+  <si>
+    <t>207E5444</t>
+  </si>
+  <si>
+    <t>CIGA17 ALI BERKAH</t>
+  </si>
+  <si>
+    <t>Jl aselih</t>
   </si>
 </sst>
 </file>
@@ -2956,7 +3028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3215,6 +3287,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3512,10 +3593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K501"/>
+  <dimension ref="A1:K720"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="B501" sqref="B501"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A496" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J508" sqref="J508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19068,10 +19149,6799 @@
       </c>
       <c r="K501" s="4"/>
     </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <v>1</v>
+      </c>
+      <c r="B502" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C502" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E502" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F502" s="1"/>
+      <c r="G502" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="H502" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="I502" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J502" s="1"/>
+      <c r="K502" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <v>1</v>
+      </c>
+      <c r="B503" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C503" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E503" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="F503" s="1"/>
+      <c r="G503" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="H503" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="I503" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J503" s="1"/>
+      <c r="K503" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <v>1</v>
+      </c>
+      <c r="B504" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C504" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E504" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="F504" s="1"/>
+      <c r="G504" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="H504" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="I504" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J504" s="1"/>
+      <c r="K504" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <v>1</v>
+      </c>
+      <c r="B505" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C505" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E505" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="F505" s="1"/>
+      <c r="G505" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="H505" s="105" t="s">
+        <v>126</v>
+      </c>
+      <c r="I505" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J505" s="1"/>
+      <c r="K505" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <v>1</v>
+      </c>
+      <c r="B506" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C506" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E506" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="F506" s="1"/>
+      <c r="G506" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="H506" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="I506" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J506" s="1"/>
+      <c r="K506" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <v>1</v>
+      </c>
+      <c r="B507" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C507" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E507" s="105" t="s">
+        <v>669</v>
+      </c>
+      <c r="F507" s="1"/>
+      <c r="G507" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H507" s="105" t="s">
+        <v>670</v>
+      </c>
+      <c r="I507" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J507" s="1"/>
+      <c r="K507" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <v>1</v>
+      </c>
+      <c r="B508" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C508" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E508" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="F508" s="1"/>
+      <c r="G508" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H508" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="I508" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J508" s="1"/>
+      <c r="K508" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <v>1</v>
+      </c>
+      <c r="B509" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C509" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E509" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="F509" s="1"/>
+      <c r="G509" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H509" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="I509" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J509" s="1"/>
+      <c r="K509" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <v>1</v>
+      </c>
+      <c r="B510" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C510" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E510" s="105" t="s">
+        <v>245</v>
+      </c>
+      <c r="F510" s="1"/>
+      <c r="G510" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H510" s="105" t="s">
+        <v>246</v>
+      </c>
+      <c r="I510" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J510" s="1"/>
+      <c r="K510" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <v>1</v>
+      </c>
+      <c r="B511" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C511" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E511" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="F511" s="1"/>
+      <c r="G511" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="H511" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="I511" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J511" s="1"/>
+      <c r="K511" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <v>1</v>
+      </c>
+      <c r="B512" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C512" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E512" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="F512" s="1"/>
+      <c r="G512" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H512" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="I512" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J512" s="1"/>
+      <c r="K512" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <v>1</v>
+      </c>
+      <c r="B513" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C513" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E513" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="F513" s="1"/>
+      <c r="G513" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="H513" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="I513" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J513" s="1"/>
+      <c r="K513" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <v>1</v>
+      </c>
+      <c r="B514" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C514" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E514" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="F514" s="1"/>
+      <c r="G514" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="H514" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="I514" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J514" s="1"/>
+      <c r="K514" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <v>1</v>
+      </c>
+      <c r="B515" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C515" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E515" s="105" t="s">
+        <v>303</v>
+      </c>
+      <c r="F515" s="1"/>
+      <c r="G515" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H515" s="105" t="s">
+        <v>304</v>
+      </c>
+      <c r="I515" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J515" s="1"/>
+      <c r="K515" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <v>1</v>
+      </c>
+      <c r="B516" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C516" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E516" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="F516" s="1"/>
+      <c r="G516" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H516" s="105" t="s">
+        <v>273</v>
+      </c>
+      <c r="I516" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J516" s="1"/>
+      <c r="K516" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <v>1</v>
+      </c>
+      <c r="B517" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C517" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E517" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="F517" s="1"/>
+      <c r="G517" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="H517" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="I517" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J517" s="1"/>
+      <c r="K517" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <v>1</v>
+      </c>
+      <c r="B518" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C518" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E518" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="F518" s="1"/>
+      <c r="G518" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="H518" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="I518" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J518" s="1"/>
+      <c r="K518" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <v>1</v>
+      </c>
+      <c r="B519" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C519" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E519" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="F519" s="1"/>
+      <c r="G519" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="H519" s="105" t="s">
+        <v>162</v>
+      </c>
+      <c r="I519" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J519" s="1"/>
+      <c r="K519" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <v>1</v>
+      </c>
+      <c r="B520" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C520" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E520" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="F520" s="1"/>
+      <c r="G520" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H520" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="I520" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J520" s="1"/>
+      <c r="K520" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>1</v>
+      </c>
+      <c r="B521" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C521" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E521" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="F521" s="1"/>
+      <c r="G521" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H521" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="I521" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J521" s="1"/>
+      <c r="K521" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <v>1</v>
+      </c>
+      <c r="B522" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C522" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E522" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="F522" s="1"/>
+      <c r="G522" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H522" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="I522" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J522" s="1"/>
+      <c r="K522" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>1</v>
+      </c>
+      <c r="B523" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C523" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E523" s="105" t="s">
+        <v>672</v>
+      </c>
+      <c r="F523" s="1"/>
+      <c r="G523" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="H523" s="105" t="s">
+        <v>673</v>
+      </c>
+      <c r="I523" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J523" s="1"/>
+      <c r="K523" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <v>1</v>
+      </c>
+      <c r="B524" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C524" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E524" s="105" t="s">
+        <v>297</v>
+      </c>
+      <c r="F524" s="1"/>
+      <c r="G524" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H524" s="105" t="s">
+        <v>298</v>
+      </c>
+      <c r="I524" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J524" s="1"/>
+      <c r="K524" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <v>1</v>
+      </c>
+      <c r="B525" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C525" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E525" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="F525" s="1"/>
+      <c r="G525" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H525" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="I525" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J525" s="1"/>
+      <c r="K525" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>1</v>
+      </c>
+      <c r="B526" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C526" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E526" s="105" t="s">
+        <v>675</v>
+      </c>
+      <c r="F526" s="1"/>
+      <c r="G526" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H526" s="105" t="s">
+        <v>676</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J526" s="1"/>
+      <c r="K526" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <v>1</v>
+      </c>
+      <c r="B527" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C527" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E527" s="105" t="s">
+        <v>236</v>
+      </c>
+      <c r="F527" s="1"/>
+      <c r="G527" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="H527" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="I527" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J527" s="1"/>
+      <c r="K527" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <v>1</v>
+      </c>
+      <c r="B528" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C528" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E528" s="105" t="s">
+        <v>307</v>
+      </c>
+      <c r="F528" s="1"/>
+      <c r="G528" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="H528" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J528" s="1"/>
+      <c r="K528" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>1</v>
+      </c>
+      <c r="B529" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C529" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E529" s="105" t="s">
+        <v>299</v>
+      </c>
+      <c r="F529" s="1"/>
+      <c r="G529" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H529" s="105" t="s">
+        <v>300</v>
+      </c>
+      <c r="I529" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J529" s="1"/>
+      <c r="K529" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <v>1</v>
+      </c>
+      <c r="B530" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C530" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E530" s="105" t="s">
+        <v>309</v>
+      </c>
+      <c r="F530" s="1"/>
+      <c r="G530" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H530" s="105" t="s">
+        <v>310</v>
+      </c>
+      <c r="I530" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J530" s="1"/>
+      <c r="K530" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>1</v>
+      </c>
+      <c r="B531" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C531" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E531" s="105" t="s">
+        <v>678</v>
+      </c>
+      <c r="F531" s="1"/>
+      <c r="G531" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H531" s="105" t="s">
+        <v>679</v>
+      </c>
+      <c r="I531" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J531" s="1"/>
+      <c r="K531" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>1</v>
+      </c>
+      <c r="B532" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C532" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E532" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="F532" s="1"/>
+      <c r="G532" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="H532" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="I532" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J532" s="1"/>
+      <c r="K532" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <v>1</v>
+      </c>
+      <c r="B533" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C533" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E533" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="F533" s="1"/>
+      <c r="G533" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="H533" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="I533" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J533" s="1"/>
+      <c r="K533" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <v>1</v>
+      </c>
+      <c r="B534" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C534" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E534" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="F534" s="1"/>
+      <c r="G534" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H534" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="I534" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J534" s="1"/>
+      <c r="K534" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>1</v>
+      </c>
+      <c r="B535" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C535" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E535" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="F535" s="1"/>
+      <c r="G535" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="H535" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="I535" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J535" s="1"/>
+      <c r="K535" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
+        <v>1</v>
+      </c>
+      <c r="B536" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C536" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E536" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F536" s="1"/>
+      <c r="G536" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="H536" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="I536" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J536" s="1"/>
+      <c r="K536" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
+        <v>1</v>
+      </c>
+      <c r="B537" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C537" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E537" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="F537" s="1"/>
+      <c r="G537" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="H537" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J537" s="1"/>
+      <c r="K537" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A538" s="1">
+        <v>1</v>
+      </c>
+      <c r="B538" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C538" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E538" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="F538" s="1"/>
+      <c r="G538" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="H538" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="I538" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J538" s="1"/>
+      <c r="K538" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A539" s="1">
+        <v>1</v>
+      </c>
+      <c r="B539" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C539" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E539" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="F539" s="1"/>
+      <c r="G539" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="H539" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="I539" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J539" s="1"/>
+      <c r="K539" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A540" s="1">
+        <v>1</v>
+      </c>
+      <c r="B540" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C540" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E540" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="F540" s="1"/>
+      <c r="G540" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="H540" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="I540" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J540" s="1"/>
+      <c r="K540" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A541" s="1">
+        <v>1</v>
+      </c>
+      <c r="B541" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C541" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E541" s="105" t="s">
+        <v>249</v>
+      </c>
+      <c r="F541" s="1"/>
+      <c r="G541" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H541" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="I541" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J541" s="1"/>
+      <c r="K541" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A542" s="1">
+        <v>1</v>
+      </c>
+      <c r="B542" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C542" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E542" s="105" t="s">
+        <v>669</v>
+      </c>
+      <c r="F542" s="1"/>
+      <c r="G542" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H542" s="105" t="s">
+        <v>670</v>
+      </c>
+      <c r="I542" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J542" s="1"/>
+      <c r="K542" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A543" s="1">
+        <v>1</v>
+      </c>
+      <c r="B543" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C543" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E543" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="F543" s="1"/>
+      <c r="G543" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H543" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="I543" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J543" s="1"/>
+      <c r="K543" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A544" s="1">
+        <v>1</v>
+      </c>
+      <c r="B544" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C544" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E544" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="F544" s="1"/>
+      <c r="G544" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H544" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="I544" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J544" s="1"/>
+      <c r="K544" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A545" s="1">
+        <v>1</v>
+      </c>
+      <c r="B545" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C545" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E545" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="F545" s="1"/>
+      <c r="G545" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H545" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="I545" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J545" s="1"/>
+      <c r="K545" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A546" s="1">
+        <v>1</v>
+      </c>
+      <c r="B546" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C546" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E546" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="F546" s="1"/>
+      <c r="G546" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H546" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="I546" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J546" s="1"/>
+      <c r="K546" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A547" s="1">
+        <v>1</v>
+      </c>
+      <c r="B547" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C547" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E547" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="F547" s="1"/>
+      <c r="G547" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="H547" s="105" t="s">
+        <v>255</v>
+      </c>
+      <c r="I547" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J547" s="1"/>
+      <c r="K547" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A548" s="1">
+        <v>1</v>
+      </c>
+      <c r="B548" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C548" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E548" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="F548" s="1"/>
+      <c r="G548" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="H548" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="I548" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J548" s="1"/>
+      <c r="K548" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A549" s="1">
+        <v>1</v>
+      </c>
+      <c r="B549" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C549" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E549" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="F549" s="1"/>
+      <c r="G549" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H549" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="I549" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J549" s="1"/>
+      <c r="K549" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A550" s="1">
+        <v>1</v>
+      </c>
+      <c r="B550" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C550" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E550" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="F550" s="1"/>
+      <c r="G550" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="H550" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="I550" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J550" s="1"/>
+      <c r="K550" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A551" s="1">
+        <v>1</v>
+      </c>
+      <c r="B551" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C551" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E551" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="F551" s="1"/>
+      <c r="G551" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="H551" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="I551" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J551" s="1"/>
+      <c r="K551" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A552" s="1">
+        <v>1</v>
+      </c>
+      <c r="B552" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C552" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E552" s="105" t="s">
+        <v>287</v>
+      </c>
+      <c r="F552" s="1"/>
+      <c r="G552" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H552" s="105" t="s">
+        <v>288</v>
+      </c>
+      <c r="I552" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J552" s="1"/>
+      <c r="K552" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A553" s="1">
+        <v>1</v>
+      </c>
+      <c r="B553" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C553" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E553" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="F553" s="1"/>
+      <c r="G553" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="H553" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="I553" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J553" s="1"/>
+      <c r="K553" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A554" s="1">
+        <v>1</v>
+      </c>
+      <c r="B554" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C554" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E554" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="F554" s="1"/>
+      <c r="G554" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="H554" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="I554" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J554" s="1"/>
+      <c r="K554" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A555" s="1">
+        <v>1</v>
+      </c>
+      <c r="B555" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C555" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E555" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="F555" s="1"/>
+      <c r="G555" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="H555" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="I555" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J555" s="1"/>
+      <c r="K555" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A556" s="1">
+        <v>1</v>
+      </c>
+      <c r="B556" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C556" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E556" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="F556" s="1"/>
+      <c r="G556" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="H556" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="I556" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J556" s="1"/>
+      <c r="K556" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A557" s="1">
+        <v>1</v>
+      </c>
+      <c r="B557" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C557" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E557" s="105" t="s">
+        <v>213</v>
+      </c>
+      <c r="F557" s="1"/>
+      <c r="G557" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="H557" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="I557" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J557" s="1"/>
+      <c r="K557" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A558" s="1">
+        <v>1</v>
+      </c>
+      <c r="B558" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C558" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E558" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="F558" s="1"/>
+      <c r="G558" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="H558" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="I558" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J558" s="1"/>
+      <c r="K558" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A559" s="1">
+        <v>1</v>
+      </c>
+      <c r="B559" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C559" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D559" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="E559" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F559" s="1"/>
+      <c r="G559" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H559" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="I559" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J559" s="1"/>
+      <c r="K559" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A560" s="1">
+        <v>1</v>
+      </c>
+      <c r="B560" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C560" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E560" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="F560" s="1"/>
+      <c r="G560" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="H560" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="I560" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J560" s="1"/>
+      <c r="K560" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A561" s="1">
+        <v>1</v>
+      </c>
+      <c r="B561" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C561" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E561" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="F561" s="1"/>
+      <c r="G561" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="H561" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="I561" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J561" s="1"/>
+      <c r="K561" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A562" s="1">
+        <v>1</v>
+      </c>
+      <c r="B562" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C562" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E562" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="F562" s="1"/>
+      <c r="G562" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="H562" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="I562" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J562" s="1"/>
+      <c r="K562" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A563" s="1">
+        <v>1</v>
+      </c>
+      <c r="B563" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C563" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E563" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="F563" s="1"/>
+      <c r="G563" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H563" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="I563" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J563" s="1"/>
+      <c r="K563" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A564" s="1">
+        <v>1</v>
+      </c>
+      <c r="B564" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C564" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E564" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="F564" s="1"/>
+      <c r="G564" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="H564" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="I564" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J564" s="1"/>
+      <c r="K564" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A565" s="1">
+        <v>1</v>
+      </c>
+      <c r="B565" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C565" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E565" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="F565" s="1"/>
+      <c r="G565" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H565" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="I565" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J565" s="1"/>
+      <c r="K565" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A566" s="1">
+        <v>1</v>
+      </c>
+      <c r="B566" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C566" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E566" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="F566" s="1"/>
+      <c r="G566" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="H566" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="I566" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J566" s="1"/>
+      <c r="K566" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A567" s="1">
+        <v>1</v>
+      </c>
+      <c r="B567" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C567" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E567" s="105" t="s">
+        <v>215</v>
+      </c>
+      <c r="F567" s="1"/>
+      <c r="G567" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="H567" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="I567" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J567" s="1"/>
+      <c r="K567" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A568" s="1">
+        <v>1</v>
+      </c>
+      <c r="B568" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C568" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E568" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="F568" s="1"/>
+      <c r="G568" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H568" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="I568" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J568" s="1"/>
+      <c r="K568" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A569" s="1">
+        <v>1</v>
+      </c>
+      <c r="B569" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C569" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E569" s="105" t="s">
+        <v>675</v>
+      </c>
+      <c r="F569" s="1"/>
+      <c r="G569" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H569" s="105" t="s">
+        <v>676</v>
+      </c>
+      <c r="I569" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J569" s="1"/>
+      <c r="K569" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A570" s="1">
+        <v>1</v>
+      </c>
+      <c r="B570" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C570" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E570" s="105" t="s">
+        <v>236</v>
+      </c>
+      <c r="F570" s="1"/>
+      <c r="G570" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="H570" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="I570" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J570" s="1"/>
+      <c r="K570" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A571" s="1">
+        <v>1</v>
+      </c>
+      <c r="B571" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C571" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E571" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="F571" s="1"/>
+      <c r="G571" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H571" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="I571" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J571" s="1"/>
+      <c r="K571" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A572" s="1">
+        <v>1</v>
+      </c>
+      <c r="B572" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C572" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E572" s="105" t="s">
+        <v>299</v>
+      </c>
+      <c r="F572" s="1"/>
+      <c r="G572" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H572" s="105" t="s">
+        <v>300</v>
+      </c>
+      <c r="I572" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J572" s="1"/>
+      <c r="K572" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A573" s="1">
+        <v>1</v>
+      </c>
+      <c r="B573" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C573" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E573" s="105" t="s">
+        <v>311</v>
+      </c>
+      <c r="F573" s="1"/>
+      <c r="G573" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="H573" s="105" t="s">
+        <v>312</v>
+      </c>
+      <c r="I573" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J573" s="1"/>
+      <c r="K573" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A574" s="1">
+        <v>1</v>
+      </c>
+      <c r="B574" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C574" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E574" s="105" t="s">
+        <v>200</v>
+      </c>
+      <c r="F574" s="1"/>
+      <c r="G574" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H574" s="105" t="s">
+        <v>201</v>
+      </c>
+      <c r="I574" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J574" s="1"/>
+      <c r="K574" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A575" s="1">
+        <v>1</v>
+      </c>
+      <c r="B575" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C575" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E575" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="F575" s="1"/>
+      <c r="G575" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H575" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="I575" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J575" s="1"/>
+      <c r="K575" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A576" s="1">
+        <v>1</v>
+      </c>
+      <c r="B576" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C576" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E576" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="F576" s="1"/>
+      <c r="G576" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="H576" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="I576" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J576" s="1"/>
+      <c r="K576" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A577" s="1">
+        <v>1</v>
+      </c>
+      <c r="B577" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C577" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E577" s="105" t="s">
+        <v>309</v>
+      </c>
+      <c r="F577" s="1"/>
+      <c r="G577" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H577" s="105" t="s">
+        <v>310</v>
+      </c>
+      <c r="I577" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J577" s="1"/>
+      <c r="K577" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A578" s="1">
+        <v>1</v>
+      </c>
+      <c r="B578" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C578" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E578" s="105" t="s">
+        <v>303</v>
+      </c>
+      <c r="F578" s="1"/>
+      <c r="G578" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H578" s="105" t="s">
+        <v>304</v>
+      </c>
+      <c r="I578" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J578" s="1">
+        <v>3</v>
+      </c>
+      <c r="K578" s="1"/>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A579" s="1">
+        <v>1</v>
+      </c>
+      <c r="B579" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C579" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E579" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="F579" s="1"/>
+      <c r="G579" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H579" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="I579" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J579" s="1">
+        <v>4</v>
+      </c>
+      <c r="K579" s="1"/>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A580" s="1">
+        <v>1</v>
+      </c>
+      <c r="B580" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C580" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E580" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="F580" s="1"/>
+      <c r="G580" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="H580" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="I580" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J580" s="1">
+        <v>2</v>
+      </c>
+      <c r="K580" s="1"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A581" s="1">
+        <v>1</v>
+      </c>
+      <c r="B581" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C581" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E581" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="F581" s="1"/>
+      <c r="G581" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="H581" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="I581" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J581" s="1">
+        <v>2</v>
+      </c>
+      <c r="K581" s="1"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A582" s="1">
+        <v>1</v>
+      </c>
+      <c r="B582" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C582" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E582" s="105" t="s">
+        <v>213</v>
+      </c>
+      <c r="F582" s="1"/>
+      <c r="G582" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="H582" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="I582" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J582" s="1">
+        <v>2</v>
+      </c>
+      <c r="K582" s="1"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A583" s="1">
+        <v>1</v>
+      </c>
+      <c r="B583" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C583" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E583" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="F583" s="1"/>
+      <c r="G583" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="H583" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="I583" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J583" s="1">
+        <v>2</v>
+      </c>
+      <c r="K583" s="1"/>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A584" s="1">
+        <v>1</v>
+      </c>
+      <c r="B584" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C584" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E584" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="F584" s="1"/>
+      <c r="G584" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="H584" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="I584" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J584" s="1">
+        <v>5</v>
+      </c>
+      <c r="K584" s="1"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A585" s="1">
+        <v>1</v>
+      </c>
+      <c r="B585" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C585" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E585" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="F585" s="1"/>
+      <c r="G585" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="H585" s="105" t="s">
+        <v>126</v>
+      </c>
+      <c r="I585" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J585" s="1">
+        <v>4</v>
+      </c>
+      <c r="K585" s="1"/>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A586" s="1">
+        <v>1</v>
+      </c>
+      <c r="B586" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C586" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E586" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="F586" s="1"/>
+      <c r="G586" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="H586" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="I586" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J586" s="1">
+        <v>1</v>
+      </c>
+      <c r="K586" s="1"/>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A587" s="1">
+        <v>1</v>
+      </c>
+      <c r="B587" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C587" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E587" s="105" t="s">
+        <v>309</v>
+      </c>
+      <c r="F587" s="1"/>
+      <c r="G587" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H587" s="105" t="s">
+        <v>310</v>
+      </c>
+      <c r="I587" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J587" s="1">
+        <v>5</v>
+      </c>
+      <c r="K587" s="1"/>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A588" s="1">
+        <v>1</v>
+      </c>
+      <c r="B588" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C588" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E588" s="105" t="s">
+        <v>681</v>
+      </c>
+      <c r="F588" s="1"/>
+      <c r="G588" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H588" s="105" t="s">
+        <v>682</v>
+      </c>
+      <c r="I588" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J588" s="1">
+        <v>1</v>
+      </c>
+      <c r="K588" s="1"/>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A589" s="1">
+        <v>1</v>
+      </c>
+      <c r="B589" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C589" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E589" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="F589" s="1"/>
+      <c r="G589" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="H589" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="I589" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J589" s="1">
+        <v>1</v>
+      </c>
+      <c r="K589" s="1"/>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A590" s="1">
+        <v>1</v>
+      </c>
+      <c r="B590" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C590" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E590" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="F590" s="1"/>
+      <c r="G590" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H590" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="I590" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J590" s="1">
+        <v>3</v>
+      </c>
+      <c r="K590" s="1"/>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A591" s="1">
+        <v>1</v>
+      </c>
+      <c r="B591" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C591" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D591" s="107" t="s">
+        <v>92</v>
+      </c>
+      <c r="E591" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="F591" s="107"/>
+      <c r="G591" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H591" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="I591" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J591" s="107">
+        <v>7</v>
+      </c>
+      <c r="K591" s="107"/>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A592" s="1">
+        <v>1</v>
+      </c>
+      <c r="B592" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C592" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D592" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="E592" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="F592" s="107"/>
+      <c r="G592" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H592" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="I592" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J592" s="107">
+        <v>2</v>
+      </c>
+      <c r="K592" s="107"/>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A593" s="1">
+        <v>1</v>
+      </c>
+      <c r="B593" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C593" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E593" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="F593" s="1"/>
+      <c r="G593" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H593" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="I593" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J593" s="1">
+        <v>2</v>
+      </c>
+      <c r="K593" s="1"/>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A594" s="1">
+        <v>1</v>
+      </c>
+      <c r="B594" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C594" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E594" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="F594" s="1"/>
+      <c r="G594" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H594" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="I594" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J594" s="1">
+        <v>1</v>
+      </c>
+      <c r="K594" s="1"/>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A595" s="1">
+        <v>1</v>
+      </c>
+      <c r="B595" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C595" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E595" s="105" t="s">
+        <v>266</v>
+      </c>
+      <c r="F595" s="1"/>
+      <c r="G595" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="H595" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="I595" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J595" s="1">
+        <v>1</v>
+      </c>
+      <c r="K595" s="1"/>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A596" s="1">
+        <v>1</v>
+      </c>
+      <c r="B596" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C596" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E596" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="F596" s="1"/>
+      <c r="G596" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="H596" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="I596" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J596" s="1">
+        <v>1</v>
+      </c>
+      <c r="K596" s="1"/>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A597" s="1">
+        <v>1</v>
+      </c>
+      <c r="B597" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C597" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E597" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="F597" s="1"/>
+      <c r="G597" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="H597" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="I597" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J597" s="1">
+        <v>10</v>
+      </c>
+      <c r="K597" s="1"/>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A598" s="1">
+        <v>1</v>
+      </c>
+      <c r="B598" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C598" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E598" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="F598" s="1"/>
+      <c r="G598" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="H598" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="I598" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J598" s="1">
+        <v>1</v>
+      </c>
+      <c r="K598" s="1"/>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A599" s="1">
+        <v>1</v>
+      </c>
+      <c r="B599" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C599" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E599" s="105" t="s">
+        <v>245</v>
+      </c>
+      <c r="F599" s="1"/>
+      <c r="G599" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H599" s="105" t="s">
+        <v>246</v>
+      </c>
+      <c r="I599" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J599" s="1">
+        <v>1</v>
+      </c>
+      <c r="K599" s="1"/>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A600" s="1">
+        <v>1</v>
+      </c>
+      <c r="B600" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C600" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E600" s="105" t="s">
+        <v>249</v>
+      </c>
+      <c r="F600" s="1"/>
+      <c r="G600" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H600" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="I600" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J600" s="1">
+        <v>4</v>
+      </c>
+      <c r="K600" s="1"/>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A601" s="1">
+        <v>1</v>
+      </c>
+      <c r="B601" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C601" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E601" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="F601" s="1"/>
+      <c r="G601" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H601" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="I601" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J601" s="1">
+        <v>3</v>
+      </c>
+      <c r="K601" s="1"/>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A602" s="1">
+        <v>1</v>
+      </c>
+      <c r="B602" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C602" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E602" s="105" t="s">
+        <v>297</v>
+      </c>
+      <c r="F602" s="1"/>
+      <c r="G602" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H602" s="105" t="s">
+        <v>298</v>
+      </c>
+      <c r="I602" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J602" s="1">
+        <v>2</v>
+      </c>
+      <c r="K602" s="1"/>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A603" s="1">
+        <v>1</v>
+      </c>
+      <c r="B603" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C603" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E603" s="105" t="s">
+        <v>200</v>
+      </c>
+      <c r="F603" s="1"/>
+      <c r="G603" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H603" s="105" t="s">
+        <v>201</v>
+      </c>
+      <c r="I603" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J603" s="1">
+        <v>1</v>
+      </c>
+      <c r="K603" s="1"/>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A604" s="1">
+        <v>1</v>
+      </c>
+      <c r="B604" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C604" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E604" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="F604" s="1"/>
+      <c r="G604" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="H604" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="I604" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J604" s="1">
+        <v>20</v>
+      </c>
+      <c r="K604" s="1"/>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A605" s="1">
+        <v>1</v>
+      </c>
+      <c r="B605" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C605" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E605" s="105" t="s">
+        <v>675</v>
+      </c>
+      <c r="F605" s="1"/>
+      <c r="G605" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H605" s="105" t="s">
+        <v>676</v>
+      </c>
+      <c r="I605" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J605" s="1">
+        <v>1</v>
+      </c>
+      <c r="K605" s="1"/>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A606" s="1">
+        <v>1</v>
+      </c>
+      <c r="B606" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C606" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E606" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="F606" s="1"/>
+      <c r="G606" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H606" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="I606" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J606" s="1">
+        <v>1</v>
+      </c>
+      <c r="K606" s="1"/>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A607" s="1">
+        <v>1</v>
+      </c>
+      <c r="B607" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C607" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E607" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F607" s="1"/>
+      <c r="G607" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="H607" s="105" t="s">
+        <v>203</v>
+      </c>
+      <c r="I607" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J607" s="1">
+        <v>2</v>
+      </c>
+      <c r="K607" s="1"/>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A608" s="1">
+        <v>1</v>
+      </c>
+      <c r="B608" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C608" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E608" s="105" t="s">
+        <v>307</v>
+      </c>
+      <c r="F608" s="1"/>
+      <c r="G608" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="H608" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="I608" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J608" s="1">
+        <v>1</v>
+      </c>
+      <c r="K608" s="1"/>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A609" s="1">
+        <v>1</v>
+      </c>
+      <c r="B609" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C609" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E609" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="F609" s="1"/>
+      <c r="G609" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H609" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="I609" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J609" s="1">
+        <v>5</v>
+      </c>
+      <c r="K609" s="1"/>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A610" s="1">
+        <v>1</v>
+      </c>
+      <c r="B610" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C610" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E610" s="105" t="s">
+        <v>669</v>
+      </c>
+      <c r="F610" s="1"/>
+      <c r="G610" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H610" s="105" t="s">
+        <v>670</v>
+      </c>
+      <c r="I610" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J610" s="1">
+        <v>4</v>
+      </c>
+      <c r="K610" s="1"/>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A611" s="1">
+        <v>1</v>
+      </c>
+      <c r="B611" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C611" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E611" s="105" t="s">
+        <v>299</v>
+      </c>
+      <c r="F611" s="1"/>
+      <c r="G611" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H611" s="105" t="s">
+        <v>300</v>
+      </c>
+      <c r="I611" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J611" s="1">
+        <v>1</v>
+      </c>
+      <c r="K611" s="1"/>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A612" s="1">
+        <v>1</v>
+      </c>
+      <c r="B612" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C612" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E612" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F612" s="1"/>
+      <c r="G612" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="H612" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="I612" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J612" s="1">
+        <v>2</v>
+      </c>
+      <c r="K612" s="1"/>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A613" s="1">
+        <v>1</v>
+      </c>
+      <c r="B613" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C613" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E613" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="F613" s="1"/>
+      <c r="G613" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="H613" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="I613" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J613" s="1">
+        <v>2</v>
+      </c>
+      <c r="K613" s="1"/>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A614" s="1">
+        <v>1</v>
+      </c>
+      <c r="B614" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C614" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E614" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="F614" s="1"/>
+      <c r="G614" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H614" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="I614" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J614" s="1">
+        <v>1</v>
+      </c>
+      <c r="K614" s="1"/>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A615" s="1">
+        <v>1</v>
+      </c>
+      <c r="B615" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C615" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E615" s="105" t="s">
+        <v>303</v>
+      </c>
+      <c r="F615" s="1"/>
+      <c r="G615" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H615" s="105" t="s">
+        <v>304</v>
+      </c>
+      <c r="I615" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J615" s="1">
+        <v>1</v>
+      </c>
+      <c r="K615" s="1"/>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A616" s="1">
+        <v>1</v>
+      </c>
+      <c r="B616" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C616" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E616" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="F616" s="1"/>
+      <c r="G616" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H616" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="I616" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J616" s="1">
+        <v>6</v>
+      </c>
+      <c r="K616" s="1"/>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A617" s="1">
+        <v>1</v>
+      </c>
+      <c r="B617" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C617" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E617" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="F617" s="1"/>
+      <c r="G617" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="H617" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="I617" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J617" s="1">
+        <v>6</v>
+      </c>
+      <c r="K617" s="1"/>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A618" s="1">
+        <v>1</v>
+      </c>
+      <c r="B618" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C618" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E618" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="F618" s="1"/>
+      <c r="G618" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="H618" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="I618" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J618" s="1">
+        <v>2</v>
+      </c>
+      <c r="K618" s="1"/>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A619" s="1">
+        <v>1</v>
+      </c>
+      <c r="B619" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C619" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E619" s="105" t="s">
+        <v>213</v>
+      </c>
+      <c r="F619" s="1"/>
+      <c r="G619" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="H619" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="I619" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J619" s="1">
+        <v>3</v>
+      </c>
+      <c r="K619" s="1"/>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A620" s="1">
+        <v>1</v>
+      </c>
+      <c r="B620" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C620" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E620" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="F620" s="1"/>
+      <c r="G620" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="H620" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="I620" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J620" s="1">
+        <v>15</v>
+      </c>
+      <c r="K620" s="1"/>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A621" s="1">
+        <v>1</v>
+      </c>
+      <c r="B621" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C621" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E621" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="F621" s="1"/>
+      <c r="G621" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="H621" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="I621" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J621" s="1">
+        <v>10</v>
+      </c>
+      <c r="K621" s="1"/>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A622" s="1">
+        <v>1</v>
+      </c>
+      <c r="B622" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C622" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E622" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="F622" s="1"/>
+      <c r="G622" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="H622" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="I622" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J622" s="1">
+        <v>5</v>
+      </c>
+      <c r="K622" s="1"/>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A623" s="1">
+        <v>1</v>
+      </c>
+      <c r="B623" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C623" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E623" s="105" t="s">
+        <v>215</v>
+      </c>
+      <c r="F623" s="1"/>
+      <c r="G623" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="H623" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="I623" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J623" s="1">
+        <v>2</v>
+      </c>
+      <c r="K623" s="1"/>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A624" s="1">
+        <v>1</v>
+      </c>
+      <c r="B624" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C624" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E624" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="F624" s="1"/>
+      <c r="G624" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="H624" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="I624" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J624" s="1">
+        <v>10</v>
+      </c>
+      <c r="K624" s="1"/>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A625" s="1">
+        <v>1</v>
+      </c>
+      <c r="B625" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C625" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E625" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="F625" s="1"/>
+      <c r="G625" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="H625" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="I625" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J625" s="1">
+        <v>10</v>
+      </c>
+      <c r="K625" s="1"/>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A626" s="1">
+        <v>1</v>
+      </c>
+      <c r="B626" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C626" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E626" s="105" t="s">
+        <v>270</v>
+      </c>
+      <c r="F626" s="1"/>
+      <c r="G626" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="H626" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="I626" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J626" s="1">
+        <v>10</v>
+      </c>
+      <c r="K626" s="1"/>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A627" s="1">
+        <v>1</v>
+      </c>
+      <c r="B627" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C627" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E627" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="F627" s="1"/>
+      <c r="G627" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="H627" s="105" t="s">
+        <v>685</v>
+      </c>
+      <c r="I627" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J627" s="1">
+        <v>6</v>
+      </c>
+      <c r="K627" s="1"/>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A628" s="1">
+        <v>1</v>
+      </c>
+      <c r="B628" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C628" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E628" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="F628" s="1"/>
+      <c r="G628" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="H628" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="I628" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J628" s="1">
+        <v>10</v>
+      </c>
+      <c r="K628" s="1"/>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A629" s="1">
+        <v>1</v>
+      </c>
+      <c r="B629" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C629" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E629" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="F629" s="1"/>
+      <c r="G629" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="H629" s="105" t="s">
+        <v>126</v>
+      </c>
+      <c r="I629" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J629" s="1">
+        <v>5</v>
+      </c>
+      <c r="K629" s="1"/>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A630" s="1">
+        <v>1</v>
+      </c>
+      <c r="B630" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C630" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E630" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="F630" s="1"/>
+      <c r="G630" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="H630" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="I630" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J630" s="1">
+        <v>1</v>
+      </c>
+      <c r="K630" s="1"/>
+    </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A631" s="1">
+        <v>1</v>
+      </c>
+      <c r="B631" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C631" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E631" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="F631" s="1"/>
+      <c r="G631" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="H631" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="I631" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J631" s="1">
+        <v>1</v>
+      </c>
+      <c r="K631" s="1"/>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A632" s="1">
+        <v>1</v>
+      </c>
+      <c r="B632" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C632" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E632" s="105" t="s">
+        <v>681</v>
+      </c>
+      <c r="F632" s="1"/>
+      <c r="G632" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H632" s="105" t="s">
+        <v>682</v>
+      </c>
+      <c r="I632" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J632" s="1">
+        <v>1</v>
+      </c>
+      <c r="K632" s="1"/>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A633" s="1">
+        <v>1</v>
+      </c>
+      <c r="B633" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C633" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D633" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E633" s="105" t="s">
+        <v>311</v>
+      </c>
+      <c r="F633" s="1"/>
+      <c r="G633" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="H633" s="105" t="s">
+        <v>312</v>
+      </c>
+      <c r="I633" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J633" s="1">
+        <v>5</v>
+      </c>
+      <c r="K633" s="1"/>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A634" s="1">
+        <v>1</v>
+      </c>
+      <c r="B634" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C634" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E634" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="F634" s="1"/>
+      <c r="G634" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="H634" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="I634" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J634" s="1">
+        <v>5</v>
+      </c>
+      <c r="K634" s="1"/>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A635" s="1">
+        <v>1</v>
+      </c>
+      <c r="B635" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C635" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E635" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="F635" s="1"/>
+      <c r="G635" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H635" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="I635" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J635" s="1">
+        <v>5</v>
+      </c>
+      <c r="K635" s="1"/>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A636" s="1">
+        <v>1</v>
+      </c>
+      <c r="B636" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C636" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E636" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="F636" s="1"/>
+      <c r="G636" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H636" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="I636" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J636" s="1">
+        <v>2</v>
+      </c>
+      <c r="K636" s="1"/>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A637" s="1">
+        <v>1</v>
+      </c>
+      <c r="B637" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C637" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E637" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="F637" s="1"/>
+      <c r="G637" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H637" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="I637" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J637" s="1">
+        <v>3</v>
+      </c>
+      <c r="K637" s="1"/>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A638" s="1">
+        <v>1</v>
+      </c>
+      <c r="B638" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C638" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E638" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="F638" s="1"/>
+      <c r="G638" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H638" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="I638" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J638" s="1">
+        <v>11</v>
+      </c>
+      <c r="K638" s="1"/>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A639" s="1">
+        <v>1</v>
+      </c>
+      <c r="B639" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C639" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E639" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="F639" s="1"/>
+      <c r="G639" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H639" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="I639" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J639" s="1">
+        <v>7</v>
+      </c>
+      <c r="K639" s="1"/>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A640" s="1">
+        <v>1</v>
+      </c>
+      <c r="B640" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C640" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E640" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="F640" s="1"/>
+      <c r="G640" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H640" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="I640" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J640" s="1">
+        <v>5</v>
+      </c>
+      <c r="K640" s="1"/>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A641" s="1">
+        <v>1</v>
+      </c>
+      <c r="B641" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C641" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E641" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="F641" s="1"/>
+      <c r="G641" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H641" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="I641" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J641" s="1">
+        <v>3</v>
+      </c>
+      <c r="K641" s="1"/>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A642" s="1">
+        <v>1</v>
+      </c>
+      <c r="B642" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C642" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E642" s="105" t="s">
+        <v>266</v>
+      </c>
+      <c r="F642" s="1"/>
+      <c r="G642" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="H642" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="I642" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J642" s="1">
+        <v>5</v>
+      </c>
+      <c r="K642" s="1"/>
+    </row>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A643" s="1">
+        <v>1</v>
+      </c>
+      <c r="B643" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C643" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E643" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="F643" s="1"/>
+      <c r="G643" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="H643" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="I643" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J643" s="1">
+        <v>2</v>
+      </c>
+      <c r="K643" s="1"/>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A644" s="1">
+        <v>1</v>
+      </c>
+      <c r="B644" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C644" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E644" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="F644" s="1"/>
+      <c r="G644" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H644" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="I644" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J644" s="1">
+        <v>6</v>
+      </c>
+      <c r="K644" s="1"/>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A645" s="1">
+        <v>1</v>
+      </c>
+      <c r="B645" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C645" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E645" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="F645" s="1"/>
+      <c r="G645" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H645" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="I645" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J645" s="1">
+        <v>6</v>
+      </c>
+      <c r="K645" s="1"/>
+    </row>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A646" s="1">
+        <v>1</v>
+      </c>
+      <c r="B646" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C646" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E646" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="F646" s="1"/>
+      <c r="G646" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H646" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="I646" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J646" s="1">
+        <v>10</v>
+      </c>
+      <c r="K646" s="1"/>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A647" s="1">
+        <v>1</v>
+      </c>
+      <c r="B647" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C647" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E647" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="F647" s="1"/>
+      <c r="G647" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="H647" s="105" t="s">
+        <v>255</v>
+      </c>
+      <c r="I647" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J647" s="1">
+        <v>10</v>
+      </c>
+      <c r="K647" s="1"/>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A648" s="1">
+        <v>1</v>
+      </c>
+      <c r="B648" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C648" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E648" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="F648" s="1"/>
+      <c r="G648" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="H648" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="I648" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J648" s="1">
+        <v>1</v>
+      </c>
+      <c r="K648" s="1"/>
+    </row>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A649" s="1">
+        <v>1</v>
+      </c>
+      <c r="B649" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C649" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E649" s="105" t="s">
+        <v>297</v>
+      </c>
+      <c r="F649" s="1"/>
+      <c r="G649" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H649" s="105" t="s">
+        <v>298</v>
+      </c>
+      <c r="I649" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J649" s="1">
+        <v>11</v>
+      </c>
+      <c r="K649" s="1"/>
+    </row>
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A650" s="1">
+        <v>1</v>
+      </c>
+      <c r="B650" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C650" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E650" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="F650" s="1"/>
+      <c r="G650" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="H650" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="I650" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J650" s="1">
+        <v>50</v>
+      </c>
+      <c r="K650" s="1"/>
+    </row>
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A651" s="1">
+        <v>1</v>
+      </c>
+      <c r="B651" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C651" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E651" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F651" s="1"/>
+      <c r="G651" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="H651" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="I651" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J651" s="1">
+        <v>15</v>
+      </c>
+      <c r="K651" s="1"/>
+    </row>
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A652" s="1">
+        <v>1</v>
+      </c>
+      <c r="B652" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C652" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E652" s="105" t="s">
+        <v>675</v>
+      </c>
+      <c r="F652" s="1"/>
+      <c r="G652" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H652" s="105" t="s">
+        <v>676</v>
+      </c>
+      <c r="I652" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J652" s="1">
+        <v>10</v>
+      </c>
+      <c r="K652" s="1"/>
+    </row>
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A653" s="1">
+        <v>1</v>
+      </c>
+      <c r="B653" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C653" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E653" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="F653" s="1"/>
+      <c r="G653" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H653" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="I653" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J653" s="1">
+        <v>20</v>
+      </c>
+      <c r="K653" s="1"/>
+    </row>
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A654" s="1">
+        <v>1</v>
+      </c>
+      <c r="B654" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C654" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E654" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F654" s="1"/>
+      <c r="G654" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="H654" s="105" t="s">
+        <v>203</v>
+      </c>
+      <c r="I654" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J654" s="1">
+        <v>1</v>
+      </c>
+      <c r="K654" s="1"/>
+    </row>
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A655" s="1">
+        <v>1</v>
+      </c>
+      <c r="B655" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C655" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E655" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="F655" s="1"/>
+      <c r="G655" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="H655" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="I655" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J655" s="1">
+        <v>10</v>
+      </c>
+      <c r="K655" s="1"/>
+    </row>
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A656" s="1">
+        <v>1</v>
+      </c>
+      <c r="B656" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C656" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E656" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="F656" s="1"/>
+      <c r="G656" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="H656" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="I656" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J656" s="1">
+        <v>10</v>
+      </c>
+      <c r="K656" s="1"/>
+    </row>
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A657" s="1">
+        <v>1</v>
+      </c>
+      <c r="B657" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C657" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E657" s="105" t="s">
+        <v>307</v>
+      </c>
+      <c r="F657" s="1"/>
+      <c r="G657" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="H657" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="I657" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J657" s="1">
+        <v>3</v>
+      </c>
+      <c r="K657" s="1"/>
+    </row>
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A658" s="1">
+        <v>1</v>
+      </c>
+      <c r="B658" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C658" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E658" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="F658" s="1"/>
+      <c r="G658" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="H658" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="I658" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J658" s="1">
+        <v>3</v>
+      </c>
+      <c r="K658" s="1"/>
+    </row>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A659" s="1">
+        <v>1</v>
+      </c>
+      <c r="B659" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C659" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D659" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E659" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="F659" s="1"/>
+      <c r="G659" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H659" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="I659" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J659" s="1">
+        <v>1</v>
+      </c>
+      <c r="K659" s="1"/>
+    </row>
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A660" s="1">
+        <v>1</v>
+      </c>
+      <c r="B660" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C660" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E660" s="105" t="s">
+        <v>669</v>
+      </c>
+      <c r="F660" s="1"/>
+      <c r="G660" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H660" s="105" t="s">
+        <v>670</v>
+      </c>
+      <c r="I660" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J660" s="1">
+        <v>4</v>
+      </c>
+      <c r="K660" s="1"/>
+    </row>
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A661" s="1">
+        <v>1</v>
+      </c>
+      <c r="B661" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C661" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E661" s="105" t="s">
+        <v>299</v>
+      </c>
+      <c r="F661" s="1"/>
+      <c r="G661" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H661" s="105" t="s">
+        <v>300</v>
+      </c>
+      <c r="I661" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J661" s="1">
+        <v>2</v>
+      </c>
+      <c r="K661" s="1"/>
+    </row>
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A662" s="1">
+        <v>1</v>
+      </c>
+      <c r="B662" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C662" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E662" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F662" s="1"/>
+      <c r="G662" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="H662" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="I662" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J662" s="1">
+        <v>6</v>
+      </c>
+      <c r="K662" s="1"/>
+    </row>
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A663" s="1">
+        <v>1</v>
+      </c>
+      <c r="B663" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C663" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E663" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="F663" s="1"/>
+      <c r="G663" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="H663" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="I663" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J663" s="1">
+        <v>11</v>
+      </c>
+      <c r="K663" s="1"/>
+    </row>
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A664" s="1">
+        <v>1</v>
+      </c>
+      <c r="B664" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C664" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E664" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="F664" s="1"/>
+      <c r="G664" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H664" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="I664" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J664" s="1">
+        <v>20</v>
+      </c>
+      <c r="K664" s="1"/>
+    </row>
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A665" s="1">
+        <v>1</v>
+      </c>
+      <c r="B665" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C665" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E665" s="105" t="s">
+        <v>303</v>
+      </c>
+      <c r="F665" s="1"/>
+      <c r="G665" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H665" s="105" t="s">
+        <v>304</v>
+      </c>
+      <c r="I665" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J665" s="1">
+        <v>1</v>
+      </c>
+      <c r="K665" s="1"/>
+    </row>
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A666" s="1">
+        <v>1</v>
+      </c>
+      <c r="B666" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C666" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E666" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="F666" s="1"/>
+      <c r="G666" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H666" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="I666" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J666" s="1">
+        <v>4</v>
+      </c>
+      <c r="K666" s="1"/>
+    </row>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A667" s="1">
+        <v>1</v>
+      </c>
+      <c r="B667" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C667" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E667" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="F667" s="1"/>
+      <c r="G667" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="H667" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="I667" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J667" s="1">
+        <v>1</v>
+      </c>
+      <c r="K667" s="1"/>
+    </row>
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A668" s="1">
+        <v>1</v>
+      </c>
+      <c r="B668" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C668" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E668" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="F668" s="1"/>
+      <c r="G668" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="H668" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="I668" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J668" s="1">
+        <v>2</v>
+      </c>
+      <c r="K668" s="1"/>
+    </row>
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A669" s="1">
+        <v>1</v>
+      </c>
+      <c r="B669" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C669" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E669" s="105" t="s">
+        <v>213</v>
+      </c>
+      <c r="F669" s="1"/>
+      <c r="G669" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="H669" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="I669" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J669" s="1">
+        <v>2</v>
+      </c>
+      <c r="K669" s="1"/>
+    </row>
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A670" s="1">
+        <v>1</v>
+      </c>
+      <c r="B670" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C670" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E670" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="F670" s="1"/>
+      <c r="G670" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="H670" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="I670" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J670" s="1">
+        <v>4</v>
+      </c>
+      <c r="K670" s="1"/>
+    </row>
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A671" s="1">
+        <v>1</v>
+      </c>
+      <c r="B671" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C671" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E671" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="F671" s="1"/>
+      <c r="G671" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="H671" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="I671" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J671" s="1">
+        <v>10</v>
+      </c>
+      <c r="K671" s="1"/>
+    </row>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A672" s="1">
+        <v>1</v>
+      </c>
+      <c r="B672" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C672" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E672" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="F672" s="1"/>
+      <c r="G672" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="H672" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="I672" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J672" s="1">
+        <v>14</v>
+      </c>
+      <c r="K672" s="1"/>
+    </row>
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A673" s="1">
+        <v>1</v>
+      </c>
+      <c r="B673" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C673" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E673" s="105" t="s">
+        <v>672</v>
+      </c>
+      <c r="F673" s="1"/>
+      <c r="G673" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="H673" s="105" t="s">
+        <v>673</v>
+      </c>
+      <c r="I673" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J673" s="1">
+        <v>5</v>
+      </c>
+      <c r="K673" s="1"/>
+    </row>
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A674" s="1">
+        <v>1</v>
+      </c>
+      <c r="B674" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C674" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E674" s="105" t="s">
+        <v>215</v>
+      </c>
+      <c r="F674" s="1"/>
+      <c r="G674" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="H674" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="I674" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J674" s="1">
+        <v>4</v>
+      </c>
+      <c r="K674" s="1"/>
+    </row>
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A675" s="1">
+        <v>1</v>
+      </c>
+      <c r="B675" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C675" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E675" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="F675" s="1"/>
+      <c r="G675" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="H675" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="I675" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J675" s="1">
+        <v>4</v>
+      </c>
+      <c r="K675" s="1"/>
+    </row>
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A676" s="1">
+        <v>1</v>
+      </c>
+      <c r="B676" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C676" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E676" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="F676" s="1"/>
+      <c r="G676" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="H676" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="I676" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J676" s="1">
+        <v>4</v>
+      </c>
+      <c r="K676" s="1"/>
+    </row>
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A677" s="1">
+        <v>1</v>
+      </c>
+      <c r="B677" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C677" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E677" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="F677" s="1"/>
+      <c r="G677" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="H677" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="I677" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J677" s="1">
+        <v>10</v>
+      </c>
+      <c r="K677" s="1"/>
+    </row>
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A678" s="1">
+        <v>1</v>
+      </c>
+      <c r="B678" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C678" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E678" s="105" t="s">
+        <v>270</v>
+      </c>
+      <c r="F678" s="1"/>
+      <c r="G678" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="H678" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="I678" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J678" s="1">
+        <v>11</v>
+      </c>
+      <c r="K678" s="1"/>
+    </row>
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A679" s="1">
+        <v>1</v>
+      </c>
+      <c r="B679" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C679" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E679" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="F679" s="1"/>
+      <c r="G679" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="H679" s="105" t="s">
+        <v>685</v>
+      </c>
+      <c r="I679" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J679" s="1">
+        <v>4</v>
+      </c>
+      <c r="K679" s="1"/>
+    </row>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A680" s="1">
+        <v>1</v>
+      </c>
+      <c r="B680" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C680" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E680" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="F680" s="1"/>
+      <c r="G680" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="H680" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="I680" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J680" s="1">
+        <v>4</v>
+      </c>
+      <c r="K680" s="1"/>
+    </row>
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A681" s="1">
+        <v>1</v>
+      </c>
+      <c r="B681" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C681" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E681" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="F681" s="1"/>
+      <c r="G681" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="H681" s="105" t="s">
+        <v>126</v>
+      </c>
+      <c r="I681" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J681" s="1">
+        <v>4</v>
+      </c>
+      <c r="K681" s="1"/>
+    </row>
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A682" s="1">
+        <v>1</v>
+      </c>
+      <c r="B682" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C682" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E682" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="F682" s="1"/>
+      <c r="G682" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="H682" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="I682" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J682" s="1">
+        <v>1</v>
+      </c>
+      <c r="K682" s="1"/>
+    </row>
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A683" s="1">
+        <v>1</v>
+      </c>
+      <c r="B683" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C683" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E683" s="105" t="s">
+        <v>309</v>
+      </c>
+      <c r="F683" s="1"/>
+      <c r="G683" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H683" s="105" t="s">
+        <v>310</v>
+      </c>
+      <c r="I683" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J683" s="1">
+        <v>1</v>
+      </c>
+      <c r="K683" s="1"/>
+    </row>
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A684" s="1">
+        <v>1</v>
+      </c>
+      <c r="B684" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C684" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E684" s="105" t="s">
+        <v>681</v>
+      </c>
+      <c r="F684" s="1"/>
+      <c r="G684" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H684" s="105" t="s">
+        <v>682</v>
+      </c>
+      <c r="I684" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J684" s="1">
+        <v>1</v>
+      </c>
+      <c r="K684" s="1"/>
+    </row>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A685" s="1">
+        <v>1</v>
+      </c>
+      <c r="B685" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C685" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E685" s="105" t="s">
+        <v>311</v>
+      </c>
+      <c r="F685" s="1"/>
+      <c r="G685" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="H685" s="105" t="s">
+        <v>312</v>
+      </c>
+      <c r="I685" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J685" s="1">
+        <v>1</v>
+      </c>
+      <c r="K685" s="1"/>
+    </row>
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A686" s="1">
+        <v>1</v>
+      </c>
+      <c r="B686" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C686" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E686" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="F686" s="1"/>
+      <c r="G686" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="H686" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="I686" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J686" s="1">
+        <v>2</v>
+      </c>
+      <c r="K686" s="1"/>
+    </row>
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A687" s="1">
+        <v>1</v>
+      </c>
+      <c r="B687" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C687" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E687" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="F687" s="1"/>
+      <c r="G687" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H687" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="I687" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J687" s="1">
+        <v>5</v>
+      </c>
+      <c r="K687" s="1"/>
+    </row>
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A688" s="1">
+        <v>1</v>
+      </c>
+      <c r="B688" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C688" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E688" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="F688" s="1"/>
+      <c r="G688" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H688" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="I688" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J688" s="1">
+        <v>1</v>
+      </c>
+      <c r="K688" s="1"/>
+    </row>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A689" s="1">
+        <v>1</v>
+      </c>
+      <c r="B689" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C689" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E689" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="F689" s="1"/>
+      <c r="G689" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H689" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="I689" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J689" s="1">
+        <v>10</v>
+      </c>
+      <c r="K689" s="1"/>
+    </row>
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A690" s="1">
+        <v>1</v>
+      </c>
+      <c r="B690" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C690" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E690" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="F690" s="1"/>
+      <c r="G690" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H690" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="I690" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J690" s="1">
+        <v>1</v>
+      </c>
+      <c r="K690" s="1"/>
+    </row>
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A691" s="1">
+        <v>1</v>
+      </c>
+      <c r="B691" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C691" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E691" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="F691" s="1"/>
+      <c r="G691" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H691" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="I691" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J691" s="1">
+        <v>1</v>
+      </c>
+      <c r="K691" s="1"/>
+    </row>
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A692" s="1">
+        <v>1</v>
+      </c>
+      <c r="B692" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C692" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E692" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="F692" s="1"/>
+      <c r="G692" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H692" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="I692" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J692" s="1">
+        <v>1</v>
+      </c>
+      <c r="K692" s="1"/>
+    </row>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A693" s="1">
+        <v>1</v>
+      </c>
+      <c r="B693" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C693" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E693" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="F693" s="1"/>
+      <c r="G693" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H693" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="I693" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J693" s="1">
+        <v>1</v>
+      </c>
+      <c r="K693" s="1"/>
+    </row>
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A694" s="1">
+        <v>1</v>
+      </c>
+      <c r="B694" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C694" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E694" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="F694" s="1"/>
+      <c r="G694" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H694" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="I694" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J694" s="1">
+        <v>1</v>
+      </c>
+      <c r="K694" s="1"/>
+    </row>
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A695" s="1">
+        <v>1</v>
+      </c>
+      <c r="B695" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C695" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E695" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="F695" s="1"/>
+      <c r="G695" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="H695" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="I695" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J695" s="1">
+        <v>3</v>
+      </c>
+      <c r="K695" s="1"/>
+    </row>
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A696" s="1">
+        <v>1</v>
+      </c>
+      <c r="B696" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C696" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E696" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="F696" s="1"/>
+      <c r="G696" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="H696" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="I696" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J696" s="1">
+        <v>1</v>
+      </c>
+      <c r="K696" s="1"/>
+    </row>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A697" s="1">
+        <v>1</v>
+      </c>
+      <c r="B697" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C697" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E697" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="F697" s="1"/>
+      <c r="G697" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="H697" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="I697" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J697" s="1">
+        <v>3</v>
+      </c>
+      <c r="K697" s="1"/>
+    </row>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A698" s="1">
+        <v>1</v>
+      </c>
+      <c r="B698" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C698" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E698" s="105" t="s">
+        <v>687</v>
+      </c>
+      <c r="F698" s="1"/>
+      <c r="G698" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H698" s="105" t="s">
+        <v>688</v>
+      </c>
+      <c r="I698" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J698" s="1">
+        <v>4</v>
+      </c>
+      <c r="K698" s="1"/>
+    </row>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A699" s="1">
+        <v>1</v>
+      </c>
+      <c r="B699" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C699" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E699" s="105" t="s">
+        <v>245</v>
+      </c>
+      <c r="F699" s="1"/>
+      <c r="G699" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H699" s="105" t="s">
+        <v>246</v>
+      </c>
+      <c r="I699" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J699" s="1">
+        <v>3</v>
+      </c>
+      <c r="K699" s="1"/>
+    </row>
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A700" s="1">
+        <v>1</v>
+      </c>
+      <c r="B700" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C700" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E700" s="105" t="s">
+        <v>249</v>
+      </c>
+      <c r="F700" s="1"/>
+      <c r="G700" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H700" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="I700" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J700" s="1">
+        <v>1</v>
+      </c>
+      <c r="K700" s="1"/>
+    </row>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A701" s="1">
+        <v>1</v>
+      </c>
+      <c r="B701" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C701" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E701" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="F701" s="1"/>
+      <c r="G701" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H701" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="I701" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J701" s="1">
+        <v>4</v>
+      </c>
+      <c r="K701" s="1"/>
+    </row>
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A702" s="1">
+        <v>1</v>
+      </c>
+      <c r="B702" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C702" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E702" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="F702" s="1"/>
+      <c r="G702" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H702" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="I702" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J702" s="1">
+        <v>3</v>
+      </c>
+      <c r="K702" s="1"/>
+    </row>
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A703" s="1">
+        <v>1</v>
+      </c>
+      <c r="B703" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C703" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E703" s="105" t="s">
+        <v>690</v>
+      </c>
+      <c r="F703" s="1"/>
+      <c r="G703" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="H703" s="105" t="s">
+        <v>691</v>
+      </c>
+      <c r="I703" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J703" s="1">
+        <v>1</v>
+      </c>
+      <c r="K703" s="1"/>
+    </row>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A704" s="1">
+        <v>1</v>
+      </c>
+      <c r="B704" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C704" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E704" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="F704" s="1"/>
+      <c r="G704" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="H704" s="105" t="s">
+        <v>255</v>
+      </c>
+      <c r="I704" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J704" s="1">
+        <v>1</v>
+      </c>
+      <c r="K704" s="1"/>
+    </row>
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A705" s="1">
+        <v>1</v>
+      </c>
+      <c r="B705" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C705" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E705" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="F705" s="1"/>
+      <c r="G705" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H705" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="I705" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J705" s="1">
+        <v>10</v>
+      </c>
+      <c r="K705" s="1"/>
+    </row>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A706" s="1">
+        <v>1</v>
+      </c>
+      <c r="B706" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C706" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E706" s="105" t="s">
+        <v>297</v>
+      </c>
+      <c r="F706" s="1"/>
+      <c r="G706" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H706" s="105" t="s">
+        <v>298</v>
+      </c>
+      <c r="I706" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J706" s="1">
+        <v>1</v>
+      </c>
+      <c r="K706" s="1"/>
+    </row>
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A707" s="1">
+        <v>1</v>
+      </c>
+      <c r="B707" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C707" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E707" s="105" t="s">
+        <v>200</v>
+      </c>
+      <c r="F707" s="1"/>
+      <c r="G707" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H707" s="105" t="s">
+        <v>201</v>
+      </c>
+      <c r="I707" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J707" s="1">
+        <v>1</v>
+      </c>
+      <c r="K707" s="1"/>
+    </row>
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A708" s="1">
+        <v>1</v>
+      </c>
+      <c r="B708" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C708" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E708" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="F708" s="1"/>
+      <c r="G708" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="H708" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="I708" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J708" s="1">
+        <v>21</v>
+      </c>
+      <c r="K708" s="1"/>
+    </row>
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A709" s="1">
+        <v>1</v>
+      </c>
+      <c r="B709" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C709" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E709" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F709" s="1"/>
+      <c r="G709" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="H709" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="I709" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J709" s="1">
+        <v>4</v>
+      </c>
+      <c r="K709" s="1"/>
+    </row>
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A710" s="1">
+        <v>1</v>
+      </c>
+      <c r="B710" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C710" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E710" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="F710" s="1"/>
+      <c r="G710" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H710" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="I710" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J710" s="1">
+        <v>1</v>
+      </c>
+      <c r="K710" s="1"/>
+    </row>
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A711" s="1">
+        <v>1</v>
+      </c>
+      <c r="B711" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C711" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E711" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F711" s="1"/>
+      <c r="G711" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="H711" s="105" t="s">
+        <v>203</v>
+      </c>
+      <c r="I711" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J711" s="1">
+        <v>3</v>
+      </c>
+      <c r="K711" s="1"/>
+    </row>
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A712" s="1">
+        <v>1</v>
+      </c>
+      <c r="B712" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C712" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E712" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="F712" s="1"/>
+      <c r="G712" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="H712" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="I712" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J712" s="1">
+        <v>2</v>
+      </c>
+      <c r="K712" s="1"/>
+    </row>
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A713" s="1">
+        <v>1</v>
+      </c>
+      <c r="B713" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C713" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E713" s="105" t="s">
+        <v>307</v>
+      </c>
+      <c r="F713" s="1"/>
+      <c r="G713" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="H713" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="I713" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J713" s="1">
+        <v>5</v>
+      </c>
+      <c r="K713" s="1"/>
+    </row>
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A714" s="1">
+        <v>1</v>
+      </c>
+      <c r="B714" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C714" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E714" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="F714" s="1"/>
+      <c r="G714" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H714" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="I714" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J714" s="1">
+        <v>2</v>
+      </c>
+      <c r="K714" s="1"/>
+    </row>
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A715" s="1">
+        <v>1</v>
+      </c>
+      <c r="B715" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C715" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E715" s="105" t="s">
+        <v>669</v>
+      </c>
+      <c r="F715" s="1"/>
+      <c r="G715" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H715" s="105" t="s">
+        <v>670</v>
+      </c>
+      <c r="I715" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J715" s="1">
+        <v>4</v>
+      </c>
+      <c r="K715" s="1"/>
+    </row>
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A716" s="1">
+        <v>1</v>
+      </c>
+      <c r="B716" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C716" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E716" s="105" t="s">
+        <v>299</v>
+      </c>
+      <c r="F716" s="1"/>
+      <c r="G716" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H716" s="105" t="s">
+        <v>300</v>
+      </c>
+      <c r="I716" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J716" s="1">
+        <v>1</v>
+      </c>
+      <c r="K716" s="1"/>
+    </row>
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A717" s="1">
+        <v>1</v>
+      </c>
+      <c r="B717" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C717" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E717" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F717" s="1"/>
+      <c r="G717" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="H717" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="I717" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J717" s="1">
+        <v>1</v>
+      </c>
+      <c r="K717" s="1"/>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A718" s="1">
+        <v>1</v>
+      </c>
+      <c r="B718" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C718" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E718" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="F718" s="1"/>
+      <c r="G718" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="H718" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="I718" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J718" s="1">
+        <v>1</v>
+      </c>
+      <c r="K718" s="1"/>
+    </row>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A719" s="1">
+        <v>1</v>
+      </c>
+      <c r="B719" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C719" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E719" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="F719" s="1"/>
+      <c r="G719" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H719" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="I719" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J719" s="1">
+        <v>6</v>
+      </c>
+      <c r="K719" s="1"/>
+    </row>
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A720" s="1">
+        <v>1</v>
+      </c>
+      <c r="B720" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C720" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E720" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="F720" s="1"/>
+      <c r="G720" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="H720" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="I720" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J720" s="1">
+        <v>1</v>
+      </c>
+      <c r="K720" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K501" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I321:I501" xr:uid="{E16D3327-7713-4C93-946E-F79C57EBBD40}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I321:I720" xr:uid="{E16D3327-7713-4C93-946E-F79C57EBBD40}">
       <formula1>$O$4:$O$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I320" xr:uid="{7467FD21-5568-4410-99D0-BEF6A0A588E4}">
@@ -32458,7 +39328,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32665,7 +39535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A956C29-AF75-40B2-8B21-F0B8FD51EE84}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -32777,7 +39647,7 @@
   <dimension ref="A1:H490"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/File KPI.xlsx
+++ b/File KPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\yonatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B550C3-26EA-45AF-A500-50BA58DFB1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3986B4C7-F9D0-4AA7-BFB5-9096A3E1A075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pemukiman" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -3481,6 +3481,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3505,29 +3508,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -71847,766 +71833,766 @@
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="109">
+      <c r="A88" s="101">
         <v>3</v>
       </c>
-      <c r="B88" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="109" t="s">
+      <c r="B88" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="101" t="s">
         <v>729</v>
       </c>
-      <c r="D88" s="109" t="s">
+      <c r="D88" s="101" t="s">
         <v>732</v>
       </c>
-      <c r="E88" s="109" t="s">
+      <c r="E88" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="F88" s="109" t="s">
+      <c r="F88" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="G88" s="109" t="s">
+      <c r="G88" s="101" t="s">
         <v>347</v>
       </c>
-      <c r="H88" s="109" t="s">
+      <c r="H88" s="101" t="s">
         <v>348</v>
       </c>
-      <c r="I88" s="109"/>
-      <c r="J88" s="109"/>
-      <c r="K88" s="109">
+      <c r="I88" s="101"/>
+      <c r="J88" s="101"/>
+      <c r="K88" s="101">
         <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="109">
+      <c r="A89" s="101">
         <v>3</v>
       </c>
-      <c r="B89" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="109" t="s">
+      <c r="B89" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="101" t="s">
         <v>320</v>
       </c>
-      <c r="D89" s="109" t="s">
+      <c r="D89" s="101" t="s">
         <v>345</v>
       </c>
-      <c r="E89" s="109" t="s">
+      <c r="E89" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="F89" s="109" t="s">
+      <c r="F89" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="G89" s="109" t="s">
+      <c r="G89" s="101" t="s">
         <v>347</v>
       </c>
-      <c r="H89" s="109" t="s">
+      <c r="H89" s="101" t="s">
         <v>348</v>
       </c>
-      <c r="I89" s="109"/>
-      <c r="J89" s="109"/>
-      <c r="K89" s="109">
+      <c r="I89" s="101"/>
+      <c r="J89" s="101"/>
+      <c r="K89" s="101">
         <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="109">
+      <c r="A90" s="101">
         <v>3</v>
       </c>
-      <c r="B90" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="109" t="s">
+      <c r="B90" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="101" t="s">
         <v>730</v>
       </c>
-      <c r="D90" s="109" t="s">
+      <c r="D90" s="101" t="s">
         <v>733</v>
       </c>
-      <c r="E90" s="109" t="s">
+      <c r="E90" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="F90" s="109" t="s">
+      <c r="F90" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="G90" s="109" t="s">
+      <c r="G90" s="101" t="s">
         <v>347</v>
       </c>
-      <c r="H90" s="109" t="s">
+      <c r="H90" s="101" t="s">
         <v>348</v>
       </c>
-      <c r="I90" s="109">
-        <v>1</v>
-      </c>
-      <c r="J90" s="109"/>
-      <c r="K90" s="109"/>
+      <c r="I90" s="101">
+        <v>1</v>
+      </c>
+      <c r="J90" s="101"/>
+      <c r="K90" s="101"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="109">
+      <c r="A91" s="101">
         <v>3</v>
       </c>
-      <c r="B91" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="109" t="s">
+      <c r="B91" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="101" t="s">
         <v>336</v>
       </c>
-      <c r="D91" s="109" t="s">
+      <c r="D91" s="101" t="s">
         <v>365</v>
       </c>
-      <c r="E91" s="109" t="s">
+      <c r="E91" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="F91" s="109" t="s">
+      <c r="F91" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="G91" s="109" t="s">
+      <c r="G91" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="H91" s="109" t="s">
+      <c r="H91" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="I91" s="109">
+      <c r="I91" s="101">
         <v>3</v>
       </c>
-      <c r="J91" s="109"/>
-      <c r="K91" s="109">
+      <c r="J91" s="101"/>
+      <c r="K91" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="109">
+      <c r="A92" s="101">
         <v>3</v>
       </c>
-      <c r="B92" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="109" t="s">
+      <c r="B92" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="101" t="s">
         <v>321</v>
       </c>
-      <c r="D92" s="109" t="s">
+      <c r="D92" s="101" t="s">
         <v>349</v>
       </c>
-      <c r="E92" s="109" t="s">
+      <c r="E92" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="F92" s="109" t="s">
+      <c r="F92" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="G92" s="109" t="s">
+      <c r="G92" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="H92" s="109" t="s">
+      <c r="H92" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="I92" s="109">
+      <c r="I92" s="101">
         <v>8</v>
       </c>
-      <c r="J92" s="109">
+      <c r="J92" s="101">
         <v>11</v>
       </c>
-      <c r="K92" s="109">
+      <c r="K92" s="101">
         <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="109">
+      <c r="A93" s="101">
         <v>3</v>
       </c>
-      <c r="B93" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="109" t="s">
+      <c r="B93" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="101" t="s">
         <v>713</v>
       </c>
-      <c r="D93" s="109" t="s">
+      <c r="D93" s="101" t="s">
         <v>716</v>
       </c>
-      <c r="E93" s="109" t="s">
+      <c r="E93" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="F93" s="109" t="s">
+      <c r="F93" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="G93" s="109" t="s">
+      <c r="G93" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="H93" s="109" t="s">
+      <c r="H93" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="I93" s="109">
-        <v>1</v>
-      </c>
-      <c r="J93" s="109">
-        <v>1</v>
-      </c>
-      <c r="K93" s="109">
+      <c r="I93" s="101">
+        <v>1</v>
+      </c>
+      <c r="J93" s="101">
+        <v>1</v>
+      </c>
+      <c r="K93" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="109">
+      <c r="A94" s="101">
         <v>3</v>
       </c>
-      <c r="B94" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="109" t="s">
+      <c r="B94" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="101" t="s">
         <v>328</v>
       </c>
-      <c r="D94" s="109" t="s">
+      <c r="D94" s="101" t="s">
         <v>357</v>
       </c>
-      <c r="E94" s="109" t="s">
+      <c r="E94" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="F94" s="109" t="s">
+      <c r="F94" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="G94" s="109" t="s">
+      <c r="G94" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="H94" s="109" t="s">
+      <c r="H94" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="I94" s="109"/>
-      <c r="J94" s="109">
-        <v>1</v>
-      </c>
-      <c r="K94" s="109"/>
+      <c r="I94" s="101"/>
+      <c r="J94" s="101">
+        <v>1</v>
+      </c>
+      <c r="K94" s="101"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="109">
+      <c r="A95" s="101">
         <v>3</v>
       </c>
-      <c r="B95" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="109" t="s">
+      <c r="B95" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="101" t="s">
         <v>319</v>
       </c>
-      <c r="D95" s="109" t="s">
+      <c r="D95" s="101" t="s">
         <v>342</v>
       </c>
-      <c r="E95" s="109" t="s">
+      <c r="E95" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="F95" s="109" t="s">
+      <c r="F95" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="G95" s="109" t="s">
+      <c r="G95" s="101" t="s">
         <v>344</v>
       </c>
-      <c r="H95" s="109" t="s">
+      <c r="H95" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="I95" s="109"/>
-      <c r="J95" s="109"/>
-      <c r="K95" s="109">
+      <c r="I95" s="101"/>
+      <c r="J95" s="101"/>
+      <c r="K95" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="109">
+      <c r="A96" s="101">
         <v>3</v>
       </c>
-      <c r="B96" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="109" t="s">
+      <c r="B96" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="101" t="s">
         <v>731</v>
       </c>
-      <c r="D96" s="109" t="s">
+      <c r="D96" s="101" t="s">
         <v>734</v>
       </c>
-      <c r="E96" s="109" t="s">
+      <c r="E96" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="F96" s="109" t="s">
+      <c r="F96" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="G96" s="109" t="s">
+      <c r="G96" s="101" t="s">
         <v>735</v>
       </c>
-      <c r="H96" s="109" t="s">
+      <c r="H96" s="101" t="s">
         <v>348</v>
       </c>
-      <c r="I96" s="109"/>
-      <c r="J96" s="109">
-        <v>1</v>
-      </c>
-      <c r="K96" s="109">
+      <c r="I96" s="101"/>
+      <c r="J96" s="101">
+        <v>1</v>
+      </c>
+      <c r="K96" s="101">
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="109">
+      <c r="A97" s="101">
         <v>3</v>
       </c>
-      <c r="B97" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="109" t="s">
+      <c r="B97" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="101" t="s">
         <v>714</v>
       </c>
-      <c r="D97" s="109" t="s">
+      <c r="D97" s="101" t="s">
         <v>717</v>
       </c>
-      <c r="E97" s="109" t="s">
+      <c r="E97" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="F97" s="109" t="s">
+      <c r="F97" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="G97" s="109" t="s">
+      <c r="G97" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="H97" s="109" t="s">
+      <c r="H97" s="101" t="s">
         <v>348</v>
       </c>
-      <c r="I97" s="109">
-        <v>1</v>
-      </c>
-      <c r="J97" s="109"/>
-      <c r="K97" s="109">
+      <c r="I97" s="101">
+        <v>1</v>
+      </c>
+      <c r="J97" s="101"/>
+      <c r="K97" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="109">
+      <c r="A98" s="101">
         <v>3</v>
       </c>
-      <c r="B98" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="109" t="s">
+      <c r="B98" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="D98" s="109" t="s">
+      <c r="D98" s="101" t="s">
         <v>362</v>
       </c>
-      <c r="E98" s="109" t="s">
+      <c r="E98" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="F98" s="109" t="s">
+      <c r="F98" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="G98" s="109" t="s">
+      <c r="G98" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="H98" s="109" t="s">
+      <c r="H98" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="I98" s="109"/>
-      <c r="J98" s="109">
+      <c r="I98" s="101"/>
+      <c r="J98" s="101">
         <v>10</v>
       </c>
-      <c r="K98" s="109"/>
+      <c r="K98" s="101"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="109">
+      <c r="A99" s="101">
         <v>3</v>
       </c>
-      <c r="B99" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="109" t="s">
+      <c r="B99" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="101" t="s">
         <v>339</v>
       </c>
-      <c r="D99" s="109" t="s">
+      <c r="D99" s="101" t="s">
         <v>368</v>
       </c>
-      <c r="E99" s="109" t="s">
+      <c r="E99" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="F99" s="109" t="s">
+      <c r="F99" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="G99" s="109" t="s">
+      <c r="G99" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="H99" s="109" t="s">
+      <c r="H99" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="I99" s="109"/>
-      <c r="J99" s="109"/>
-      <c r="K99" s="109">
+      <c r="I99" s="101"/>
+      <c r="J99" s="101"/>
+      <c r="K99" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="109">
+      <c r="A100" s="101">
         <v>3</v>
       </c>
-      <c r="B100" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="109" t="s">
+      <c r="B100" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="101" t="s">
         <v>329</v>
       </c>
-      <c r="D100" s="109" t="s">
+      <c r="D100" s="101" t="s">
         <v>358</v>
       </c>
-      <c r="E100" s="109" t="s">
+      <c r="E100" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="F100" s="109" t="s">
+      <c r="F100" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="G100" s="109" t="s">
+      <c r="G100" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="H100" s="109" t="s">
+      <c r="H100" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="I100" s="109"/>
-      <c r="J100" s="109">
+      <c r="I100" s="101"/>
+      <c r="J100" s="101">
         <v>12</v>
       </c>
-      <c r="K100" s="109"/>
+      <c r="K100" s="101"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="109">
+      <c r="A101" s="101">
         <v>3</v>
       </c>
-      <c r="B101" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="109" t="s">
+      <c r="B101" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="D101" s="109" t="s">
+      <c r="D101" s="101" t="s">
         <v>359</v>
       </c>
-      <c r="E101" s="109" t="s">
+      <c r="E101" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="F101" s="109" t="s">
+      <c r="F101" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="G101" s="109" t="s">
+      <c r="G101" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="H101" s="109" t="s">
+      <c r="H101" s="101" t="s">
         <v>348</v>
       </c>
-      <c r="I101" s="109">
+      <c r="I101" s="101">
         <v>6</v>
       </c>
-      <c r="J101" s="109"/>
-      <c r="K101" s="109"/>
+      <c r="J101" s="101"/>
+      <c r="K101" s="101"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="109">
+      <c r="A102" s="101">
         <v>3</v>
       </c>
-      <c r="B102" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="109" t="s">
+      <c r="B102" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="D102" s="109" t="s">
+      <c r="D102" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="E102" s="109" t="s">
+      <c r="E102" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="F102" s="109" t="s">
+      <c r="F102" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="G102" s="109" t="s">
+      <c r="G102" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="H102" s="109" t="s">
+      <c r="H102" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="I102" s="109"/>
-      <c r="J102" s="109">
+      <c r="I102" s="101"/>
+      <c r="J102" s="101">
         <v>50</v>
       </c>
-      <c r="K102" s="109"/>
+      <c r="K102" s="101"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="109">
+      <c r="A103" s="101">
         <v>3</v>
       </c>
-      <c r="B103" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="109" t="s">
+      <c r="B103" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="101" t="s">
         <v>340</v>
       </c>
-      <c r="D103" s="109" t="s">
+      <c r="D103" s="101" t="s">
         <v>369</v>
       </c>
-      <c r="E103" s="109" t="s">
+      <c r="E103" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="F103" s="109" t="s">
+      <c r="F103" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="G103" s="109" t="s">
+      <c r="G103" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="H103" s="109" t="s">
+      <c r="H103" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="I103" s="109"/>
-      <c r="J103" s="109"/>
-      <c r="K103" s="109">
+      <c r="I103" s="101"/>
+      <c r="J103" s="101"/>
+      <c r="K103" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="109">
+      <c r="A104" s="101">
         <v>3</v>
       </c>
-      <c r="B104" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="109" t="s">
+      <c r="B104" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="D104" s="109" t="s">
+      <c r="D104" s="101" t="s">
         <v>353</v>
       </c>
-      <c r="E104" s="109" t="s">
+      <c r="E104" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="F104" s="109" t="s">
+      <c r="F104" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="G104" s="109" t="s">
+      <c r="G104" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="H104" s="109" t="s">
+      <c r="H104" s="101" t="s">
         <v>348</v>
       </c>
-      <c r="I104" s="109">
+      <c r="I104" s="101">
         <v>3</v>
       </c>
-      <c r="J104" s="109"/>
-      <c r="K104" s="109"/>
+      <c r="J104" s="101"/>
+      <c r="K104" s="101"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="109">
+      <c r="A105" s="101">
         <v>3</v>
       </c>
-      <c r="B105" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="109" t="s">
+      <c r="B105" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="D105" s="109" t="s">
+      <c r="D105" s="101" t="s">
         <v>355</v>
       </c>
-      <c r="E105" s="109" t="s">
+      <c r="E105" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="F105" s="109" t="s">
+      <c r="F105" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="G105" s="109" t="s">
+      <c r="G105" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="H105" s="109" t="s">
+      <c r="H105" s="101" t="s">
         <v>348</v>
       </c>
-      <c r="I105" s="109"/>
-      <c r="J105" s="109"/>
-      <c r="K105" s="109">
+      <c r="I105" s="101"/>
+      <c r="J105" s="101"/>
+      <c r="K105" s="101">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="109">
+      <c r="A106" s="101">
         <v>3</v>
       </c>
-      <c r="B106" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="109" t="s">
+      <c r="B106" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="101" t="s">
         <v>327</v>
       </c>
-      <c r="D106" s="109" t="s">
+      <c r="D106" s="101" t="s">
         <v>356</v>
       </c>
-      <c r="E106" s="109" t="s">
+      <c r="E106" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="F106" s="109" t="s">
+      <c r="F106" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="G106" s="109" t="s">
+      <c r="G106" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="H106" s="109" t="s">
+      <c r="H106" s="101" t="s">
         <v>348</v>
       </c>
-      <c r="I106" s="109">
+      <c r="I106" s="101">
         <v>3</v>
       </c>
-      <c r="J106" s="109"/>
-      <c r="K106" s="109">
+      <c r="J106" s="101"/>
+      <c r="K106" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="109">
+      <c r="A107" s="101">
         <v>3</v>
       </c>
-      <c r="B107" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="109" t="s">
+      <c r="B107" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="D107" s="109" t="s">
+      <c r="D107" s="101" t="s">
         <v>352</v>
       </c>
-      <c r="E107" s="109" t="s">
+      <c r="E107" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="F107" s="109" t="s">
+      <c r="F107" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="G107" s="109" t="s">
+      <c r="G107" s="101" t="s">
         <v>237</v>
       </c>
-      <c r="H107" s="109" t="s">
+      <c r="H107" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="I107" s="109"/>
-      <c r="J107" s="109">
+      <c r="I107" s="101"/>
+      <c r="J107" s="101">
         <v>10</v>
       </c>
-      <c r="K107" s="109">
+      <c r="K107" s="101">
         <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="109">
+      <c r="A108" s="101">
         <v>3</v>
       </c>
-      <c r="B108" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="109" t="s">
+      <c r="B108" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="101" t="s">
         <v>331</v>
       </c>
-      <c r="D108" s="109" t="s">
+      <c r="D108" s="101" t="s">
         <v>360</v>
       </c>
-      <c r="E108" s="109" t="s">
+      <c r="E108" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="F108" s="109" t="s">
+      <c r="F108" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="G108" s="109" t="s">
+      <c r="G108" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="H108" s="109" t="s">
+      <c r="H108" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="I108" s="109"/>
-      <c r="J108" s="109">
+      <c r="I108" s="101"/>
+      <c r="J108" s="101">
         <v>6</v>
       </c>
-      <c r="K108" s="109"/>
+      <c r="K108" s="101"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="109">
+      <c r="A109" s="101">
         <v>3</v>
       </c>
-      <c r="B109" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="109" t="s">
+      <c r="B109" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="101" t="s">
         <v>341</v>
       </c>
-      <c r="D109" s="109" t="s">
+      <c r="D109" s="101" t="s">
         <v>370</v>
       </c>
-      <c r="E109" s="109" t="s">
+      <c r="E109" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="F109" s="109" t="s">
+      <c r="F109" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="G109" s="109" t="s">
+      <c r="G109" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="H109" s="109" t="s">
+      <c r="H109" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="I109" s="109"/>
-      <c r="J109" s="109"/>
-      <c r="K109" s="109">
+      <c r="I109" s="101"/>
+      <c r="J109" s="101"/>
+      <c r="K109" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="109">
+      <c r="A110" s="101">
         <v>3</v>
       </c>
-      <c r="B110" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="109" t="s">
+      <c r="B110" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="D110" s="109" t="s">
+      <c r="D110" s="101" t="s">
         <v>361</v>
       </c>
-      <c r="E110" s="109" t="s">
+      <c r="E110" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="F110" s="109" t="s">
+      <c r="F110" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="G110" s="109" t="s">
+      <c r="G110" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="H110" s="109" t="s">
+      <c r="H110" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="I110" s="109"/>
-      <c r="J110" s="109"/>
-      <c r="K110" s="109">
+      <c r="I110" s="101"/>
+      <c r="J110" s="101"/>
+      <c r="K110" s="101">
         <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="109">
+      <c r="A111" s="101">
         <v>3</v>
       </c>
-      <c r="B111" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="109" t="s">
+      <c r="B111" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="D111" s="109" t="s">
+      <c r="D111" s="101" t="s">
         <v>351</v>
       </c>
-      <c r="E111" s="109" t="s">
+      <c r="E111" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="F111" s="109" t="s">
+      <c r="F111" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="G111" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="H111" s="109" t="s">
+      <c r="G111" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="I111" s="109"/>
-      <c r="J111" s="109">
+      <c r="I111" s="101"/>
+      <c r="J111" s="101">
         <v>30</v>
       </c>
-      <c r="K111" s="109"/>
+      <c r="K111" s="101"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
@@ -73463,16 +73449,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C51">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C66">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88:C111">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -73545,12 +73531,12 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="108" t="s">
         <v>374</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="H5" s="12" t="s">
         <v>375</v>
       </c>
@@ -73571,41 +73557,41 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="15"/>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="105" t="s">
         <v>376</v>
       </c>
-      <c r="G7" s="105"/>
-      <c r="H7" s="101" t="s">
+      <c r="G7" s="106"/>
+      <c r="H7" s="102" t="s">
         <v>377</v>
       </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="104" t="s">
+      <c r="I7" s="103"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="105" t="s">
         <v>378</v>
       </c>
-      <c r="L7" s="105"/>
-      <c r="M7" s="106"/>
-      <c r="N7" s="101" t="s">
+      <c r="L7" s="106"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="102" t="s">
         <v>379</v>
       </c>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="104" t="s">
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="105" t="s">
         <v>380</v>
       </c>
-      <c r="S7" s="105"/>
-      <c r="T7" s="106"/>
-      <c r="U7" s="101" t="s">
+      <c r="S7" s="106"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="102" t="s">
         <v>381</v>
       </c>
-      <c r="V7" s="102"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="104" t="s">
+      <c r="V7" s="103"/>
+      <c r="W7" s="104"/>
+      <c r="X7" s="105" t="s">
         <v>382</v>
       </c>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="107"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
@@ -74027,7 +74013,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -74127,8 +74113,12 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
+      <c r="B9" s="93">
+        <v>17</v>
+      </c>
+      <c r="C9" s="93">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -74137,9 +74127,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEEC7A0-D259-43AC-9422-46AD980E61C5}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -74148,9 +74140,9 @@
     <col min="6" max="6" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="str" cm="1">
-        <f t="array" ref="A1:H3">TRANSPOSE('Kampus A'!A1:C8)</f>
+        <f t="array" ref="A1:I3">TRANSPOSE('Kampus A'!A1:C9)</f>
         <v>Promotor</v>
       </c>
       <c r="B1" s="96">
@@ -74171,11 +74163,14 @@
       <c r="G1" s="96">
         <v>2</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="96">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <v>ADE FAHMI</v>
       </c>
@@ -74197,11 +74192,14 @@
       <c r="G2" s="1">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <v>HIKMAT</v>
       </c>
@@ -74223,11 +74221,14 @@
       <c r="G3" s="1">
         <v>9</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="68"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
@@ -74243,8 +74244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCAE31F-FEDF-454B-8ECA-940E002E025C}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -74397,10 +74398,18 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
+      <c r="B9" s="93">
+        <v>7</v>
+      </c>
+      <c r="C9" s="93">
+        <v>5</v>
+      </c>
+      <c r="D9" s="93">
+        <v>4</v>
+      </c>
+      <c r="E9" s="93">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="68"/>
@@ -74415,10 +74424,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A956C29-AF75-40B2-8B21-F0B8FD51EE84}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -74428,9 +74437,9 @@
     <col min="6" max="6" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="94" t="str" cm="1">
-        <f t="array" ref="A1:H5">TRANSPOSE('Kampus B'!A1:E8)</f>
+        <f t="array" ref="A1:I5">TRANSPOSE('Kampus B'!A1:E9)</f>
         <v>Promotor</v>
       </c>
       <c r="B1" s="96">
@@ -74451,11 +74460,14 @@
       <c r="G1" s="96">
         <v>2</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="96">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="93" t="str">
         <v>AMINUDIN</v>
       </c>
@@ -74477,11 +74489,14 @@
       <c r="G2" s="1">
         <v>13</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="93" t="str">
         <v>RICKY IRAWAN</v>
       </c>
@@ -74503,11 +74518,14 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="93" t="str">
         <v>RIDWAN</v>
       </c>
@@ -74529,11 +74547,14 @@
       <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="93" t="str">
         <v>RISKY SABARA</v>
       </c>
@@ -74555,11 +74576,14 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>

--- a/File KPI.xlsx
+++ b/File KPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\yonatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA34CEDB-3473-496B-AF96-C554F63C7726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918A08C7-7E44-4BE7-93AC-61D894E9C243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="421">
   <si>
     <t>Promotor</t>
   </si>
@@ -1331,6 +1331,9 @@
   <si>
     <t>ZIGA</t>
   </si>
+  <si>
+    <t>Hilman</t>
+  </si>
 </sst>
 </file>
 
@@ -2293,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2395"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" topLeftCell="A452" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B474" sqref="B474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3901,7 +3904,7 @@
         <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>9</v>
@@ -3932,7 +3935,7 @@
         <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>9</v>
@@ -3963,7 +3966,7 @@
         <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>9</v>
@@ -3994,7 +3997,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>9</v>
@@ -4025,7 +4028,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
@@ -4056,7 +4059,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>9</v>
@@ -4087,7 +4090,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>9</v>
@@ -4986,7 +4989,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>9</v>
@@ -5017,7 +5020,7 @@
         <v>21</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>9</v>
@@ -5048,7 +5051,7 @@
         <v>21</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>9</v>
@@ -5079,7 +5082,7 @@
         <v>21</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>9</v>
@@ -6102,7 +6105,7 @@
         <v>21</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>9</v>
@@ -6133,7 +6136,7 @@
         <v>21</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>9</v>
@@ -6164,7 +6167,7 @@
         <v>21</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>9</v>
@@ -6195,7 +6198,7 @@
         <v>21</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>9</v>
@@ -11899,7 +11902,7 @@
         <v>23</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>9</v>
@@ -11930,7 +11933,7 @@
         <v>23</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>9</v>
@@ -12054,7 +12057,7 @@
         <v>23</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>9</v>
@@ -12798,7 +12801,7 @@
         <v>23</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>9</v>
@@ -12829,7 +12832,7 @@
         <v>23</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>9</v>
@@ -13945,7 +13948,7 @@
         <v>23</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>9</v>
@@ -41947,7 +41950,6 @@
       <c r="K2395" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K501" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I321:I936 I1692:I2138" xr:uid="{E16D3327-7713-4C93-946E-F79C57EBBD40}">
       <formula1>$O$4:$O$6</formula1>
@@ -41965,13 +41967,13 @@
   <dimension ref="A1:H490"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -42008,7 +42010,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="B2" s="44">
         <v>0</v>
@@ -42034,7 +42036,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="B3" s="15">
         <v>0</v>
@@ -42060,7 +42062,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="B4" s="19">
         <v>37</v>
@@ -42086,7 +42088,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="B5" s="50">
         <v>40</v>
@@ -42112,7 +42114,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>203</v>
+        <v>420</v>
       </c>
       <c r="B6" s="17">
         <v>0</v>
@@ -42138,7 +42140,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="B7" s="19">
         <v>0</v>

--- a/File KPI.xlsx
+++ b/File KPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\yonatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918A08C7-7E44-4BE7-93AC-61D894E9C243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D795AB7-70DB-4AEB-B35C-07BD90F4E07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,9 +711,6 @@
     <t>ENVIO MILD 16</t>
   </si>
   <si>
-    <t>Pasar&amp;Terminal</t>
-  </si>
-  <si>
     <t>207E4639</t>
   </si>
   <si>
@@ -1333,6 +1330,9 @@
   </si>
   <si>
     <t>Hilman</t>
+  </si>
+  <si>
+    <t>Pasar - Terminal</t>
   </si>
 </sst>
 </file>
@@ -2354,7 +2354,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -2363,11 +2363,11 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>60</v>
@@ -2385,7 +2385,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -2394,11 +2394,11 @@
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>60</v>
@@ -2456,7 +2456,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
@@ -2487,7 +2487,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
@@ -2518,7 +2518,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
@@ -2549,7 +2549,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
@@ -2571,7 +2571,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -2580,7 +2580,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
@@ -2602,7 +2602,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -2633,7 +2633,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -2763,10 +2763,10 @@
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
@@ -2794,10 +2794,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
@@ -2819,7 +2819,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
@@ -2850,7 +2850,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
@@ -2859,7 +2859,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
@@ -2921,7 +2921,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
@@ -2952,7 +2952,7 @@
         <v>47</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="3" t="s">
@@ -2980,10 +2980,10 @@
         <v>9</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="3" t="s">
@@ -3011,10 +3011,10 @@
         <v>9</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3" t="s">
@@ -3036,7 +3036,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>9</v>
@@ -3045,11 +3045,11 @@
         <v>28</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>74</v>
@@ -3067,7 +3067,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>9</v>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>63</v>
@@ -3098,7 +3098,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>9</v>
@@ -3107,11 +3107,11 @@
         <v>163</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>63</v>
@@ -3129,7 +3129,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>9</v>
@@ -3138,11 +3138,11 @@
         <v>165</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>177</v>
@@ -3160,7 +3160,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>9</v>
@@ -3169,11 +3169,11 @@
         <v>145</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>81</v>
@@ -3191,7 +3191,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>9</v>
@@ -3222,7 +3222,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>9</v>
@@ -3253,7 +3253,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>9</v>
@@ -3284,7 +3284,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>9</v>
@@ -3293,7 +3293,7 @@
         <v>150</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="3" t="s">
@@ -3315,7 +3315,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -3346,7 +3346,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>9</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>88</v>
@@ -3377,7 +3377,7 @@
         <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>9</v>
@@ -3408,7 +3408,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>9</v>
@@ -3417,7 +3417,7 @@
         <v>17</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="3" t="s">
@@ -3439,7 +3439,7 @@
         <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>9</v>
@@ -3448,11 +3448,11 @@
         <v>13</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>60</v>
@@ -3470,7 +3470,7 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>9</v>
@@ -3479,11 +3479,11 @@
         <v>38</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>60</v>
@@ -3501,7 +3501,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>9</v>
@@ -3510,11 +3510,11 @@
         <v>15</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>60</v>
@@ -3532,7 +3532,7 @@
         <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>9</v>
@@ -3541,11 +3541,11 @@
         <v>28</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>74</v>
@@ -3563,7 +3563,7 @@
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>9</v>
@@ -3572,11 +3572,11 @@
         <v>22</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>75</v>
@@ -3594,7 +3594,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
@@ -3603,11 +3603,11 @@
         <v>137</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>74</v>
@@ -3625,7 +3625,7 @@
         <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>9</v>
@@ -3634,11 +3634,11 @@
         <v>21</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>87</v>
@@ -3696,7 +3696,7 @@
         <v>40</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="3" t="s">
@@ -3727,7 +3727,7 @@
         <v>41</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="3" t="s">
@@ -3879,10 +3879,10 @@
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="3" t="s">
@@ -3904,20 +3904,20 @@
         <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>70</v>
@@ -3935,7 +3935,7 @@
         <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>9</v>
@@ -3966,7 +3966,7 @@
         <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>9</v>
@@ -3997,16 +3997,16 @@
         <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
@@ -4028,7 +4028,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
@@ -4037,7 +4037,7 @@
         <v>143</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="3" t="s">
@@ -4059,7 +4059,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>9</v>
@@ -4090,7 +4090,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>9</v>
@@ -4099,7 +4099,7 @@
         <v>54</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="3" t="s">
@@ -4130,7 +4130,7 @@
         <v>162</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="3" t="s">
@@ -4161,7 +4161,7 @@
         <v>159</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="3" t="s">
@@ -4183,7 +4183,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>9</v>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>63</v>
@@ -4214,7 +4214,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>9</v>
@@ -4223,11 +4223,11 @@
         <v>200</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>88</v>
@@ -4245,20 +4245,20 @@
         <v>21</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>86</v>
@@ -4276,7 +4276,7 @@
         <v>21</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>9</v>
@@ -4285,11 +4285,11 @@
         <v>43</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>86</v>
@@ -4307,7 +4307,7 @@
         <v>21</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>9</v>
@@ -4316,11 +4316,11 @@
         <v>202</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>86</v>
@@ -4338,7 +4338,7 @@
         <v>21</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>9</v>
@@ -4347,11 +4347,11 @@
         <v>158</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>81</v>
@@ -4369,7 +4369,7 @@
         <v>21</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>9</v>
@@ -4378,11 +4378,11 @@
         <v>147</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>81</v>
@@ -4400,7 +4400,7 @@
         <v>21</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>9</v>
@@ -4431,7 +4431,7 @@
         <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>9</v>
@@ -4462,7 +4462,7 @@
         <v>21</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>9</v>
@@ -4493,7 +4493,7 @@
         <v>21</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>9</v>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>88</v>
@@ -4524,7 +4524,7 @@
         <v>21</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>9</v>
@@ -4555,7 +4555,7 @@
         <v>21</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>9</v>
@@ -4564,11 +4564,11 @@
         <v>13</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>60</v>
@@ -4586,7 +4586,7 @@
         <v>21</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>9</v>
@@ -4595,11 +4595,11 @@
         <v>15</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>60</v>
@@ -4617,7 +4617,7 @@
         <v>21</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>9</v>
@@ -4626,11 +4626,11 @@
         <v>28</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>74</v>
@@ -4648,7 +4648,7 @@
         <v>21</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>9</v>
@@ -4657,11 +4657,11 @@
         <v>22</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>75</v>
@@ -4679,7 +4679,7 @@
         <v>21</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>9</v>
@@ -4688,11 +4688,11 @@
         <v>30</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>87</v>
@@ -4710,7 +4710,7 @@
         <v>21</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>9</v>
@@ -4719,11 +4719,11 @@
         <v>33</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>87</v>
@@ -4741,7 +4741,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>9</v>
@@ -4750,11 +4750,11 @@
         <v>21</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>87</v>
@@ -4781,7 +4781,7 @@
         <v>151</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="3" t="s">
@@ -4871,10 +4871,10 @@
         <v>9</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="3" t="s">
@@ -4905,7 +4905,7 @@
         <v>132</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="3" t="s">
@@ -4936,7 +4936,7 @@
         <v>47</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="3" t="s">
@@ -4964,10 +4964,10 @@
         <v>9</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="3" t="s">
@@ -4989,7 +4989,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>9</v>
@@ -5020,7 +5020,7 @@
         <v>21</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>9</v>
@@ -5051,7 +5051,7 @@
         <v>21</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>9</v>
@@ -5060,7 +5060,7 @@
         <v>143</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="3" t="s">
@@ -5082,7 +5082,7 @@
         <v>21</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>9</v>
@@ -5122,7 +5122,7 @@
         <v>161</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="3" t="s">
@@ -5153,7 +5153,7 @@
         <v>192</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="3" t="s">
@@ -5184,7 +5184,7 @@
         <v>154</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="3" t="s">
@@ -5206,7 +5206,7 @@
         <v>21</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>9</v>
@@ -5215,11 +5215,11 @@
         <v>126</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>63</v>
@@ -5237,7 +5237,7 @@
         <v>21</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>9</v>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>88</v>
@@ -5268,20 +5268,20 @@
         <v>21</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>86</v>
@@ -5299,7 +5299,7 @@
         <v>21</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>9</v>
@@ -5308,11 +5308,11 @@
         <v>129</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>86</v>
@@ -5330,7 +5330,7 @@
         <v>21</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>9</v>
@@ -5339,11 +5339,11 @@
         <v>202</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>86</v>
@@ -5361,7 +5361,7 @@
         <v>21</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>9</v>
@@ -5370,11 +5370,11 @@
         <v>165</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>177</v>
@@ -5392,7 +5392,7 @@
         <v>21</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>9</v>
@@ -5401,11 +5401,11 @@
         <v>136</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>177</v>
@@ -5423,7 +5423,7 @@
         <v>21</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>9</v>
@@ -5432,11 +5432,11 @@
         <v>27</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>81</v>
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>9</v>
@@ -5463,11 +5463,11 @@
         <v>146</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>81</v>
@@ -5485,7 +5485,7 @@
         <v>21</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>9</v>
@@ -5494,11 +5494,11 @@
         <v>49</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>81</v>
@@ -5516,7 +5516,7 @@
         <v>21</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>9</v>
@@ -5525,11 +5525,11 @@
         <v>142</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>81</v>
@@ -5547,7 +5547,7 @@
         <v>21</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>9</v>
@@ -5578,7 +5578,7 @@
         <v>21</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>9</v>
@@ -5587,7 +5587,7 @@
         <v>150</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="3" t="s">
@@ -5609,7 +5609,7 @@
         <v>21</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>9</v>
@@ -5640,7 +5640,7 @@
         <v>21</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>9</v>
@@ -5671,7 +5671,7 @@
         <v>21</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>9</v>
@@ -5702,7 +5702,7 @@
         <v>21</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>9</v>
@@ -5711,11 +5711,11 @@
         <v>16</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>61</v>
@@ -5733,7 +5733,7 @@
         <v>21</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>9</v>
@@ -5742,11 +5742,11 @@
         <v>38</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>60</v>
@@ -5764,7 +5764,7 @@
         <v>21</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>9</v>
@@ -5773,11 +5773,11 @@
         <v>14</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>61</v>
@@ -5795,7 +5795,7 @@
         <v>21</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>9</v>
@@ -5804,11 +5804,11 @@
         <v>28</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>74</v>
@@ -5826,7 +5826,7 @@
         <v>21</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>9</v>
@@ -5835,11 +5835,11 @@
         <v>22</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>75</v>
@@ -5857,7 +5857,7 @@
         <v>21</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>9</v>
@@ -5866,11 +5866,11 @@
         <v>33</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>87</v>
@@ -5888,7 +5888,7 @@
         <v>21</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>9</v>
@@ -5897,11 +5897,11 @@
         <v>21</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>87</v>
@@ -5928,7 +5928,7 @@
         <v>189</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="3" t="s">
@@ -5959,7 +5959,7 @@
         <v>40</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="3" t="s">
@@ -6052,7 +6052,7 @@
         <v>52</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="3" t="s">
@@ -6083,7 +6083,7 @@
         <v>47</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="3" t="s">
@@ -6105,7 +6105,7 @@
         <v>21</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>9</v>
@@ -6136,7 +6136,7 @@
         <v>21</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>9</v>
@@ -6167,16 +6167,16 @@
         <v>21</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="3" t="s">
@@ -6198,7 +6198,7 @@
         <v>21</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>9</v>
@@ -6207,7 +6207,7 @@
         <v>143</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="3" t="s">
@@ -6238,7 +6238,7 @@
         <v>161</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="3" t="s">
@@ -6269,7 +6269,7 @@
         <v>162</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="3" t="s">
@@ -6300,7 +6300,7 @@
         <v>190</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="3" t="s">
@@ -6331,7 +6331,7 @@
         <v>161</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="3" t="s">
@@ -6362,7 +6362,7 @@
         <v>161</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="3" t="s">
@@ -6384,7 +6384,7 @@
         <v>22</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>9</v>
@@ -6415,7 +6415,7 @@
         <v>22</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>9</v>
@@ -6424,7 +6424,7 @@
         <v>150</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="3" t="s">
@@ -6455,7 +6455,7 @@
         <v>162</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="3" t="s">
@@ -6545,10 +6545,10 @@
         <v>9</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="3" t="s">
@@ -6570,7 +6570,7 @@
         <v>22</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>9</v>
@@ -6579,11 +6579,11 @@
         <v>200</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>88</v>
@@ -6610,7 +6610,7 @@
         <v>154</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="3" t="s">
@@ -6669,10 +6669,10 @@
         <v>9</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="3" t="s">
@@ -6694,7 +6694,7 @@
         <v>22</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>9</v>
@@ -6703,11 +6703,11 @@
         <v>129</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>86</v>
@@ -6725,7 +6725,7 @@
         <v>22</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>9</v>
@@ -6756,7 +6756,7 @@
         <v>22</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>9</v>
@@ -6796,7 +6796,7 @@
         <v>162</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="3" t="s">
@@ -6886,10 +6886,10 @@
         <v>9</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="3" t="s">
@@ -6948,10 +6948,10 @@
         <v>9</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="3" t="s">
@@ -6973,7 +6973,7 @@
         <v>22</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>9</v>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>63</v>
@@ -7004,7 +7004,7 @@
         <v>22</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>9</v>
@@ -7013,11 +7013,11 @@
         <v>163</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F152" s="4"/>
       <c r="G152" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>63</v>
@@ -7044,7 +7044,7 @@
         <v>52</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="3" t="s">
@@ -7066,7 +7066,7 @@
         <v>22</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>9</v>
@@ -7075,11 +7075,11 @@
         <v>156</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>81</v>
@@ -7097,7 +7097,7 @@
         <v>22</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>9</v>
@@ -7137,7 +7137,7 @@
         <v>138</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="3" t="s">
@@ -7190,7 +7190,7 @@
         <v>22</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>9</v>
@@ -7199,11 +7199,11 @@
         <v>158</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>81</v>
@@ -7252,7 +7252,7 @@
         <v>22</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>9</v>
@@ -7292,7 +7292,7 @@
         <v>192</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="3" t="s">
@@ -7323,7 +7323,7 @@
         <v>159</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="3" t="s">
@@ -7385,7 +7385,7 @@
         <v>144</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="3" t="s">
@@ -7416,7 +7416,7 @@
         <v>53</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="3" t="s">
@@ -7447,7 +7447,7 @@
         <v>50</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="3" t="s">
@@ -7478,7 +7478,7 @@
         <v>195</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F167" s="4"/>
       <c r="G167" s="3" t="s">
@@ -7500,7 +7500,7 @@
         <v>22</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>9</v>
@@ -7509,11 +7509,11 @@
         <v>30</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F168" s="4"/>
       <c r="G168" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>87</v>
@@ -7531,7 +7531,7 @@
         <v>22</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>9</v>
@@ -7540,11 +7540,11 @@
         <v>33</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F169" s="4"/>
       <c r="G169" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H169" s="3" t="s">
         <v>87</v>
@@ -7562,7 +7562,7 @@
         <v>22</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>9</v>
@@ -7571,11 +7571,11 @@
         <v>141</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>87</v>
@@ -7633,7 +7633,7 @@
         <v>45</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F172" s="4"/>
       <c r="G172" s="3" t="s">
@@ -7664,7 +7664,7 @@
         <v>53</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F173" s="4"/>
       <c r="G173" s="3" t="s">
@@ -7695,7 +7695,7 @@
         <v>37</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F174" s="4"/>
       <c r="G174" s="3" t="s">
@@ -7726,7 +7726,7 @@
         <v>50</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F175" s="4"/>
       <c r="G175" s="3" t="s">
@@ -7754,10 +7754,10 @@
         <v>9</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F176" s="4"/>
       <c r="G176" s="3" t="s">
@@ -7779,7 +7779,7 @@
         <v>22</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>9</v>
@@ -7788,11 +7788,11 @@
         <v>140</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F177" s="4"/>
       <c r="G177" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H177" s="3" t="s">
         <v>179</v>
@@ -7810,7 +7810,7 @@
         <v>22</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>9</v>
@@ -7819,11 +7819,11 @@
         <v>33</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F178" s="4"/>
       <c r="G178" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>87</v>
@@ -7881,7 +7881,7 @@
         <v>144</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F180" s="4"/>
       <c r="G180" s="3" t="s">
@@ -7912,7 +7912,7 @@
         <v>37</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F181" s="4"/>
       <c r="G181" s="3" t="s">
@@ -7943,7 +7943,7 @@
         <v>50</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F182" s="4"/>
       <c r="G182" s="3" t="s">
@@ -7971,10 +7971,10 @@
         <v>9</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F183" s="4"/>
       <c r="G183" s="3" t="s">
@@ -7996,20 +7996,20 @@
         <v>22</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F184" s="4"/>
       <c r="G184" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>88</v>
@@ -8027,7 +8027,7 @@
         <v>22</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>9</v>
@@ -8036,11 +8036,11 @@
         <v>202</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F185" s="4"/>
       <c r="G185" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>86</v>
@@ -8058,7 +8058,7 @@
         <v>22</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>9</v>
@@ -8067,11 +8067,11 @@
         <v>136</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F186" s="4"/>
       <c r="G186" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>177</v>
@@ -8089,7 +8089,7 @@
         <v>22</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>9</v>
@@ -8120,7 +8120,7 @@
         <v>22</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>9</v>
@@ -8129,7 +8129,7 @@
         <v>150</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F188" s="4"/>
       <c r="G188" s="3" t="s">
@@ -8151,7 +8151,7 @@
         <v>22</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>9</v>
@@ -8182,7 +8182,7 @@
         <v>22</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>9</v>
@@ -8213,7 +8213,7 @@
         <v>22</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>9</v>
@@ -8222,11 +8222,11 @@
         <v>13</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>60</v>
@@ -8244,7 +8244,7 @@
         <v>22</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>9</v>
@@ -8253,11 +8253,11 @@
         <v>15</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F192" s="4"/>
       <c r="G192" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>60</v>
@@ -8284,7 +8284,7 @@
         <v>40</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F193" s="4"/>
       <c r="G193" s="3" t="s">
@@ -8343,10 +8343,10 @@
         <v>9</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F195" s="4"/>
       <c r="G195" s="3" t="s">
@@ -8377,7 +8377,7 @@
         <v>138</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F196" s="4"/>
       <c r="G196" s="3" t="s">
@@ -8439,7 +8439,7 @@
         <v>144</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F198" s="4"/>
       <c r="G198" s="3" t="s">
@@ -8470,7 +8470,7 @@
         <v>50</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F199" s="4"/>
       <c r="G199" s="3" t="s">
@@ -8501,7 +8501,7 @@
         <v>190</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F200" s="4"/>
       <c r="G200" s="3" t="s">
@@ -8532,7 +8532,7 @@
         <v>162</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F201" s="4"/>
       <c r="G201" s="3" t="s">
@@ -8563,7 +8563,7 @@
         <v>192</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F202" s="4"/>
       <c r="G202" s="3" t="s">
@@ -8594,7 +8594,7 @@
         <v>154</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F203" s="4"/>
       <c r="G203" s="3" t="s">
@@ -8616,7 +8616,7 @@
         <v>22</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>9</v>
@@ -8625,11 +8625,11 @@
         <v>200</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F204" s="4"/>
       <c r="G204" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>88</v>
@@ -8647,7 +8647,7 @@
         <v>22</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>9</v>
@@ -8656,11 +8656,11 @@
         <v>201</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F205" s="4"/>
       <c r="G205" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>86</v>
@@ -8678,7 +8678,7 @@
         <v>22</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>9</v>
@@ -8687,11 +8687,11 @@
         <v>43</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F206" s="4"/>
       <c r="G206" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>86</v>
@@ -8709,7 +8709,7 @@
         <v>22</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>9</v>
@@ -8722,7 +8722,7 @@
       </c>
       <c r="F207" s="4"/>
       <c r="G207" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H207" s="3" t="s">
         <v>63</v>
@@ -8740,7 +8740,7 @@
         <v>22</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>9</v>
@@ -8749,11 +8749,11 @@
         <v>163</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F208" s="4"/>
       <c r="G208" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>63</v>
@@ -8771,7 +8771,7 @@
         <v>22</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>9</v>
@@ -8780,11 +8780,11 @@
         <v>156</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F209" s="4"/>
       <c r="G209" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H209" s="3" t="s">
         <v>81</v>
@@ -8802,7 +8802,7 @@
         <v>22</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>9</v>
@@ -8811,11 +8811,11 @@
         <v>158</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F210" s="4"/>
       <c r="G210" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>81</v>
@@ -8833,7 +8833,7 @@
         <v>22</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>9</v>
@@ -8842,11 +8842,11 @@
         <v>145</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F211" s="4"/>
       <c r="G211" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H211" s="3" t="s">
         <v>81</v>
@@ -8864,7 +8864,7 @@
         <v>22</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>9</v>
@@ -8873,11 +8873,11 @@
         <v>147</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F212" s="4"/>
       <c r="G212" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>81</v>
@@ -8895,7 +8895,7 @@
         <v>22</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>9</v>
@@ -8904,11 +8904,11 @@
         <v>142</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F213" s="4"/>
       <c r="G213" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H213" s="3" t="s">
         <v>81</v>
@@ -8926,7 +8926,7 @@
         <v>22</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>9</v>
@@ -8957,7 +8957,7 @@
         <v>22</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>9</v>
@@ -8988,7 +8988,7 @@
         <v>22</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>9</v>
@@ -8997,11 +8997,11 @@
         <v>15</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F216" s="4"/>
       <c r="G216" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H216" s="3" t="s">
         <v>60</v>
@@ -9019,7 +9019,7 @@
         <v>22</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>9</v>
@@ -9028,11 +9028,11 @@
         <v>30</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F217" s="4"/>
       <c r="G217" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H217" s="3" t="s">
         <v>87</v>
@@ -9050,7 +9050,7 @@
         <v>22</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>9</v>
@@ -9059,11 +9059,11 @@
         <v>33</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F218" s="4"/>
       <c r="G218" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H218" s="3" t="s">
         <v>87</v>
@@ -9081,7 +9081,7 @@
         <v>22</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>9</v>
@@ -9090,11 +9090,11 @@
         <v>141</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F219" s="4"/>
       <c r="G219" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H219" s="3" t="s">
         <v>87</v>
@@ -9121,7 +9121,7 @@
         <v>151</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F220" s="4"/>
       <c r="G220" s="3" t="s">
@@ -9304,10 +9304,10 @@
         <v>9</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F226" s="4"/>
       <c r="G226" s="3" t="s">
@@ -9431,7 +9431,7 @@
         <v>144</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F230" s="4"/>
       <c r="G230" s="3" t="s">
@@ -9462,7 +9462,7 @@
         <v>45</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F231" s="4"/>
       <c r="G231" s="3" t="s">
@@ -9493,7 +9493,7 @@
         <v>53</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F232" s="4"/>
       <c r="G232" s="3" t="s">
@@ -9524,7 +9524,7 @@
         <v>50</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F233" s="4"/>
       <c r="G233" s="3" t="s">
@@ -9552,10 +9552,10 @@
         <v>9</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F234" s="4"/>
       <c r="G234" s="3" t="s">
@@ -9586,7 +9586,7 @@
         <v>190</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F235" s="4"/>
       <c r="G235" s="3" t="s">
@@ -9617,7 +9617,7 @@
         <v>161</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F236" s="4"/>
       <c r="G236" s="3" t="s">
@@ -9648,7 +9648,7 @@
         <v>162</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F237" s="4"/>
       <c r="G237" s="3" t="s">
@@ -9679,7 +9679,7 @@
         <v>192</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F238" s="4"/>
       <c r="G238" s="3" t="s">
@@ -9710,7 +9710,7 @@
         <v>166</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F239" s="4"/>
       <c r="G239" s="3" t="s">
@@ -9741,7 +9741,7 @@
         <v>154</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F240" s="4"/>
       <c r="G240" s="3" t="s">
@@ -9772,7 +9772,7 @@
         <v>134</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F241" s="4"/>
       <c r="G241" s="3" t="s">
@@ -9794,16 +9794,16 @@
         <v>22</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F242" s="4"/>
       <c r="G242" s="3" t="s">
@@ -9825,7 +9825,7 @@
         <v>22</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>9</v>
@@ -9834,11 +9834,11 @@
         <v>201</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F243" s="4"/>
       <c r="G243" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H243" s="3" t="s">
         <v>86</v>
@@ -9856,7 +9856,7 @@
         <v>22</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>9</v>
@@ -9865,11 +9865,11 @@
         <v>165</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F244" s="4"/>
       <c r="G244" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H244" s="3" t="s">
         <v>177</v>
@@ -9887,7 +9887,7 @@
         <v>22</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>9</v>
@@ -9896,11 +9896,11 @@
         <v>199</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F245" s="4"/>
       <c r="G245" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H245" s="3" t="s">
         <v>177</v>
@@ -9918,7 +9918,7 @@
         <v>22</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>9</v>
@@ -9927,11 +9927,11 @@
         <v>191</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F246" s="4"/>
       <c r="G246" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H246" s="3" t="s">
         <v>177</v>
@@ -9949,20 +9949,20 @@
         <v>22</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F247" s="4"/>
       <c r="G247" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H247" s="3" t="s">
         <v>81</v>
@@ -9980,7 +9980,7 @@
         <v>22</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>9</v>
@@ -9989,11 +9989,11 @@
         <v>49</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F248" s="4"/>
       <c r="G248" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H248" s="3" t="s">
         <v>81</v>
@@ -10011,7 +10011,7 @@
         <v>22</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>9</v>
@@ -10020,11 +10020,11 @@
         <v>142</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F249" s="4"/>
       <c r="G249" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H249" s="3" t="s">
         <v>81</v>
@@ -10042,7 +10042,7 @@
         <v>22</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>9</v>
@@ -10073,7 +10073,7 @@
         <v>22</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>9</v>
@@ -10104,7 +10104,7 @@
         <v>22</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>9</v>
@@ -10113,7 +10113,7 @@
         <v>150</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F252" s="4"/>
       <c r="G252" s="3" t="s">
@@ -10135,7 +10135,7 @@
         <v>22</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>9</v>
@@ -10166,7 +10166,7 @@
         <v>22</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>9</v>
@@ -10197,7 +10197,7 @@
         <v>22</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>9</v>
@@ -10206,7 +10206,7 @@
         <v>17</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F255" s="4"/>
       <c r="G255" s="3" t="s">
@@ -10228,16 +10228,16 @@
         <v>22</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F256" s="4"/>
       <c r="G256" s="3" t="s">
@@ -10259,7 +10259,7 @@
         <v>22</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>9</v>
@@ -10268,11 +10268,11 @@
         <v>16</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F257" s="4"/>
       <c r="G257" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H257" s="3" t="s">
         <v>61</v>
@@ -10290,7 +10290,7 @@
         <v>22</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>9</v>
@@ -10299,11 +10299,11 @@
         <v>15</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F258" s="4"/>
       <c r="G258" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H258" s="3" t="s">
         <v>60</v>
@@ -10321,7 +10321,7 @@
         <v>22</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>9</v>
@@ -10330,11 +10330,11 @@
         <v>33</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F259" s="4"/>
       <c r="G259" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H259" s="3" t="s">
         <v>87</v>
@@ -10361,7 +10361,7 @@
         <v>189</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F260" s="4"/>
       <c r="G260" s="3" t="s">
@@ -10392,7 +10392,7 @@
         <v>48</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F261" s="4"/>
       <c r="G261" s="3" t="s">
@@ -10423,7 +10423,7 @@
         <v>39</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F262" s="4"/>
       <c r="G262" s="3" t="s">
@@ -10454,7 +10454,7 @@
         <v>40</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F263" s="4"/>
       <c r="G263" s="3" t="s">
@@ -10547,7 +10547,7 @@
         <v>52</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F266" s="4"/>
       <c r="G266" s="3" t="s">
@@ -10578,7 +10578,7 @@
         <v>47</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F267" s="4"/>
       <c r="G267" s="3" t="s">
@@ -10640,7 +10640,7 @@
         <v>45</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F269" s="4"/>
       <c r="G269" s="3" t="s">
@@ -10671,7 +10671,7 @@
         <v>37</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F270" s="4"/>
       <c r="G270" s="3" t="s">
@@ -10702,7 +10702,7 @@
         <v>50</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F271" s="4"/>
       <c r="G271" s="3" t="s">
@@ -10730,10 +10730,10 @@
         <v>9</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F272" s="4"/>
       <c r="G272" s="3" t="s">
@@ -10764,7 +10764,7 @@
         <v>190</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F273" s="4"/>
       <c r="G273" s="3" t="s">
@@ -10795,7 +10795,7 @@
         <v>161</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F274" s="4"/>
       <c r="G274" s="3" t="s">
@@ -10826,7 +10826,7 @@
         <v>162</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F275" s="4"/>
       <c r="G275" s="3" t="s">
@@ -10857,7 +10857,7 @@
         <v>192</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F276" s="4"/>
       <c r="G276" s="3" t="s">
@@ -10879,16 +10879,16 @@
         <v>22</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F277" s="4"/>
       <c r="G277" s="3" t="s">
@@ -10919,7 +10919,7 @@
         <v>161</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F278" s="4"/>
       <c r="G278" s="3" t="s">
@@ -10941,7 +10941,7 @@
         <v>23</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>9</v>
@@ -10950,7 +10950,7 @@
         <v>26</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F279" s="4"/>
       <c r="G279" s="3" t="s">
@@ -10972,7 +10972,7 @@
         <v>23</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>9</v>
@@ -11003,7 +11003,7 @@
         <v>23</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>9</v>
@@ -11012,11 +11012,11 @@
         <v>13</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F281" s="4"/>
       <c r="G281" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H281" s="3" t="s">
         <v>60</v>
@@ -11034,7 +11034,7 @@
         <v>23</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>9</v>
@@ -11043,11 +11043,11 @@
         <v>38</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F282" s="4"/>
       <c r="G282" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H282" s="3" t="s">
         <v>60</v>
@@ -11065,7 +11065,7 @@
         <v>23</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>9</v>
@@ -11074,11 +11074,11 @@
         <v>15</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F283" s="4"/>
       <c r="G283" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H283" s="3" t="s">
         <v>60</v>
@@ -11096,7 +11096,7 @@
         <v>23</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>9</v>
@@ -11105,11 +11105,11 @@
         <v>14</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F284" s="4"/>
       <c r="G284" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H284" s="3" t="s">
         <v>61</v>
@@ -11167,7 +11167,7 @@
         <v>42</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F286" s="4"/>
       <c r="G286" s="3" t="s">
@@ -11198,7 +11198,7 @@
         <v>40</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F287" s="4"/>
       <c r="G287" s="3" t="s">
@@ -11229,7 +11229,7 @@
         <v>41</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F288" s="4"/>
       <c r="G288" s="3" t="s">
@@ -11288,10 +11288,10 @@
         <v>9</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F290" s="4"/>
       <c r="G290" s="3" t="s">
@@ -11322,7 +11322,7 @@
         <v>154</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F291" s="4"/>
       <c r="G291" s="3" t="s">
@@ -11344,7 +11344,7 @@
         <v>23</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>9</v>
@@ -11375,7 +11375,7 @@
         <v>23</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>9</v>
@@ -11384,7 +11384,7 @@
         <v>150</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F293" s="4"/>
       <c r="G293" s="3" t="s">
@@ -11406,7 +11406,7 @@
         <v>23</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>9</v>
@@ -11419,7 +11419,7 @@
       </c>
       <c r="F294" s="4"/>
       <c r="G294" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H294" s="3" t="s">
         <v>88</v>
@@ -11437,7 +11437,7 @@
         <v>23</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>9</v>
@@ -11468,7 +11468,7 @@
         <v>23</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>9</v>
@@ -11499,7 +11499,7 @@
         <v>23</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>9</v>
@@ -11508,7 +11508,7 @@
         <v>17</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F297" s="4"/>
       <c r="G297" s="3" t="s">
@@ -11570,7 +11570,7 @@
         <v>47</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F299" s="4"/>
       <c r="G299" s="3" t="s">
@@ -11598,10 +11598,10 @@
         <v>9</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F300" s="4"/>
       <c r="G300" s="3" t="s">
@@ -11623,20 +11623,20 @@
         <v>23</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F301" s="4"/>
       <c r="G301" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H301" s="3" t="s">
         <v>63</v>
@@ -11654,7 +11654,7 @@
         <v>23</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>9</v>
@@ -11663,11 +11663,11 @@
         <v>163</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F302" s="4"/>
       <c r="G302" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H302" s="3" t="s">
         <v>63</v>
@@ -11685,7 +11685,7 @@
         <v>23</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>9</v>
@@ -11716,7 +11716,7 @@
         <v>23</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>9</v>
@@ -11809,7 +11809,7 @@
         <v>23</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>9</v>
@@ -11818,11 +11818,11 @@
         <v>28</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F307" s="4"/>
       <c r="G307" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H307" s="3" t="s">
         <v>74</v>
@@ -11840,7 +11840,7 @@
         <v>23</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>9</v>
@@ -11849,11 +11849,11 @@
         <v>22</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F308" s="4"/>
       <c r="G308" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H308" s="3" t="s">
         <v>75</v>
@@ -11871,7 +11871,7 @@
         <v>23</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>9</v>
@@ -11880,11 +11880,11 @@
         <v>137</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F309" s="4"/>
       <c r="G309" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H309" s="3" t="s">
         <v>74</v>
@@ -11902,23 +11902,23 @@
         <v>23</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F310" s="4"/>
       <c r="G310" s="3" t="s">
         <v>77</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I310" s="4" t="s">
         <v>11</v>
@@ -11933,7 +11933,7 @@
         <v>23</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>9</v>
@@ -11964,7 +11964,7 @@
         <v>23</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>9</v>
@@ -11973,11 +11973,11 @@
         <v>156</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F312" s="4"/>
       <c r="G312" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H312" s="3" t="s">
         <v>81</v>
@@ -11995,7 +11995,7 @@
         <v>23</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>9</v>
@@ -12004,11 +12004,11 @@
         <v>145</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F313" s="4"/>
       <c r="G313" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H313" s="3" t="s">
         <v>81</v>
@@ -12026,7 +12026,7 @@
         <v>23</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>9</v>
@@ -12057,7 +12057,7 @@
         <v>23</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>9</v>
@@ -12066,7 +12066,7 @@
         <v>143</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F315" s="4"/>
       <c r="G315" s="3" t="s">
@@ -12097,7 +12097,7 @@
         <v>144</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F316" s="4"/>
       <c r="G316" s="3" t="s">
@@ -12128,7 +12128,7 @@
         <v>50</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F317" s="4"/>
       <c r="G317" s="3" t="s">
@@ -12159,7 +12159,7 @@
         <v>195</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F318" s="4"/>
       <c r="G318" s="3" t="s">
@@ -12181,7 +12181,7 @@
         <v>23</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>9</v>
@@ -12212,7 +12212,7 @@
         <v>23</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>9</v>
@@ -12221,11 +12221,11 @@
         <v>13</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F320" s="4"/>
       <c r="G320" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H320" s="3" t="s">
         <v>60</v>
@@ -12243,7 +12243,7 @@
         <v>23</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>9</v>
@@ -12252,11 +12252,11 @@
         <v>15</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F321" s="4"/>
       <c r="G321" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H321" s="3" t="s">
         <v>60</v>
@@ -12283,7 +12283,7 @@
         <v>151</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F322" s="4"/>
       <c r="G322" s="3" t="s">
@@ -12345,7 +12345,7 @@
         <v>41</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F324" s="4"/>
       <c r="G324" s="3" t="s">
@@ -12435,10 +12435,10 @@
         <v>9</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F327" s="4"/>
       <c r="G327" s="3" t="s">
@@ -12469,7 +12469,7 @@
         <v>162</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F328" s="4"/>
       <c r="G328" s="3" t="s">
@@ -12500,7 +12500,7 @@
         <v>154</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F329" s="4"/>
       <c r="G329" s="3" t="s">
@@ -12522,7 +12522,7 @@
         <v>23</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>9</v>
@@ -12531,11 +12531,11 @@
         <v>200</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F330" s="4"/>
       <c r="G330" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H330" s="3" t="s">
         <v>88</v>
@@ -12562,7 +12562,7 @@
         <v>132</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F331" s="4"/>
       <c r="G331" s="3" t="s">
@@ -12593,7 +12593,7 @@
         <v>47</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F332" s="4"/>
       <c r="G332" s="3" t="s">
@@ -12615,7 +12615,7 @@
         <v>23</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>9</v>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="F333" s="4"/>
       <c r="G333" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H333" s="3" t="s">
         <v>63</v>
@@ -12655,7 +12655,7 @@
         <v>138</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F334" s="4"/>
       <c r="G334" s="3" t="s">
@@ -12683,10 +12683,10 @@
         <v>9</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F335" s="4"/>
       <c r="G335" s="3" t="s">
@@ -12714,10 +12714,10 @@
         <v>9</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F336" s="4"/>
       <c r="G336" s="3" t="s">
@@ -12739,7 +12739,7 @@
         <v>23</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>9</v>
@@ -12748,11 +12748,11 @@
         <v>28</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F337" s="4"/>
       <c r="G337" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H337" s="3" t="s">
         <v>74</v>
@@ -12770,7 +12770,7 @@
         <v>23</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>9</v>
@@ -12779,11 +12779,11 @@
         <v>22</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F338" s="4"/>
       <c r="G338" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H338" s="3" t="s">
         <v>75</v>
@@ -12801,23 +12801,23 @@
         <v>23</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F339" s="4"/>
       <c r="G339" s="3" t="s">
         <v>77</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I339" s="4" t="s">
         <v>51</v>
@@ -12832,7 +12832,7 @@
         <v>23</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>9</v>
@@ -12863,7 +12863,7 @@
         <v>23</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>9</v>
@@ -12872,11 +12872,11 @@
         <v>158</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F341" s="4"/>
       <c r="G341" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H341" s="3" t="s">
         <v>81</v>
@@ -12894,7 +12894,7 @@
         <v>23</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>9</v>
@@ -12903,11 +12903,11 @@
         <v>30</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F342" s="4"/>
       <c r="G342" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H342" s="3" t="s">
         <v>87</v>
@@ -12925,7 +12925,7 @@
         <v>23</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>9</v>
@@ -12934,11 +12934,11 @@
         <v>33</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F343" s="4"/>
       <c r="G343" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H343" s="3" t="s">
         <v>87</v>
@@ -12956,7 +12956,7 @@
         <v>23</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>9</v>
@@ -12965,11 +12965,11 @@
         <v>141</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F344" s="4"/>
       <c r="G344" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H344" s="3" t="s">
         <v>87</v>
@@ -12996,7 +12996,7 @@
         <v>45</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F345" s="4"/>
       <c r="G345" s="3" t="s">
@@ -13027,7 +13027,7 @@
         <v>37</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F346" s="4"/>
       <c r="G346" s="3" t="s">
@@ -13058,7 +13058,7 @@
         <v>50</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F347" s="4"/>
       <c r="G347" s="3" t="s">
@@ -13089,7 +13089,7 @@
         <v>161</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F348" s="4"/>
       <c r="G348" s="3" t="s">
@@ -13111,7 +13111,7 @@
         <v>23</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>9</v>
@@ -13142,7 +13142,7 @@
         <v>23</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>9</v>
@@ -13151,11 +13151,11 @@
         <v>16</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F350" s="4"/>
       <c r="G350" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H350" s="3" t="s">
         <v>61</v>
@@ -13173,7 +13173,7 @@
         <v>23</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>9</v>
@@ -13182,11 +13182,11 @@
         <v>38</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F351" s="4"/>
       <c r="G351" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H351" s="3" t="s">
         <v>60</v>
@@ -13204,7 +13204,7 @@
         <v>23</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>9</v>
@@ -13213,11 +13213,11 @@
         <v>15</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F352" s="4"/>
       <c r="G352" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H352" s="3" t="s">
         <v>60</v>
@@ -13235,7 +13235,7 @@
         <v>23</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>9</v>
@@ -13244,11 +13244,11 @@
         <v>14</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F353" s="4"/>
       <c r="G353" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H353" s="3" t="s">
         <v>61</v>
@@ -13266,7 +13266,7 @@
         <v>23</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>9</v>
@@ -13275,11 +13275,11 @@
         <v>128</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F354" s="4"/>
       <c r="G354" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H354" s="3" t="s">
         <v>61</v>
@@ -13337,7 +13337,7 @@
         <v>40</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F356" s="4"/>
       <c r="G356" s="3" t="s">
@@ -13368,7 +13368,7 @@
         <v>41</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F357" s="4"/>
       <c r="G357" s="3" t="s">
@@ -13489,10 +13489,10 @@
         <v>9</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F361" s="4"/>
       <c r="G361" s="3" t="s">
@@ -13523,7 +13523,7 @@
         <v>162</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F362" s="4"/>
       <c r="G362" s="3" t="s">
@@ -13545,7 +13545,7 @@
         <v>23</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>9</v>
@@ -13576,7 +13576,7 @@
         <v>23</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>9</v>
@@ -13589,7 +13589,7 @@
       </c>
       <c r="F364" s="4"/>
       <c r="G364" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H364" s="3" t="s">
         <v>88</v>
@@ -13607,7 +13607,7 @@
         <v>23</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>9</v>
@@ -13638,7 +13638,7 @@
         <v>23</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>9</v>
@@ -13669,7 +13669,7 @@
         <v>23</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>9</v>
@@ -13700,7 +13700,7 @@
         <v>23</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>9</v>
@@ -13709,7 +13709,7 @@
         <v>17</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F368" s="4"/>
       <c r="G368" s="3" t="s">
@@ -13731,16 +13731,16 @@
         <v>23</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F369" s="4"/>
       <c r="G369" s="3" t="s">
@@ -13771,7 +13771,7 @@
         <v>52</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F370" s="4"/>
       <c r="G370" s="3" t="s">
@@ -13793,7 +13793,7 @@
         <v>23</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>9</v>
@@ -13802,11 +13802,11 @@
         <v>163</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F371" s="4"/>
       <c r="G371" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H371" s="3" t="s">
         <v>63</v>
@@ -13824,7 +13824,7 @@
         <v>23</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>9</v>
@@ -13855,7 +13855,7 @@
         <v>23</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>9</v>
@@ -13892,10 +13892,10 @@
         <v>9</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F374" s="4"/>
       <c r="G374" s="3" t="s">
@@ -13917,7 +13917,7 @@
         <v>23</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>9</v>
@@ -13926,11 +13926,11 @@
         <v>28</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F375" s="4"/>
       <c r="G375" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H375" s="3" t="s">
         <v>74</v>
@@ -13948,7 +13948,7 @@
         <v>23</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>9</v>
@@ -13979,7 +13979,7 @@
         <v>23</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>9</v>
@@ -14010,7 +14010,7 @@
         <v>23</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>9</v>
@@ -14019,11 +14019,11 @@
         <v>33</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F378" s="4"/>
       <c r="G378" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H378" s="3" t="s">
         <v>87</v>
@@ -14041,7 +14041,7 @@
         <v>23</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>9</v>
@@ -14050,11 +14050,11 @@
         <v>21</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F379" s="4"/>
       <c r="G379" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H379" s="3" t="s">
         <v>87</v>
@@ -14072,7 +14072,7 @@
         <v>23</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>9</v>
@@ -14081,11 +14081,11 @@
         <v>142</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F380" s="4"/>
       <c r="G380" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H380" s="3" t="s">
         <v>81</v>
@@ -14143,7 +14143,7 @@
         <v>144</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F382" s="4"/>
       <c r="G382" s="3" t="s">
@@ -14174,7 +14174,7 @@
         <v>45</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F383" s="4"/>
       <c r="G383" s="3" t="s">
@@ -14205,7 +14205,7 @@
         <v>37</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F384" s="4"/>
       <c r="G384" s="3" t="s">
@@ -14236,7 +14236,7 @@
         <v>50</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F385" s="4"/>
       <c r="G385" s="3" t="s">
@@ -14264,10 +14264,10 @@
         <v>9</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F386" s="4"/>
       <c r="G386" s="3" t="s">
@@ -14289,7 +14289,7 @@
         <v>23</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>9</v>
@@ -14298,11 +14298,11 @@
         <v>199</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F387" s="4"/>
       <c r="G387" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H387" s="3" t="s">
         <v>177</v>
@@ -14320,7 +14320,7 @@
         <v>23</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>9</v>
@@ -14329,11 +14329,11 @@
         <v>156</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F388" s="4"/>
       <c r="G388" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H388" s="3" t="s">
         <v>81</v>
@@ -14351,7 +14351,7 @@
         <v>23</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>9</v>
@@ -14360,11 +14360,11 @@
         <v>145</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F389" s="4"/>
       <c r="G389" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H389" s="3" t="s">
         <v>81</v>
@@ -14382,7 +14382,7 @@
         <v>23</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>9</v>
@@ -14413,7 +14413,7 @@
         <v>23</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>9</v>
@@ -14422,7 +14422,7 @@
         <v>26</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F391" s="4"/>
       <c r="G391" s="3" t="s">
@@ -14444,7 +14444,7 @@
         <v>23</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>9</v>
@@ -14475,7 +14475,7 @@
         <v>23</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>9</v>
@@ -14506,7 +14506,7 @@
         <v>23</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>9</v>
@@ -14515,7 +14515,7 @@
         <v>150</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F394" s="4"/>
       <c r="G394" s="3" t="s">
@@ -14537,7 +14537,7 @@
         <v>23</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>9</v>
@@ -14568,7 +14568,7 @@
         <v>23</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>9</v>
@@ -14577,11 +14577,11 @@
         <v>13</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F396" s="4"/>
       <c r="G396" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H396" s="3" t="s">
         <v>60</v>
@@ -14599,7 +14599,7 @@
         <v>23</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>9</v>
@@ -14608,11 +14608,11 @@
         <v>15</v>
       </c>
       <c r="E397" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F397" s="4"/>
       <c r="G397" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H397" s="3" t="s">
         <v>60</v>
@@ -14630,7 +14630,7 @@
         <v>23</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>9</v>
@@ -14639,11 +14639,11 @@
         <v>28</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F398" s="4"/>
       <c r="G398" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H398" s="3" t="s">
         <v>74</v>
@@ -14661,7 +14661,7 @@
         <v>23</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>9</v>
@@ -14670,11 +14670,11 @@
         <v>22</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F399" s="4"/>
       <c r="G399" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H399" s="3" t="s">
         <v>75</v>
@@ -14692,7 +14692,7 @@
         <v>23</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>9</v>
@@ -14701,11 +14701,11 @@
         <v>137</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F400" s="4"/>
       <c r="G400" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H400" s="3" t="s">
         <v>74</v>
@@ -14763,7 +14763,7 @@
         <v>39</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F402" s="4"/>
       <c r="G402" s="3" t="s">
@@ -14794,7 +14794,7 @@
         <v>41</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F403" s="4"/>
       <c r="G403" s="3" t="s">
@@ -14853,10 +14853,10 @@
         <v>9</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F405" s="4"/>
       <c r="G405" s="3" t="s">
@@ -14887,7 +14887,7 @@
         <v>162</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F406" s="4"/>
       <c r="G406" s="3" t="s">
@@ -14918,7 +14918,7 @@
         <v>154</v>
       </c>
       <c r="E407" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F407" s="4"/>
       <c r="G407" s="3" t="s">
@@ -14940,20 +14940,20 @@
         <v>23</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F408" s="4"/>
       <c r="G408" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H408" s="3" t="s">
         <v>88</v>
@@ -14971,7 +14971,7 @@
         <v>23</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>9</v>
@@ -14984,7 +14984,7 @@
       </c>
       <c r="F409" s="4"/>
       <c r="G409" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H409" s="3" t="s">
         <v>88</v>
@@ -15002,7 +15002,7 @@
         <v>23</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>9</v>
@@ -15011,11 +15011,11 @@
         <v>200</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F410" s="4"/>
       <c r="G410" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H410" s="3" t="s">
         <v>88</v>
@@ -15033,20 +15033,20 @@
         <v>23</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F411" s="4"/>
       <c r="G411" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H411" s="3" t="s">
         <v>88</v>
@@ -15064,7 +15064,7 @@
         <v>23</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>9</v>
@@ -15073,11 +15073,11 @@
         <v>43</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F412" s="4"/>
       <c r="G412" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H412" s="3" t="s">
         <v>86</v>
@@ -15095,7 +15095,7 @@
         <v>23</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>9</v>
@@ -15104,11 +15104,11 @@
         <v>202</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F413" s="4"/>
       <c r="G413" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H413" s="3" t="s">
         <v>86</v>
@@ -15126,7 +15126,7 @@
         <v>23</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>9</v>
@@ -15135,11 +15135,11 @@
         <v>158</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F414" s="4"/>
       <c r="G414" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H414" s="3" t="s">
         <v>81</v>
@@ -15157,7 +15157,7 @@
         <v>23</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>9</v>
@@ -15166,11 +15166,11 @@
         <v>191</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F415" s="4"/>
       <c r="G415" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H415" s="3" t="s">
         <v>177</v>
@@ -15188,7 +15188,7 @@
         <v>23</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>9</v>
@@ -15219,7 +15219,7 @@
         <v>23</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>9</v>
@@ -15250,7 +15250,7 @@
         <v>23</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>9</v>
@@ -15281,7 +15281,7 @@
         <v>23</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>9</v>
@@ -15312,7 +15312,7 @@
         <v>23</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>9</v>
@@ -15343,7 +15343,7 @@
         <v>23</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>9</v>
@@ -15352,11 +15352,11 @@
         <v>15</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F421" s="4"/>
       <c r="G421" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H421" s="3" t="s">
         <v>60</v>
@@ -15374,7 +15374,7 @@
         <v>23</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>9</v>
@@ -15383,11 +15383,11 @@
         <v>28</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F422" s="4"/>
       <c r="G422" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H422" s="3" t="s">
         <v>74</v>
@@ -15445,7 +15445,7 @@
         <v>41</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F424" s="4"/>
       <c r="G424" s="3" t="s">
@@ -15504,10 +15504,10 @@
         <v>9</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F426" s="4"/>
       <c r="G426" s="3" t="s">
@@ -15538,7 +15538,7 @@
         <v>47</v>
       </c>
       <c r="E427" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F427" s="4"/>
       <c r="G427" s="3" t="s">
@@ -15569,7 +15569,7 @@
         <v>138</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F428" s="4"/>
       <c r="G428" s="3" t="s">
@@ -15597,10 +15597,10 @@
         <v>9</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F429" s="4"/>
       <c r="G429" s="3" t="s">
@@ -15628,10 +15628,10 @@
         <v>9</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F430" s="4"/>
       <c r="G430" s="3" t="s">
@@ -15659,10 +15659,10 @@
         <v>9</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F431" s="4"/>
       <c r="G431" s="3" t="s">
@@ -15693,7 +15693,7 @@
         <v>161</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F432" s="4"/>
       <c r="G432" s="3" t="s">
@@ -15724,7 +15724,7 @@
         <v>162</v>
       </c>
       <c r="E433" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F433" s="4"/>
       <c r="G433" s="3" t="s">
@@ -15746,16 +15746,16 @@
         <v>23</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F434" s="4"/>
       <c r="G434" s="3" t="s">
@@ -15777,20 +15777,20 @@
         <v>23</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E435" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F435" s="4"/>
       <c r="G435" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H435" s="3" t="s">
         <v>63</v>
@@ -15808,20 +15808,20 @@
         <v>23</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F436" s="4"/>
       <c r="G436" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H436" s="3" t="s">
         <v>86</v>
@@ -15839,7 +15839,7 @@
         <v>23</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>9</v>
@@ -15848,11 +15848,11 @@
         <v>163</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F437" s="4"/>
       <c r="G437" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H437" s="3" t="s">
         <v>63</v>
@@ -15870,7 +15870,7 @@
         <v>23</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>9</v>
@@ -15879,11 +15879,11 @@
         <v>165</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F438" s="4"/>
       <c r="G438" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H438" s="3" t="s">
         <v>177</v>
@@ -15901,7 +15901,7 @@
         <v>23</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>9</v>
@@ -15910,11 +15910,11 @@
         <v>199</v>
       </c>
       <c r="E439" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F439" s="4"/>
       <c r="G439" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H439" s="3" t="s">
         <v>177</v>
@@ -15932,7 +15932,7 @@
         <v>23</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>9</v>
@@ -15941,11 +15941,11 @@
         <v>136</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F440" s="4"/>
       <c r="G440" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H440" s="3" t="s">
         <v>177</v>
@@ -15963,7 +15963,7 @@
         <v>23</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>9</v>
@@ -15972,11 +15972,11 @@
         <v>158</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F441" s="4"/>
       <c r="G441" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H441" s="3" t="s">
         <v>81</v>
@@ -15994,7 +15994,7 @@
         <v>23</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>9</v>
@@ -16003,11 +16003,11 @@
         <v>191</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F442" s="4"/>
       <c r="G442" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H442" s="3" t="s">
         <v>177</v>
@@ -16025,7 +16025,7 @@
         <v>23</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>9</v>
@@ -16056,7 +16056,7 @@
         <v>23</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>9</v>
@@ -16065,7 +16065,7 @@
         <v>26</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F444" s="4"/>
       <c r="G444" s="3" t="s">
@@ -16087,7 +16087,7 @@
         <v>23</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>9</v>
@@ -16118,7 +16118,7 @@
         <v>23</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>9</v>
@@ -16149,7 +16149,7 @@
         <v>23</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>9</v>
@@ -16180,7 +16180,7 @@
         <v>23</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>9</v>
@@ -16211,7 +16211,7 @@
         <v>23</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>9</v>
@@ -16242,7 +16242,7 @@
         <v>23</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>9</v>
@@ -16273,7 +16273,7 @@
         <v>23</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>9</v>
@@ -16304,7 +16304,7 @@
         <v>23</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>9</v>
@@ -16313,7 +16313,7 @@
         <v>17</v>
       </c>
       <c r="E452" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F452" s="4"/>
       <c r="G452" s="3" t="s">
@@ -16335,7 +16335,7 @@
         <v>23</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>9</v>
@@ -16344,11 +16344,11 @@
         <v>16</v>
       </c>
       <c r="E453" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F453" s="4"/>
       <c r="G453" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H453" s="3" t="s">
         <v>61</v>
@@ -16366,7 +16366,7 @@
         <v>23</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>9</v>
@@ -16375,11 +16375,11 @@
         <v>38</v>
       </c>
       <c r="E454" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F454" s="4"/>
       <c r="G454" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H454" s="3" t="s">
         <v>60</v>
@@ -16397,7 +16397,7 @@
         <v>23</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>9</v>
@@ -16406,11 +16406,11 @@
         <v>15</v>
       </c>
       <c r="E455" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F455" s="4"/>
       <c r="G455" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H455" s="3" t="s">
         <v>60</v>
@@ -16428,7 +16428,7 @@
         <v>23</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>9</v>
@@ -16437,11 +16437,11 @@
         <v>28</v>
       </c>
       <c r="E456" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F456" s="4"/>
       <c r="G456" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H456" s="3" t="s">
         <v>74</v>
@@ -16459,7 +16459,7 @@
         <v>23</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>9</v>
@@ -16468,11 +16468,11 @@
         <v>22</v>
       </c>
       <c r="E457" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F457" s="4"/>
       <c r="G457" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H457" s="3" t="s">
         <v>75</v>
@@ -16490,7 +16490,7 @@
         <v>23</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>9</v>
@@ -16499,11 +16499,11 @@
         <v>137</v>
       </c>
       <c r="E458" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F458" s="4"/>
       <c r="G458" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H458" s="3" t="s">
         <v>74</v>
@@ -16561,7 +16561,7 @@
         <v>40</v>
       </c>
       <c r="E460" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F460" s="4"/>
       <c r="G460" s="3" t="s">
@@ -16592,7 +16592,7 @@
         <v>41</v>
       </c>
       <c r="E461" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F461" s="4"/>
       <c r="G461" s="3" t="s">
@@ -16713,10 +16713,10 @@
         <v>9</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E465" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F465" s="4"/>
       <c r="G465" s="3" t="s">
@@ -16747,7 +16747,7 @@
         <v>52</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F466" s="4"/>
       <c r="G466" s="3" t="s">
@@ -16778,7 +16778,7 @@
         <v>47</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F467" s="4"/>
       <c r="G467" s="3" t="s">
@@ -16806,10 +16806,10 @@
         <v>9</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F468" s="4"/>
       <c r="G468" s="3" t="s">
@@ -16837,10 +16837,10 @@
         <v>9</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F469" s="4"/>
       <c r="G469" s="3" t="s">
@@ -16871,7 +16871,7 @@
         <v>161</v>
       </c>
       <c r="E470" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F470" s="4"/>
       <c r="G470" s="3" t="s">
@@ -16902,7 +16902,7 @@
         <v>162</v>
       </c>
       <c r="E471" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F471" s="4"/>
       <c r="G471" s="3" t="s">
@@ -16924,16 +16924,16 @@
         <v>23</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E472" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F472" s="4"/>
       <c r="G472" s="3" t="s">
@@ -41967,7 +41967,7 @@
   <dimension ref="A1:H490"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41993,7 +41993,7 @@
         <v>118</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>213</v>
+        <v>420</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>120</v>
@@ -42010,7 +42010,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" s="44">
         <v>0</v>
@@ -42062,7 +42062,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="19">
         <v>37</v>
@@ -42088,7 +42088,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="50">
         <v>40</v>
@@ -42114,7 +42114,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B6" s="17">
         <v>0</v>
@@ -43657,7 +43657,7 @@
   <dimension ref="A1:K1331"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43703,10 +43703,10 @@
         <v>168</v>
       </c>
       <c r="J1" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>418</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -43717,10 +43717,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>109</v>
@@ -43748,22 +43748,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>108</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>75</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I3" s="39">
         <v>1</v>
@@ -43779,10 +43779,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>109</v>
@@ -43810,10 +43810,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>109</v>
@@ -43841,10 +43841,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>108</v>
@@ -43872,22 +43872,22 @@
         <v>9</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>108</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>60</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I7" s="39">
         <v>2</v>
@@ -43903,22 +43903,22 @@
         <v>9</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>108</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>60</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="39">
@@ -43934,10 +43934,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>109</v>
@@ -43965,10 +43965,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>109</v>
@@ -43996,22 +43996,22 @@
         <v>9</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>109</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I11" s="39">
         <v>5</v>
@@ -44027,22 +44027,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E12" s="39" t="s">
         <v>109</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I12" s="39">
         <v>1</v>
@@ -44058,10 +44058,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E13" s="39" t="s">
         <v>109</v>
@@ -44070,7 +44070,7 @@
         <v>95</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>207</v>
@@ -44089,10 +44089,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E14" s="39" t="s">
         <v>109</v>
@@ -44120,10 +44120,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E15" s="39" t="s">
         <v>109</v>
@@ -44154,10 +44154,10 @@
         <v>135</v>
       </c>
       <c r="D16" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="39" t="s">
         <v>248</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>249</v>
       </c>
       <c r="F16" s="39" t="s">
         <v>114</v>
@@ -44182,10 +44182,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E17" s="39" t="s">
         <v>109</v>
@@ -44213,10 +44213,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E18" s="39" t="s">
         <v>108</v>
@@ -44244,10 +44244,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E19" s="39" t="s">
         <v>108</v>
@@ -44275,10 +44275,10 @@
         <v>9</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E20" s="39" t="s">
         <v>108</v>
@@ -44306,10 +44306,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E21" s="39" t="s">
         <v>108</v>
@@ -44337,10 +44337,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>108</v>
@@ -44368,10 +44368,10 @@
         <v>9</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E23" s="39" t="s">
         <v>108</v>
@@ -44399,10 +44399,10 @@
         <v>9</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E24" s="39" t="s">
         <v>108</v>
@@ -44430,10 +44430,10 @@
         <v>9</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>108</v>
@@ -44461,10 +44461,10 @@
         <v>9</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>109</v>
@@ -44476,7 +44476,7 @@
         <v>57</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I26" s="39">
         <v>3</v>
@@ -44492,10 +44492,10 @@
         <v>9</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E27" s="39" t="s">
         <v>109</v>
@@ -44507,7 +44507,7 @@
         <v>83</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I27" s="39">
         <v>4</v>
@@ -44523,10 +44523,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E28" s="39" t="s">
         <v>109</v>
@@ -44538,7 +44538,7 @@
         <v>83</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I28" s="39">
         <v>1</v>
@@ -44554,10 +44554,10 @@
         <v>9</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E29" s="39" t="s">
         <v>108</v>
@@ -44569,7 +44569,7 @@
         <v>83</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I29" s="39">
         <v>3</v>
@@ -44585,22 +44585,22 @@
         <v>9</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E30" s="39" t="s">
         <v>108</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>60</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I30" s="39">
         <v>1</v>
@@ -44616,10 +44616,10 @@
         <v>9</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E31" s="39" t="s">
         <v>108</v>
@@ -44647,10 +44647,10 @@
         <v>9</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E32" s="39" t="s">
         <v>109</v>
@@ -44678,10 +44678,10 @@
         <v>9</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E33" s="39" t="s">
         <v>109</v>
@@ -44709,22 +44709,22 @@
         <v>9</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E34" s="39" t="s">
         <v>108</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I34" s="39">
         <v>1</v>
@@ -44740,22 +44740,22 @@
         <v>9</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E35" s="39" t="s">
         <v>109</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I35" s="39">
         <v>1</v>
@@ -44771,10 +44771,10 @@
         <v>9</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E36" s="39" t="s">
         <v>108</v>
@@ -44802,10 +44802,10 @@
         <v>9</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E37" s="39" t="s">
         <v>108</v>
@@ -44833,10 +44833,10 @@
         <v>9</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E38" s="39" t="s">
         <v>108</v>
@@ -44864,22 +44864,22 @@
         <v>9</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E39" s="39" t="s">
         <v>108</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G39" s="39" t="s">
         <v>74</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I39" s="39">
         <v>1</v>
@@ -44895,22 +44895,22 @@
         <v>9</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E40" s="39" t="s">
         <v>108</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G40" s="39" t="s">
         <v>74</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I40" s="39">
         <v>1</v>
@@ -44926,22 +44926,22 @@
         <v>9</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E41" s="39" t="s">
         <v>108</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G41" s="39" t="s">
         <v>74</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I41" s="39">
         <v>1</v>
@@ -44957,10 +44957,10 @@
         <v>9</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>109</v>
@@ -44988,10 +44988,10 @@
         <v>9</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E43" s="39" t="s">
         <v>109</v>
@@ -45019,10 +45019,10 @@
         <v>9</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E44" s="39" t="s">
         <v>108</v>
@@ -45031,10 +45031,10 @@
         <v>77</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I44" s="39">
         <v>5</v>
@@ -45050,10 +45050,10 @@
         <v>9</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E45" s="39" t="s">
         <v>108</v>
@@ -45065,7 +45065,7 @@
         <v>95</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I45" s="39">
         <v>1</v>
@@ -45081,10 +45081,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E46" s="39" t="s">
         <v>108</v>
@@ -45093,10 +45093,10 @@
         <v>77</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I46" s="39">
         <v>1</v>
@@ -45112,10 +45112,10 @@
         <v>9</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E47" s="39" t="s">
         <v>109</v>
@@ -45127,7 +45127,7 @@
         <v>9</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I47" s="39">
         <v>1</v>
@@ -45143,10 +45143,10 @@
         <v>9</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E48" s="39" t="s">
         <v>108</v>
@@ -45158,7 +45158,7 @@
         <v>83</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I48" s="39">
         <v>2</v>
@@ -45174,10 +45174,10 @@
         <v>9</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E49" s="39" t="s">
         <v>108</v>
@@ -45205,10 +45205,10 @@
         <v>9</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E50" s="39" t="s">
         <v>108</v>
@@ -45236,10 +45236,10 @@
         <v>9</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E51" s="39" t="s">
         <v>108</v>
@@ -45267,10 +45267,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E52" s="39" t="s">
         <v>109</v>
@@ -45282,7 +45282,7 @@
         <v>83</v>
       </c>
       <c r="H52" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I52" s="39"/>
       <c r="J52" s="39">
@@ -45298,10 +45298,10 @@
         <v>9</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E53" s="39" t="s">
         <v>108</v>
@@ -45313,7 +45313,7 @@
         <v>83</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I53" s="39"/>
       <c r="J53" s="39">
@@ -45329,10 +45329,10 @@
         <v>9</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E54" s="39" t="s">
         <v>108</v>
@@ -45360,10 +45360,10 @@
         <v>9</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D55" s="39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E55" s="39" t="s">
         <v>108</v>
@@ -45375,7 +45375,7 @@
         <v>95</v>
       </c>
       <c r="H55" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I55" s="39"/>
       <c r="J55" s="39"/>
@@ -45391,10 +45391,10 @@
         <v>9</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E56" s="39" t="s">
         <v>108</v>
@@ -45403,10 +45403,10 @@
         <v>77</v>
       </c>
       <c r="G56" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H56" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I56" s="39"/>
       <c r="J56" s="39"/>
@@ -45422,10 +45422,10 @@
         <v>9</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E57" s="39" t="s">
         <v>108</v>
@@ -45434,10 +45434,10 @@
         <v>77</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I57" s="39"/>
       <c r="J57" s="39"/>
@@ -45453,10 +45453,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E58" s="39" t="s">
         <v>108</v>
@@ -45484,10 +45484,10 @@
         <v>9</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E59" s="39" t="s">
         <v>108</v>
@@ -62052,8 +62052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BF88FA-18C1-4B68-BD02-7E04D8DA2DB1}">
   <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62238,10 +62238,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>109</v>
@@ -62488,10 +62488,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>108</v>
@@ -62500,10 +62500,10 @@
         <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -62581,22 +62581,22 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I17" s="1">
         <v>6</v>
@@ -62643,10 +62643,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>108</v>
@@ -62705,10 +62705,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>108</v>
@@ -62720,7 +62720,7 @@
         <v>9</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -62736,22 +62736,22 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
@@ -62767,10 +62767,10 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>108</v>
@@ -62798,10 +62798,10 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>108</v>
@@ -62860,22 +62860,22 @@
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>70</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
@@ -62891,10 +62891,10 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>108</v>
@@ -62903,10 +62903,10 @@
         <v>77</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
@@ -62922,10 +62922,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>108</v>
@@ -63046,10 +63046,10 @@
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>108</v>

--- a/File KPI.xlsx
+++ b/File KPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\yonatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D795AB7-70DB-4AEB-B35C-07BD90F4E07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B582C0-1CDC-411B-BE4C-0E7CB9EC0F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41967,7 +41967,7 @@
   <dimension ref="A1:H490"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/File KPI.xlsx
+++ b/File KPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\yonatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DAC4D7-CF1F-4B3D-A66B-77D6F3A5F22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF00F49-A4C7-43A9-A262-F5DF32E2D674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pemukiman" sheetId="1" r:id="rId1"/>
@@ -2293,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2395"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A452" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B474" sqref="B474"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62050,8 +62050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BF88FA-18C1-4B68-BD02-7E04D8DA2DB1}">
   <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66486,8 +66486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831A4E35-C37A-437D-A919-0C36A36B289A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/File KPI.xlsx
+++ b/File KPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\yonatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF00F49-A4C7-43A9-A262-F5DF32E2D674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A19AE-7290-4343-A162-582697E1394E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pemukiman" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1764,7 +1764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1924,13 +1924,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1944,35 +1940,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -2293,7 +2261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -43669,41 +43637,40 @@
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="58" t="s">
         <v>411</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="58" t="s">
         <v>412</v>
       </c>
     </row>
@@ -45516,7 +45483,7 @@
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
       <c r="J60" s="38"/>
-      <c r="K60" s="58"/>
+      <c r="K60" s="56"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
@@ -45529,7 +45496,7 @@
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
       <c r="J61" s="38"/>
-      <c r="K61" s="58"/>
+      <c r="K61" s="56"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38"/>
@@ -45542,7 +45509,7 @@
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
       <c r="J62" s="38"/>
-      <c r="K62" s="58"/>
+      <c r="K62" s="56"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38"/>
@@ -45555,7 +45522,7 @@
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
       <c r="J63" s="38"/>
-      <c r="K63" s="58"/>
+      <c r="K63" s="56"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38"/>
@@ -45568,7 +45535,7 @@
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
       <c r="J64" s="38"/>
-      <c r="K64" s="58"/>
+      <c r="K64" s="56"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38"/>
@@ -45581,7 +45548,7 @@
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
-      <c r="K65" s="58"/>
+      <c r="K65" s="56"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38"/>
@@ -45594,7 +45561,7 @@
       <c r="H66" s="38"/>
       <c r="I66" s="38"/>
       <c r="J66" s="38"/>
-      <c r="K66" s="58"/>
+      <c r="K66" s="56"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38"/>
@@ -45607,7 +45574,7 @@
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
       <c r="J67" s="38"/>
-      <c r="K67" s="58"/>
+      <c r="K67" s="56"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38"/>
@@ -45620,7 +45587,7 @@
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
       <c r="J68" s="38"/>
-      <c r="K68" s="58"/>
+      <c r="K68" s="56"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38"/>
@@ -45633,7 +45600,7 @@
       <c r="H69" s="38"/>
       <c r="I69" s="38"/>
       <c r="J69" s="38"/>
-      <c r="K69" s="58"/>
+      <c r="K69" s="56"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38"/>
@@ -45646,7 +45613,7 @@
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
       <c r="J70" s="38"/>
-      <c r="K70" s="58"/>
+      <c r="K70" s="56"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38"/>
@@ -45659,7 +45626,7 @@
       <c r="H71" s="38"/>
       <c r="I71" s="38"/>
       <c r="J71" s="38"/>
-      <c r="K71" s="58"/>
+      <c r="K71" s="56"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38"/>
@@ -45672,7 +45639,7 @@
       <c r="H72" s="38"/>
       <c r="I72" s="38"/>
       <c r="J72" s="38"/>
-      <c r="K72" s="58"/>
+      <c r="K72" s="56"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38"/>
@@ -45685,7 +45652,7 @@
       <c r="H73" s="38"/>
       <c r="I73" s="38"/>
       <c r="J73" s="38"/>
-      <c r="K73" s="58"/>
+      <c r="K73" s="56"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
@@ -45698,7 +45665,7 @@
       <c r="H74" s="38"/>
       <c r="I74" s="38"/>
       <c r="J74" s="38"/>
-      <c r="K74" s="58"/>
+      <c r="K74" s="56"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38"/>
@@ -45711,7 +45678,7 @@
       <c r="H75" s="38"/>
       <c r="I75" s="38"/>
       <c r="J75" s="38"/>
-      <c r="K75" s="58"/>
+      <c r="K75" s="56"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38"/>
@@ -45724,7 +45691,7 @@
       <c r="H76" s="38"/>
       <c r="I76" s="38"/>
       <c r="J76" s="38"/>
-      <c r="K76" s="58"/>
+      <c r="K76" s="56"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38"/>
@@ -45737,7 +45704,7 @@
       <c r="H77" s="38"/>
       <c r="I77" s="38"/>
       <c r="J77" s="38"/>
-      <c r="K77" s="58"/>
+      <c r="K77" s="56"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="38"/>
@@ -45750,7 +45717,7 @@
       <c r="H78" s="38"/>
       <c r="I78" s="38"/>
       <c r="J78" s="38"/>
-      <c r="K78" s="58"/>
+      <c r="K78" s="56"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38"/>
@@ -45763,7 +45730,7 @@
       <c r="H79" s="38"/>
       <c r="I79" s="38"/>
       <c r="J79" s="38"/>
-      <c r="K79" s="58"/>
+      <c r="K79" s="56"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38"/>
@@ -45776,7 +45743,7 @@
       <c r="H80" s="38"/>
       <c r="I80" s="38"/>
       <c r="J80" s="38"/>
-      <c r="K80" s="58"/>
+      <c r="K80" s="56"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38"/>
@@ -45789,7 +45756,7 @@
       <c r="H81" s="38"/>
       <c r="I81" s="38"/>
       <c r="J81" s="38"/>
-      <c r="K81" s="58"/>
+      <c r="K81" s="56"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38"/>
@@ -45802,7 +45769,7 @@
       <c r="H82" s="38"/>
       <c r="I82" s="38"/>
       <c r="J82" s="38"/>
-      <c r="K82" s="58"/>
+      <c r="K82" s="56"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38"/>
@@ -45815,7 +45782,7 @@
       <c r="H83" s="38"/>
       <c r="I83" s="38"/>
       <c r="J83" s="38"/>
-      <c r="K83" s="58"/>
+      <c r="K83" s="56"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="38"/>
@@ -45828,7 +45795,7 @@
       <c r="H84" s="38"/>
       <c r="I84" s="38"/>
       <c r="J84" s="38"/>
-      <c r="K84" s="58"/>
+      <c r="K84" s="56"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="38"/>
@@ -45841,7 +45808,7 @@
       <c r="H85" s="38"/>
       <c r="I85" s="38"/>
       <c r="J85" s="38"/>
-      <c r="K85" s="58"/>
+      <c r="K85" s="56"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="38"/>
@@ -45854,7 +45821,7 @@
       <c r="H86" s="38"/>
       <c r="I86" s="38"/>
       <c r="J86" s="38"/>
-      <c r="K86" s="58"/>
+      <c r="K86" s="56"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="38"/>
@@ -45867,7 +45834,7 @@
       <c r="H87" s="38"/>
       <c r="I87" s="38"/>
       <c r="J87" s="38"/>
-      <c r="K87" s="58"/>
+      <c r="K87" s="56"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38"/>
@@ -45880,7 +45847,7 @@
       <c r="H88" s="38"/>
       <c r="I88" s="38"/>
       <c r="J88" s="38"/>
-      <c r="K88" s="58"/>
+      <c r="K88" s="56"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38"/>
@@ -45893,7 +45860,7 @@
       <c r="H89" s="38"/>
       <c r="I89" s="38"/>
       <c r="J89" s="38"/>
-      <c r="K89" s="58"/>
+      <c r="K89" s="56"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38"/>
@@ -45906,7 +45873,7 @@
       <c r="H90" s="38"/>
       <c r="I90" s="38"/>
       <c r="J90" s="38"/>
-      <c r="K90" s="58"/>
+      <c r="K90" s="56"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
@@ -45919,7 +45886,7 @@
       <c r="H91" s="38"/>
       <c r="I91" s="38"/>
       <c r="J91" s="38"/>
-      <c r="K91" s="58"/>
+      <c r="K91" s="56"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38"/>
@@ -45932,7 +45899,7 @@
       <c r="H92" s="38"/>
       <c r="I92" s="38"/>
       <c r="J92" s="38"/>
-      <c r="K92" s="58"/>
+      <c r="K92" s="56"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="38"/>
@@ -45945,7 +45912,7 @@
       <c r="H93" s="38"/>
       <c r="I93" s="38"/>
       <c r="J93" s="38"/>
-      <c r="K93" s="58"/>
+      <c r="K93" s="56"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="38"/>
@@ -45958,7 +45925,7 @@
       <c r="H94" s="38"/>
       <c r="I94" s="38"/>
       <c r="J94" s="38"/>
-      <c r="K94" s="58"/>
+      <c r="K94" s="56"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="38"/>
@@ -45971,7 +45938,7 @@
       <c r="H95" s="38"/>
       <c r="I95" s="38"/>
       <c r="J95" s="38"/>
-      <c r="K95" s="58"/>
+      <c r="K95" s="56"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="38"/>
@@ -45984,7 +45951,7 @@
       <c r="H96" s="38"/>
       <c r="I96" s="38"/>
       <c r="J96" s="38"/>
-      <c r="K96" s="58"/>
+      <c r="K96" s="56"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="38"/>
@@ -45997,7 +45964,7 @@
       <c r="H97" s="38"/>
       <c r="I97" s="38"/>
       <c r="J97" s="38"/>
-      <c r="K97" s="58"/>
+      <c r="K97" s="56"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="38"/>
@@ -46010,7 +45977,7 @@
       <c r="H98" s="38"/>
       <c r="I98" s="38"/>
       <c r="J98" s="38"/>
-      <c r="K98" s="58"/>
+      <c r="K98" s="56"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="38"/>
@@ -46023,7 +45990,7 @@
       <c r="H99" s="38"/>
       <c r="I99" s="38"/>
       <c r="J99" s="38"/>
-      <c r="K99" s="58"/>
+      <c r="K99" s="56"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="38"/>
@@ -46036,7 +46003,7 @@
       <c r="H100" s="38"/>
       <c r="I100" s="38"/>
       <c r="J100" s="38"/>
-      <c r="K100" s="58"/>
+      <c r="K100" s="56"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="38"/>
@@ -46049,7 +46016,7 @@
       <c r="H101" s="38"/>
       <c r="I101" s="38"/>
       <c r="J101" s="38"/>
-      <c r="K101" s="58"/>
+      <c r="K101" s="56"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="38"/>
@@ -46062,7 +46029,7 @@
       <c r="H102" s="38"/>
       <c r="I102" s="38"/>
       <c r="J102" s="38"/>
-      <c r="K102" s="58"/>
+      <c r="K102" s="56"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="38"/>
@@ -46075,7 +46042,7 @@
       <c r="H103" s="38"/>
       <c r="I103" s="38"/>
       <c r="J103" s="38"/>
-      <c r="K103" s="58"/>
+      <c r="K103" s="56"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="38"/>
@@ -46088,7 +46055,7 @@
       <c r="H104" s="38"/>
       <c r="I104" s="38"/>
       <c r="J104" s="38"/>
-      <c r="K104" s="58"/>
+      <c r="K104" s="56"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="38"/>
@@ -46101,7 +46068,7 @@
       <c r="H105" s="38"/>
       <c r="I105" s="38"/>
       <c r="J105" s="38"/>
-      <c r="K105" s="58"/>
+      <c r="K105" s="56"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="38"/>
@@ -46114,7 +46081,7 @@
       <c r="H106" s="38"/>
       <c r="I106" s="38"/>
       <c r="J106" s="38"/>
-      <c r="K106" s="58"/>
+      <c r="K106" s="56"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="38"/>
@@ -46127,7 +46094,7 @@
       <c r="H107" s="38"/>
       <c r="I107" s="38"/>
       <c r="J107" s="38"/>
-      <c r="K107" s="58"/>
+      <c r="K107" s="56"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="38"/>
@@ -46140,7 +46107,7 @@
       <c r="H108" s="38"/>
       <c r="I108" s="38"/>
       <c r="J108" s="38"/>
-      <c r="K108" s="58"/>
+      <c r="K108" s="56"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="38"/>
@@ -46153,7 +46120,7 @@
       <c r="H109" s="38"/>
       <c r="I109" s="38"/>
       <c r="J109" s="38"/>
-      <c r="K109" s="58"/>
+      <c r="K109" s="56"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="38"/>
@@ -46166,7 +46133,7 @@
       <c r="H110" s="38"/>
       <c r="I110" s="38"/>
       <c r="J110" s="38"/>
-      <c r="K110" s="58"/>
+      <c r="K110" s="56"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="38"/>
@@ -46179,7 +46146,7 @@
       <c r="H111" s="38"/>
       <c r="I111" s="38"/>
       <c r="J111" s="38"/>
-      <c r="K111" s="58"/>
+      <c r="K111" s="56"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="38"/>
@@ -46192,7 +46159,7 @@
       <c r="H112" s="38"/>
       <c r="I112" s="38"/>
       <c r="J112" s="38"/>
-      <c r="K112" s="58"/>
+      <c r="K112" s="56"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="38"/>
@@ -46205,7 +46172,7 @@
       <c r="H113" s="38"/>
       <c r="I113" s="38"/>
       <c r="J113" s="38"/>
-      <c r="K113" s="58"/>
+      <c r="K113" s="56"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="38"/>
@@ -46218,7 +46185,7 @@
       <c r="H114" s="38"/>
       <c r="I114" s="38"/>
       <c r="J114" s="38"/>
-      <c r="K114" s="58"/>
+      <c r="K114" s="56"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="38"/>
@@ -46231,7 +46198,7 @@
       <c r="H115" s="38"/>
       <c r="I115" s="38"/>
       <c r="J115" s="38"/>
-      <c r="K115" s="58"/>
+      <c r="K115" s="56"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="38"/>
@@ -46244,7 +46211,7 @@
       <c r="H116" s="38"/>
       <c r="I116" s="38"/>
       <c r="J116" s="38"/>
-      <c r="K116" s="58"/>
+      <c r="K116" s="56"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="38"/>
@@ -46257,7 +46224,7 @@
       <c r="H117" s="38"/>
       <c r="I117" s="38"/>
       <c r="J117" s="38"/>
-      <c r="K117" s="58"/>
+      <c r="K117" s="56"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="38"/>
@@ -46270,7 +46237,7 @@
       <c r="H118" s="38"/>
       <c r="I118" s="38"/>
       <c r="J118" s="38"/>
-      <c r="K118" s="58"/>
+      <c r="K118" s="56"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="38"/>
@@ -46283,7 +46250,7 @@
       <c r="H119" s="38"/>
       <c r="I119" s="38"/>
       <c r="J119" s="38"/>
-      <c r="K119" s="58"/>
+      <c r="K119" s="56"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="38"/>
@@ -46296,7 +46263,7 @@
       <c r="H120" s="38"/>
       <c r="I120" s="38"/>
       <c r="J120" s="38"/>
-      <c r="K120" s="58"/>
+      <c r="K120" s="56"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="38"/>
@@ -46309,7 +46276,7 @@
       <c r="H121" s="38"/>
       <c r="I121" s="38"/>
       <c r="J121" s="38"/>
-      <c r="K121" s="58"/>
+      <c r="K121" s="56"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="38"/>
@@ -46322,7 +46289,7 @@
       <c r="H122" s="38"/>
       <c r="I122" s="38"/>
       <c r="J122" s="38"/>
-      <c r="K122" s="58"/>
+      <c r="K122" s="56"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="38"/>
@@ -46335,7 +46302,7 @@
       <c r="H123" s="38"/>
       <c r="I123" s="38"/>
       <c r="J123" s="38"/>
-      <c r="K123" s="58"/>
+      <c r="K123" s="56"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="38"/>
@@ -46348,7 +46315,7 @@
       <c r="H124" s="38"/>
       <c r="I124" s="38"/>
       <c r="J124" s="38"/>
-      <c r="K124" s="58"/>
+      <c r="K124" s="56"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="38"/>
@@ -46361,7 +46328,7 @@
       <c r="H125" s="38"/>
       <c r="I125" s="38"/>
       <c r="J125" s="38"/>
-      <c r="K125" s="58"/>
+      <c r="K125" s="56"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="38"/>
@@ -46374,7 +46341,7 @@
       <c r="H126" s="38"/>
       <c r="I126" s="38"/>
       <c r="J126" s="38"/>
-      <c r="K126" s="58"/>
+      <c r="K126" s="56"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="38"/>
@@ -46387,7 +46354,7 @@
       <c r="H127" s="38"/>
       <c r="I127" s="38"/>
       <c r="J127" s="38"/>
-      <c r="K127" s="58"/>
+      <c r="K127" s="56"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="38"/>
@@ -46400,7 +46367,7 @@
       <c r="H128" s="38"/>
       <c r="I128" s="38"/>
       <c r="J128" s="38"/>
-      <c r="K128" s="58"/>
+      <c r="K128" s="56"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="38"/>
@@ -46413,7 +46380,7 @@
       <c r="H129" s="38"/>
       <c r="I129" s="38"/>
       <c r="J129" s="38"/>
-      <c r="K129" s="58"/>
+      <c r="K129" s="56"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="38"/>
@@ -46426,7 +46393,7 @@
       <c r="H130" s="38"/>
       <c r="I130" s="38"/>
       <c r="J130" s="38"/>
-      <c r="K130" s="58"/>
+      <c r="K130" s="56"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="38"/>
@@ -46439,7 +46406,7 @@
       <c r="H131" s="38"/>
       <c r="I131" s="38"/>
       <c r="J131" s="38"/>
-      <c r="K131" s="58"/>
+      <c r="K131" s="56"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="38"/>
@@ -46452,7 +46419,7 @@
       <c r="H132" s="38"/>
       <c r="I132" s="38"/>
       <c r="J132" s="38"/>
-      <c r="K132" s="58"/>
+      <c r="K132" s="56"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="38"/>
@@ -46465,7 +46432,7 @@
       <c r="H133" s="38"/>
       <c r="I133" s="38"/>
       <c r="J133" s="38"/>
-      <c r="K133" s="58"/>
+      <c r="K133" s="56"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="38"/>
@@ -46478,7 +46445,7 @@
       <c r="H134" s="38"/>
       <c r="I134" s="38"/>
       <c r="J134" s="38"/>
-      <c r="K134" s="58"/>
+      <c r="K134" s="56"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="38"/>
@@ -46491,7 +46458,7 @@
       <c r="H135" s="38"/>
       <c r="I135" s="38"/>
       <c r="J135" s="38"/>
-      <c r="K135" s="58"/>
+      <c r="K135" s="56"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="38"/>
@@ -46504,7 +46471,7 @@
       <c r="H136" s="38"/>
       <c r="I136" s="38"/>
       <c r="J136" s="38"/>
-      <c r="K136" s="58"/>
+      <c r="K136" s="56"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="38"/>
@@ -46517,7 +46484,7 @@
       <c r="H137" s="38"/>
       <c r="I137" s="38"/>
       <c r="J137" s="38"/>
-      <c r="K137" s="58"/>
+      <c r="K137" s="56"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="38"/>
@@ -46530,7 +46497,7 @@
       <c r="H138" s="38"/>
       <c r="I138" s="38"/>
       <c r="J138" s="38"/>
-      <c r="K138" s="58"/>
+      <c r="K138" s="56"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="38"/>
@@ -46543,7 +46510,7 @@
       <c r="H139" s="38"/>
       <c r="I139" s="38"/>
       <c r="J139" s="38"/>
-      <c r="K139" s="58"/>
+      <c r="K139" s="56"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="38"/>
@@ -46556,7 +46523,7 @@
       <c r="H140" s="38"/>
       <c r="I140" s="38"/>
       <c r="J140" s="38"/>
-      <c r="K140" s="58"/>
+      <c r="K140" s="56"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="38"/>
@@ -46569,7 +46536,7 @@
       <c r="H141" s="38"/>
       <c r="I141" s="38"/>
       <c r="J141" s="38"/>
-      <c r="K141" s="58"/>
+      <c r="K141" s="56"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="38"/>
@@ -46582,7 +46549,7 @@
       <c r="H142" s="38"/>
       <c r="I142" s="38"/>
       <c r="J142" s="38"/>
-      <c r="K142" s="58"/>
+      <c r="K142" s="56"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="38"/>
@@ -46595,7 +46562,7 @@
       <c r="H143" s="38"/>
       <c r="I143" s="38"/>
       <c r="J143" s="38"/>
-      <c r="K143" s="58"/>
+      <c r="K143" s="56"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="38"/>
@@ -46608,7 +46575,7 @@
       <c r="H144" s="38"/>
       <c r="I144" s="38"/>
       <c r="J144" s="38"/>
-      <c r="K144" s="58"/>
+      <c r="K144" s="56"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="38"/>
@@ -46621,7 +46588,7 @@
       <c r="H145" s="38"/>
       <c r="I145" s="38"/>
       <c r="J145" s="38"/>
-      <c r="K145" s="58"/>
+      <c r="K145" s="56"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="38"/>
@@ -46634,7 +46601,7 @@
       <c r="H146" s="38"/>
       <c r="I146" s="38"/>
       <c r="J146" s="38"/>
-      <c r="K146" s="58"/>
+      <c r="K146" s="56"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="38"/>
@@ -46647,7 +46614,7 @@
       <c r="H147" s="38"/>
       <c r="I147" s="38"/>
       <c r="J147" s="38"/>
-      <c r="K147" s="58"/>
+      <c r="K147" s="56"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="38"/>
@@ -46660,7 +46627,7 @@
       <c r="H148" s="38"/>
       <c r="I148" s="38"/>
       <c r="J148" s="38"/>
-      <c r="K148" s="58"/>
+      <c r="K148" s="56"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="38"/>
@@ -46673,7 +46640,7 @@
       <c r="H149" s="38"/>
       <c r="I149" s="38"/>
       <c r="J149" s="38"/>
-      <c r="K149" s="58"/>
+      <c r="K149" s="56"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="38"/>
@@ -46686,7 +46653,7 @@
       <c r="H150" s="38"/>
       <c r="I150" s="38"/>
       <c r="J150" s="38"/>
-      <c r="K150" s="58"/>
+      <c r="K150" s="56"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="38"/>
@@ -46699,7 +46666,7 @@
       <c r="H151" s="38"/>
       <c r="I151" s="38"/>
       <c r="J151" s="38"/>
-      <c r="K151" s="58"/>
+      <c r="K151" s="56"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="38"/>
@@ -46712,7 +46679,7 @@
       <c r="H152" s="38"/>
       <c r="I152" s="38"/>
       <c r="J152" s="38"/>
-      <c r="K152" s="58"/>
+      <c r="K152" s="56"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="38"/>
@@ -46725,7 +46692,7 @@
       <c r="H153" s="38"/>
       <c r="I153" s="38"/>
       <c r="J153" s="38"/>
-      <c r="K153" s="58"/>
+      <c r="K153" s="56"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="38"/>
@@ -46738,7 +46705,7 @@
       <c r="H154" s="38"/>
       <c r="I154" s="38"/>
       <c r="J154" s="38"/>
-      <c r="K154" s="58"/>
+      <c r="K154" s="56"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="38"/>
@@ -46751,7 +46718,7 @@
       <c r="H155" s="38"/>
       <c r="I155" s="38"/>
       <c r="J155" s="38"/>
-      <c r="K155" s="58"/>
+      <c r="K155" s="56"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="38"/>
@@ -46764,7 +46731,7 @@
       <c r="H156" s="38"/>
       <c r="I156" s="38"/>
       <c r="J156" s="38"/>
-      <c r="K156" s="58"/>
+      <c r="K156" s="56"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="38"/>
@@ -46777,7 +46744,7 @@
       <c r="H157" s="38"/>
       <c r="I157" s="38"/>
       <c r="J157" s="38"/>
-      <c r="K157" s="58"/>
+      <c r="K157" s="56"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="38"/>
@@ -46790,7 +46757,7 @@
       <c r="H158" s="38"/>
       <c r="I158" s="38"/>
       <c r="J158" s="38"/>
-      <c r="K158" s="58"/>
+      <c r="K158" s="56"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="38"/>
@@ -46803,7 +46770,7 @@
       <c r="H159" s="38"/>
       <c r="I159" s="38"/>
       <c r="J159" s="38"/>
-      <c r="K159" s="58"/>
+      <c r="K159" s="56"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="38"/>
@@ -46816,7 +46783,7 @@
       <c r="H160" s="38"/>
       <c r="I160" s="38"/>
       <c r="J160" s="38"/>
-      <c r="K160" s="58"/>
+      <c r="K160" s="56"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="38"/>
@@ -46829,7 +46796,7 @@
       <c r="H161" s="38"/>
       <c r="I161" s="38"/>
       <c r="J161" s="38"/>
-      <c r="K161" s="58"/>
+      <c r="K161" s="56"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="38"/>
@@ -46842,7 +46809,7 @@
       <c r="H162" s="38"/>
       <c r="I162" s="38"/>
       <c r="J162" s="38"/>
-      <c r="K162" s="58"/>
+      <c r="K162" s="56"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="38"/>
@@ -46855,7 +46822,7 @@
       <c r="H163" s="38"/>
       <c r="I163" s="38"/>
       <c r="J163" s="38"/>
-      <c r="K163" s="58"/>
+      <c r="K163" s="56"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="38"/>
@@ -46868,7 +46835,7 @@
       <c r="H164" s="38"/>
       <c r="I164" s="38"/>
       <c r="J164" s="38"/>
-      <c r="K164" s="58"/>
+      <c r="K164" s="56"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="38"/>
@@ -46881,7 +46848,7 @@
       <c r="H165" s="38"/>
       <c r="I165" s="38"/>
       <c r="J165" s="38"/>
-      <c r="K165" s="58"/>
+      <c r="K165" s="56"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="38"/>
@@ -46894,7 +46861,7 @@
       <c r="H166" s="38"/>
       <c r="I166" s="38"/>
       <c r="J166" s="38"/>
-      <c r="K166" s="58"/>
+      <c r="K166" s="56"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="38"/>
@@ -46907,7 +46874,7 @@
       <c r="H167" s="38"/>
       <c r="I167" s="38"/>
       <c r="J167" s="38"/>
-      <c r="K167" s="58"/>
+      <c r="K167" s="56"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="38"/>
@@ -46920,7 +46887,7 @@
       <c r="H168" s="38"/>
       <c r="I168" s="38"/>
       <c r="J168" s="38"/>
-      <c r="K168" s="58"/>
+      <c r="K168" s="56"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="38"/>
@@ -46933,7 +46900,7 @@
       <c r="H169" s="38"/>
       <c r="I169" s="38"/>
       <c r="J169" s="38"/>
-      <c r="K169" s="58"/>
+      <c r="K169" s="56"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="38"/>
@@ -46946,7 +46913,7 @@
       <c r="H170" s="38"/>
       <c r="I170" s="38"/>
       <c r="J170" s="38"/>
-      <c r="K170" s="58"/>
+      <c r="K170" s="56"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="38"/>
@@ -46959,7 +46926,7 @@
       <c r="H171" s="38"/>
       <c r="I171" s="38"/>
       <c r="J171" s="38"/>
-      <c r="K171" s="58"/>
+      <c r="K171" s="56"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="38"/>
@@ -46972,7 +46939,7 @@
       <c r="H172" s="38"/>
       <c r="I172" s="38"/>
       <c r="J172" s="38"/>
-      <c r="K172" s="58"/>
+      <c r="K172" s="56"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="38"/>
@@ -46985,7 +46952,7 @@
       <c r="H173" s="38"/>
       <c r="I173" s="38"/>
       <c r="J173" s="38"/>
-      <c r="K173" s="58"/>
+      <c r="K173" s="56"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="38"/>
@@ -46998,7 +46965,7 @@
       <c r="H174" s="38"/>
       <c r="I174" s="38"/>
       <c r="J174" s="38"/>
-      <c r="K174" s="58"/>
+      <c r="K174" s="56"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="38"/>
@@ -47011,7 +46978,7 @@
       <c r="H175" s="38"/>
       <c r="I175" s="38"/>
       <c r="J175" s="38"/>
-      <c r="K175" s="58"/>
+      <c r="K175" s="56"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="38"/>
@@ -47024,7 +46991,7 @@
       <c r="H176" s="38"/>
       <c r="I176" s="38"/>
       <c r="J176" s="38"/>
-      <c r="K176" s="58"/>
+      <c r="K176" s="56"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="38"/>
@@ -47037,7 +47004,7 @@
       <c r="H177" s="38"/>
       <c r="I177" s="38"/>
       <c r="J177" s="38"/>
-      <c r="K177" s="58"/>
+      <c r="K177" s="56"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="38"/>
@@ -47050,7 +47017,7 @@
       <c r="H178" s="38"/>
       <c r="I178" s="38"/>
       <c r="J178" s="38"/>
-      <c r="K178" s="58"/>
+      <c r="K178" s="56"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="38"/>
@@ -47063,7 +47030,7 @@
       <c r="H179" s="38"/>
       <c r="I179" s="38"/>
       <c r="J179" s="38"/>
-      <c r="K179" s="58"/>
+      <c r="K179" s="56"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="38"/>
@@ -47076,7 +47043,7 @@
       <c r="H180" s="38"/>
       <c r="I180" s="38"/>
       <c r="J180" s="38"/>
-      <c r="K180" s="58"/>
+      <c r="K180" s="56"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="38"/>
@@ -47089,7 +47056,7 @@
       <c r="H181" s="38"/>
       <c r="I181" s="38"/>
       <c r="J181" s="38"/>
-      <c r="K181" s="58"/>
+      <c r="K181" s="56"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="38"/>
@@ -47102,7 +47069,7 @@
       <c r="H182" s="38"/>
       <c r="I182" s="38"/>
       <c r="J182" s="38"/>
-      <c r="K182" s="58"/>
+      <c r="K182" s="56"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="38"/>
@@ -47115,7 +47082,7 @@
       <c r="H183" s="38"/>
       <c r="I183" s="38"/>
       <c r="J183" s="38"/>
-      <c r="K183" s="58"/>
+      <c r="K183" s="56"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="38"/>
@@ -47128,7 +47095,7 @@
       <c r="H184" s="38"/>
       <c r="I184" s="38"/>
       <c r="J184" s="38"/>
-      <c r="K184" s="58"/>
+      <c r="K184" s="56"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="38"/>
@@ -47141,7 +47108,7 @@
       <c r="H185" s="38"/>
       <c r="I185" s="38"/>
       <c r="J185" s="38"/>
-      <c r="K185" s="58"/>
+      <c r="K185" s="56"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="38"/>
@@ -47154,7 +47121,7 @@
       <c r="H186" s="38"/>
       <c r="I186" s="38"/>
       <c r="J186" s="38"/>
-      <c r="K186" s="58"/>
+      <c r="K186" s="56"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="38"/>
@@ -47167,7 +47134,7 @@
       <c r="H187" s="38"/>
       <c r="I187" s="38"/>
       <c r="J187" s="38"/>
-      <c r="K187" s="58"/>
+      <c r="K187" s="56"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="38"/>
@@ -47180,7 +47147,7 @@
       <c r="H188" s="38"/>
       <c r="I188" s="38"/>
       <c r="J188" s="38"/>
-      <c r="K188" s="58"/>
+      <c r="K188" s="56"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="38"/>
@@ -47193,7 +47160,7 @@
       <c r="H189" s="38"/>
       <c r="I189" s="38"/>
       <c r="J189" s="38"/>
-      <c r="K189" s="58"/>
+      <c r="K189" s="56"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="38"/>
@@ -47206,7 +47173,7 @@
       <c r="H190" s="38"/>
       <c r="I190" s="38"/>
       <c r="J190" s="38"/>
-      <c r="K190" s="58"/>
+      <c r="K190" s="56"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="38"/>
@@ -47219,7 +47186,7 @@
       <c r="H191" s="38"/>
       <c r="I191" s="38"/>
       <c r="J191" s="38"/>
-      <c r="K191" s="58"/>
+      <c r="K191" s="56"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="38"/>
@@ -47232,7 +47199,7 @@
       <c r="H192" s="38"/>
       <c r="I192" s="38"/>
       <c r="J192" s="38"/>
-      <c r="K192" s="58"/>
+      <c r="K192" s="56"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="38"/>
@@ -47245,7 +47212,7 @@
       <c r="H193" s="38"/>
       <c r="I193" s="38"/>
       <c r="J193" s="38"/>
-      <c r="K193" s="58"/>
+      <c r="K193" s="56"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="38"/>
@@ -47258,7 +47225,7 @@
       <c r="H194" s="38"/>
       <c r="I194" s="38"/>
       <c r="J194" s="38"/>
-      <c r="K194" s="58"/>
+      <c r="K194" s="56"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="38"/>
@@ -47271,7 +47238,7 @@
       <c r="H195" s="38"/>
       <c r="I195" s="38"/>
       <c r="J195" s="38"/>
-      <c r="K195" s="58"/>
+      <c r="K195" s="56"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="38"/>
@@ -47284,7 +47251,7 @@
       <c r="H196" s="38"/>
       <c r="I196" s="38"/>
       <c r="J196" s="38"/>
-      <c r="K196" s="58"/>
+      <c r="K196" s="56"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="38"/>
@@ -47297,7 +47264,7 @@
       <c r="H197" s="38"/>
       <c r="I197" s="38"/>
       <c r="J197" s="38"/>
-      <c r="K197" s="58"/>
+      <c r="K197" s="56"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="38"/>
@@ -47310,7 +47277,7 @@
       <c r="H198" s="38"/>
       <c r="I198" s="38"/>
       <c r="J198" s="38"/>
-      <c r="K198" s="58"/>
+      <c r="K198" s="56"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="38"/>
@@ -47323,7 +47290,7 @@
       <c r="H199" s="38"/>
       <c r="I199" s="38"/>
       <c r="J199" s="38"/>
-      <c r="K199" s="58"/>
+      <c r="K199" s="56"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="38"/>
@@ -47336,7 +47303,7 @@
       <c r="H200" s="38"/>
       <c r="I200" s="38"/>
       <c r="J200" s="38"/>
-      <c r="K200" s="58"/>
+      <c r="K200" s="56"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="38"/>
@@ -47349,7 +47316,7 @@
       <c r="H201" s="38"/>
       <c r="I201" s="38"/>
       <c r="J201" s="38"/>
-      <c r="K201" s="58"/>
+      <c r="K201" s="56"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="38"/>
@@ -47362,7 +47329,7 @@
       <c r="H202" s="38"/>
       <c r="I202" s="38"/>
       <c r="J202" s="38"/>
-      <c r="K202" s="58"/>
+      <c r="K202" s="56"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="38"/>
@@ -47375,7 +47342,7 @@
       <c r="H203" s="38"/>
       <c r="I203" s="38"/>
       <c r="J203" s="38"/>
-      <c r="K203" s="58"/>
+      <c r="K203" s="56"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="38"/>
@@ -47388,7 +47355,7 @@
       <c r="H204" s="38"/>
       <c r="I204" s="38"/>
       <c r="J204" s="38"/>
-      <c r="K204" s="58"/>
+      <c r="K204" s="56"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="38"/>
@@ -47401,7 +47368,7 @@
       <c r="H205" s="38"/>
       <c r="I205" s="38"/>
       <c r="J205" s="38"/>
-      <c r="K205" s="58"/>
+      <c r="K205" s="56"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="38"/>
@@ -47414,7 +47381,7 @@
       <c r="H206" s="38"/>
       <c r="I206" s="38"/>
       <c r="J206" s="38"/>
-      <c r="K206" s="58"/>
+      <c r="K206" s="56"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="38"/>
@@ -47427,7 +47394,7 @@
       <c r="H207" s="38"/>
       <c r="I207" s="38"/>
       <c r="J207" s="38"/>
-      <c r="K207" s="58"/>
+      <c r="K207" s="56"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="38"/>
@@ -47440,7 +47407,7 @@
       <c r="H208" s="38"/>
       <c r="I208" s="38"/>
       <c r="J208" s="38"/>
-      <c r="K208" s="58"/>
+      <c r="K208" s="56"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="38"/>
@@ -47453,7 +47420,7 @@
       <c r="H209" s="38"/>
       <c r="I209" s="38"/>
       <c r="J209" s="38"/>
-      <c r="K209" s="58"/>
+      <c r="K209" s="56"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="38"/>
@@ -47466,7 +47433,7 @@
       <c r="H210" s="38"/>
       <c r="I210" s="38"/>
       <c r="J210" s="38"/>
-      <c r="K210" s="58"/>
+      <c r="K210" s="56"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="38"/>
@@ -47479,7 +47446,7 @@
       <c r="H211" s="38"/>
       <c r="I211" s="38"/>
       <c r="J211" s="38"/>
-      <c r="K211" s="58"/>
+      <c r="K211" s="56"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="38"/>
@@ -47492,7 +47459,7 @@
       <c r="H212" s="38"/>
       <c r="I212" s="38"/>
       <c r="J212" s="38"/>
-      <c r="K212" s="58"/>
+      <c r="K212" s="56"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="38"/>
@@ -47505,7 +47472,7 @@
       <c r="H213" s="38"/>
       <c r="I213" s="38"/>
       <c r="J213" s="38"/>
-      <c r="K213" s="58"/>
+      <c r="K213" s="56"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="38"/>
@@ -47518,7 +47485,7 @@
       <c r="H214" s="38"/>
       <c r="I214" s="38"/>
       <c r="J214" s="38"/>
-      <c r="K214" s="58"/>
+      <c r="K214" s="56"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="38"/>
@@ -47531,7 +47498,7 @@
       <c r="H215" s="38"/>
       <c r="I215" s="38"/>
       <c r="J215" s="38"/>
-      <c r="K215" s="58"/>
+      <c r="K215" s="56"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="38"/>
@@ -47544,7 +47511,7 @@
       <c r="H216" s="38"/>
       <c r="I216" s="38"/>
       <c r="J216" s="38"/>
-      <c r="K216" s="58"/>
+      <c r="K216" s="56"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="38"/>
@@ -47557,7 +47524,7 @@
       <c r="H217" s="38"/>
       <c r="I217" s="38"/>
       <c r="J217" s="38"/>
-      <c r="K217" s="58"/>
+      <c r="K217" s="56"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="38"/>
@@ -47570,7 +47537,7 @@
       <c r="H218" s="38"/>
       <c r="I218" s="38"/>
       <c r="J218" s="38"/>
-      <c r="K218" s="58"/>
+      <c r="K218" s="56"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="38"/>
@@ -47583,7 +47550,7 @@
       <c r="H219" s="38"/>
       <c r="I219" s="38"/>
       <c r="J219" s="38"/>
-      <c r="K219" s="58"/>
+      <c r="K219" s="56"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="38"/>
@@ -47596,7 +47563,7 @@
       <c r="H220" s="38"/>
       <c r="I220" s="38"/>
       <c r="J220" s="38"/>
-      <c r="K220" s="58"/>
+      <c r="K220" s="56"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="38"/>
@@ -47609,7 +47576,7 @@
       <c r="H221" s="38"/>
       <c r="I221" s="38"/>
       <c r="J221" s="38"/>
-      <c r="K221" s="58"/>
+      <c r="K221" s="56"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="38"/>
@@ -47622,7 +47589,7 @@
       <c r="H222" s="38"/>
       <c r="I222" s="38"/>
       <c r="J222" s="38"/>
-      <c r="K222" s="58"/>
+      <c r="K222" s="56"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="38"/>
@@ -47635,7 +47602,7 @@
       <c r="H223" s="38"/>
       <c r="I223" s="38"/>
       <c r="J223" s="38"/>
-      <c r="K223" s="58"/>
+      <c r="K223" s="56"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="38"/>
@@ -47648,7 +47615,7 @@
       <c r="H224" s="38"/>
       <c r="I224" s="38"/>
       <c r="J224" s="38"/>
-      <c r="K224" s="58"/>
+      <c r="K224" s="56"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="38"/>
@@ -47661,7 +47628,7 @@
       <c r="H225" s="38"/>
       <c r="I225" s="38"/>
       <c r="J225" s="38"/>
-      <c r="K225" s="58"/>
+      <c r="K225" s="56"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="38"/>
@@ -47674,7 +47641,7 @@
       <c r="H226" s="38"/>
       <c r="I226" s="38"/>
       <c r="J226" s="38"/>
-      <c r="K226" s="58"/>
+      <c r="K226" s="56"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="38"/>
@@ -47687,7 +47654,7 @@
       <c r="H227" s="38"/>
       <c r="I227" s="38"/>
       <c r="J227" s="38"/>
-      <c r="K227" s="58"/>
+      <c r="K227" s="56"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="38"/>
@@ -47700,7 +47667,7 @@
       <c r="H228" s="38"/>
       <c r="I228" s="38"/>
       <c r="J228" s="38"/>
-      <c r="K228" s="58"/>
+      <c r="K228" s="56"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="38"/>
@@ -47713,7 +47680,7 @@
       <c r="H229" s="38"/>
       <c r="I229" s="38"/>
       <c r="J229" s="38"/>
-      <c r="K229" s="58"/>
+      <c r="K229" s="56"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="38"/>
@@ -47726,7 +47693,7 @@
       <c r="H230" s="38"/>
       <c r="I230" s="38"/>
       <c r="J230" s="38"/>
-      <c r="K230" s="58"/>
+      <c r="K230" s="56"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="38"/>
@@ -47739,7 +47706,7 @@
       <c r="H231" s="38"/>
       <c r="I231" s="38"/>
       <c r="J231" s="38"/>
-      <c r="K231" s="58"/>
+      <c r="K231" s="56"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="38"/>
@@ -47752,7 +47719,7 @@
       <c r="H232" s="38"/>
       <c r="I232" s="38"/>
       <c r="J232" s="38"/>
-      <c r="K232" s="58"/>
+      <c r="K232" s="56"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="38"/>
@@ -47765,7 +47732,7 @@
       <c r="H233" s="38"/>
       <c r="I233" s="38"/>
       <c r="J233" s="38"/>
-      <c r="K233" s="58"/>
+      <c r="K233" s="56"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="38"/>
@@ -47778,7 +47745,7 @@
       <c r="H234" s="38"/>
       <c r="I234" s="38"/>
       <c r="J234" s="38"/>
-      <c r="K234" s="58"/>
+      <c r="K234" s="56"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="38"/>
@@ -47791,7 +47758,7 @@
       <c r="H235" s="38"/>
       <c r="I235" s="38"/>
       <c r="J235" s="38"/>
-      <c r="K235" s="58"/>
+      <c r="K235" s="56"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="38"/>
@@ -47804,7 +47771,7 @@
       <c r="H236" s="38"/>
       <c r="I236" s="38"/>
       <c r="J236" s="38"/>
-      <c r="K236" s="58"/>
+      <c r="K236" s="56"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="38"/>
@@ -47817,7 +47784,7 @@
       <c r="H237" s="38"/>
       <c r="I237" s="38"/>
       <c r="J237" s="38"/>
-      <c r="K237" s="58"/>
+      <c r="K237" s="56"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="38"/>
@@ -47830,7 +47797,7 @@
       <c r="H238" s="38"/>
       <c r="I238" s="38"/>
       <c r="J238" s="38"/>
-      <c r="K238" s="58"/>
+      <c r="K238" s="56"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="38"/>
@@ -47843,7 +47810,7 @@
       <c r="H239" s="38"/>
       <c r="I239" s="38"/>
       <c r="J239" s="38"/>
-      <c r="K239" s="58"/>
+      <c r="K239" s="56"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="38"/>
@@ -47856,7 +47823,7 @@
       <c r="H240" s="38"/>
       <c r="I240" s="38"/>
       <c r="J240" s="38"/>
-      <c r="K240" s="58"/>
+      <c r="K240" s="56"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="38"/>
@@ -47869,7 +47836,7 @@
       <c r="H241" s="38"/>
       <c r="I241" s="38"/>
       <c r="J241" s="38"/>
-      <c r="K241" s="58"/>
+      <c r="K241" s="56"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="38"/>
@@ -47882,7 +47849,7 @@
       <c r="H242" s="38"/>
       <c r="I242" s="38"/>
       <c r="J242" s="38"/>
-      <c r="K242" s="58"/>
+      <c r="K242" s="56"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="38"/>
@@ -47895,7 +47862,7 @@
       <c r="H243" s="38"/>
       <c r="I243" s="38"/>
       <c r="J243" s="38"/>
-      <c r="K243" s="58"/>
+      <c r="K243" s="56"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="38"/>
@@ -47908,7 +47875,7 @@
       <c r="H244" s="38"/>
       <c r="I244" s="38"/>
       <c r="J244" s="38"/>
-      <c r="K244" s="58"/>
+      <c r="K244" s="56"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="38"/>
@@ -47921,7 +47888,7 @@
       <c r="H245" s="38"/>
       <c r="I245" s="38"/>
       <c r="J245" s="38"/>
-      <c r="K245" s="58"/>
+      <c r="K245" s="56"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="38"/>
@@ -47934,7 +47901,7 @@
       <c r="H246" s="38"/>
       <c r="I246" s="38"/>
       <c r="J246" s="38"/>
-      <c r="K246" s="58"/>
+      <c r="K246" s="56"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="38"/>
@@ -47947,7 +47914,7 @@
       <c r="H247" s="38"/>
       <c r="I247" s="38"/>
       <c r="J247" s="38"/>
-      <c r="K247" s="58"/>
+      <c r="K247" s="56"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="38"/>
@@ -47960,7 +47927,7 @@
       <c r="H248" s="38"/>
       <c r="I248" s="38"/>
       <c r="J248" s="38"/>
-      <c r="K248" s="58"/>
+      <c r="K248" s="56"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="38"/>
@@ -47973,7 +47940,7 @@
       <c r="H249" s="38"/>
       <c r="I249" s="38"/>
       <c r="J249" s="38"/>
-      <c r="K249" s="58"/>
+      <c r="K249" s="56"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="38"/>
@@ -47986,7 +47953,7 @@
       <c r="H250" s="38"/>
       <c r="I250" s="38"/>
       <c r="J250" s="38"/>
-      <c r="K250" s="58"/>
+      <c r="K250" s="56"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="38"/>
@@ -47999,7 +47966,7 @@
       <c r="H251" s="38"/>
       <c r="I251" s="38"/>
       <c r="J251" s="38"/>
-      <c r="K251" s="58"/>
+      <c r="K251" s="56"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="38"/>
@@ -48012,7 +47979,7 @@
       <c r="H252" s="38"/>
       <c r="I252" s="38"/>
       <c r="J252" s="38"/>
-      <c r="K252" s="58"/>
+      <c r="K252" s="56"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="38"/>
@@ -48025,7 +47992,7 @@
       <c r="H253" s="38"/>
       <c r="I253" s="38"/>
       <c r="J253" s="38"/>
-      <c r="K253" s="58"/>
+      <c r="K253" s="56"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="38"/>
@@ -48038,7 +48005,7 @@
       <c r="H254" s="38"/>
       <c r="I254" s="38"/>
       <c r="J254" s="38"/>
-      <c r="K254" s="58"/>
+      <c r="K254" s="56"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="38"/>
@@ -48051,7 +48018,7 @@
       <c r="H255" s="38"/>
       <c r="I255" s="38"/>
       <c r="J255" s="38"/>
-      <c r="K255" s="58"/>
+      <c r="K255" s="56"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="38"/>
@@ -48064,7 +48031,7 @@
       <c r="H256" s="38"/>
       <c r="I256" s="38"/>
       <c r="J256" s="38"/>
-      <c r="K256" s="58"/>
+      <c r="K256" s="56"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="38"/>
@@ -48077,7 +48044,7 @@
       <c r="H257" s="38"/>
       <c r="I257" s="38"/>
       <c r="J257" s="38"/>
-      <c r="K257" s="58"/>
+      <c r="K257" s="56"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="38"/>
@@ -48090,7 +48057,7 @@
       <c r="H258" s="38"/>
       <c r="I258" s="38"/>
       <c r="J258" s="38"/>
-      <c r="K258" s="58"/>
+      <c r="K258" s="56"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="38"/>
@@ -48103,7 +48070,7 @@
       <c r="H259" s="38"/>
       <c r="I259" s="38"/>
       <c r="J259" s="38"/>
-      <c r="K259" s="58"/>
+      <c r="K259" s="56"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="38"/>
@@ -48116,7 +48083,7 @@
       <c r="H260" s="38"/>
       <c r="I260" s="38"/>
       <c r="J260" s="38"/>
-      <c r="K260" s="58"/>
+      <c r="K260" s="56"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="38"/>
@@ -48129,7 +48096,7 @@
       <c r="H261" s="38"/>
       <c r="I261" s="38"/>
       <c r="J261" s="38"/>
-      <c r="K261" s="58"/>
+      <c r="K261" s="56"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="38"/>
@@ -48142,7 +48109,7 @@
       <c r="H262" s="38"/>
       <c r="I262" s="38"/>
       <c r="J262" s="38"/>
-      <c r="K262" s="58"/>
+      <c r="K262" s="56"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="38"/>
@@ -48155,7 +48122,7 @@
       <c r="H263" s="38"/>
       <c r="I263" s="38"/>
       <c r="J263" s="38"/>
-      <c r="K263" s="58"/>
+      <c r="K263" s="56"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="38"/>
@@ -48168,7 +48135,7 @@
       <c r="H264" s="38"/>
       <c r="I264" s="38"/>
       <c r="J264" s="38"/>
-      <c r="K264" s="58"/>
+      <c r="K264" s="56"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="38"/>
@@ -48181,7 +48148,7 @@
       <c r="H265" s="38"/>
       <c r="I265" s="38"/>
       <c r="J265" s="38"/>
-      <c r="K265" s="58"/>
+      <c r="K265" s="56"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="38"/>
@@ -48194,7 +48161,7 @@
       <c r="H266" s="38"/>
       <c r="I266" s="38"/>
       <c r="J266" s="38"/>
-      <c r="K266" s="58"/>
+      <c r="K266" s="56"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="38"/>
@@ -48207,7 +48174,7 @@
       <c r="H267" s="38"/>
       <c r="I267" s="38"/>
       <c r="J267" s="38"/>
-      <c r="K267" s="58"/>
+      <c r="K267" s="56"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="38"/>
@@ -48220,7 +48187,7 @@
       <c r="H268" s="38"/>
       <c r="I268" s="38"/>
       <c r="J268" s="38"/>
-      <c r="K268" s="58"/>
+      <c r="K268" s="56"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="38"/>
@@ -48233,7 +48200,7 @@
       <c r="H269" s="38"/>
       <c r="I269" s="38"/>
       <c r="J269" s="38"/>
-      <c r="K269" s="58"/>
+      <c r="K269" s="56"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="38"/>
@@ -48246,7 +48213,7 @@
       <c r="H270" s="38"/>
       <c r="I270" s="38"/>
       <c r="J270" s="38"/>
-      <c r="K270" s="58"/>
+      <c r="K270" s="56"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="38"/>
@@ -48259,7 +48226,7 @@
       <c r="H271" s="38"/>
       <c r="I271" s="38"/>
       <c r="J271" s="38"/>
-      <c r="K271" s="58"/>
+      <c r="K271" s="56"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="38"/>
@@ -48272,7 +48239,7 @@
       <c r="H272" s="38"/>
       <c r="I272" s="38"/>
       <c r="J272" s="38"/>
-      <c r="K272" s="58"/>
+      <c r="K272" s="56"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="38"/>
@@ -48285,7 +48252,7 @@
       <c r="H273" s="38"/>
       <c r="I273" s="38"/>
       <c r="J273" s="38"/>
-      <c r="K273" s="58"/>
+      <c r="K273" s="56"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="38"/>
@@ -48298,7 +48265,7 @@
       <c r="H274" s="38"/>
       <c r="I274" s="38"/>
       <c r="J274" s="38"/>
-      <c r="K274" s="58"/>
+      <c r="K274" s="56"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="38"/>
@@ -48311,7 +48278,7 @@
       <c r="H275" s="38"/>
       <c r="I275" s="38"/>
       <c r="J275" s="38"/>
-      <c r="K275" s="58"/>
+      <c r="K275" s="56"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="38"/>
@@ -48324,7 +48291,7 @@
       <c r="H276" s="38"/>
       <c r="I276" s="38"/>
       <c r="J276" s="38"/>
-      <c r="K276" s="58"/>
+      <c r="K276" s="56"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="38"/>
@@ -48337,7 +48304,7 @@
       <c r="H277" s="38"/>
       <c r="I277" s="38"/>
       <c r="J277" s="38"/>
-      <c r="K277" s="58"/>
+      <c r="K277" s="56"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="38"/>
@@ -48350,7 +48317,7 @@
       <c r="H278" s="38"/>
       <c r="I278" s="38"/>
       <c r="J278" s="38"/>
-      <c r="K278" s="58"/>
+      <c r="K278" s="56"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="38"/>
@@ -48363,7 +48330,7 @@
       <c r="H279" s="38"/>
       <c r="I279" s="38"/>
       <c r="J279" s="38"/>
-      <c r="K279" s="58"/>
+      <c r="K279" s="56"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="38"/>
@@ -48376,7 +48343,7 @@
       <c r="H280" s="38"/>
       <c r="I280" s="38"/>
       <c r="J280" s="38"/>
-      <c r="K280" s="58"/>
+      <c r="K280" s="56"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="38"/>
@@ -48389,7 +48356,7 @@
       <c r="H281" s="38"/>
       <c r="I281" s="38"/>
       <c r="J281" s="38"/>
-      <c r="K281" s="58"/>
+      <c r="K281" s="56"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="38"/>
@@ -48402,7 +48369,7 @@
       <c r="H282" s="38"/>
       <c r="I282" s="38"/>
       <c r="J282" s="38"/>
-      <c r="K282" s="58"/>
+      <c r="K282" s="56"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="38"/>
@@ -48415,7 +48382,7 @@
       <c r="H283" s="38"/>
       <c r="I283" s="38"/>
       <c r="J283" s="38"/>
-      <c r="K283" s="58"/>
+      <c r="K283" s="56"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="38"/>
@@ -48428,7 +48395,7 @@
       <c r="H284" s="38"/>
       <c r="I284" s="38"/>
       <c r="J284" s="38"/>
-      <c r="K284" s="58"/>
+      <c r="K284" s="56"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="38"/>
@@ -48441,7 +48408,7 @@
       <c r="H285" s="38"/>
       <c r="I285" s="38"/>
       <c r="J285" s="38"/>
-      <c r="K285" s="58"/>
+      <c r="K285" s="56"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="38"/>
@@ -48454,7 +48421,7 @@
       <c r="H286" s="38"/>
       <c r="I286" s="38"/>
       <c r="J286" s="38"/>
-      <c r="K286" s="58"/>
+      <c r="K286" s="56"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="38"/>
@@ -48467,7 +48434,7 @@
       <c r="H287" s="38"/>
       <c r="I287" s="38"/>
       <c r="J287" s="38"/>
-      <c r="K287" s="58"/>
+      <c r="K287" s="56"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="38"/>
@@ -48480,7 +48447,7 @@
       <c r="H288" s="38"/>
       <c r="I288" s="38"/>
       <c r="J288" s="38"/>
-      <c r="K288" s="58"/>
+      <c r="K288" s="56"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="38"/>
@@ -48493,7 +48460,7 @@
       <c r="H289" s="38"/>
       <c r="I289" s="38"/>
       <c r="J289" s="38"/>
-      <c r="K289" s="58"/>
+      <c r="K289" s="56"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="38"/>
@@ -48506,7 +48473,7 @@
       <c r="H290" s="38"/>
       <c r="I290" s="38"/>
       <c r="J290" s="38"/>
-      <c r="K290" s="58"/>
+      <c r="K290" s="56"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="38"/>
@@ -48519,7 +48486,7 @@
       <c r="H291" s="38"/>
       <c r="I291" s="38"/>
       <c r="J291" s="38"/>
-      <c r="K291" s="58"/>
+      <c r="K291" s="56"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="38"/>
@@ -48532,7 +48499,7 @@
       <c r="H292" s="38"/>
       <c r="I292" s="38"/>
       <c r="J292" s="38"/>
-      <c r="K292" s="58"/>
+      <c r="K292" s="56"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="38"/>
@@ -48545,7 +48512,7 @@
       <c r="H293" s="38"/>
       <c r="I293" s="38"/>
       <c r="J293" s="38"/>
-      <c r="K293" s="58"/>
+      <c r="K293" s="56"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="38"/>
@@ -48558,7 +48525,7 @@
       <c r="H294" s="38"/>
       <c r="I294" s="38"/>
       <c r="J294" s="38"/>
-      <c r="K294" s="58"/>
+      <c r="K294" s="56"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="38"/>
@@ -48571,7 +48538,7 @@
       <c r="H295" s="38"/>
       <c r="I295" s="38"/>
       <c r="J295" s="38"/>
-      <c r="K295" s="58"/>
+      <c r="K295" s="56"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="38"/>
@@ -48584,7 +48551,7 @@
       <c r="H296" s="38"/>
       <c r="I296" s="38"/>
       <c r="J296" s="38"/>
-      <c r="K296" s="58"/>
+      <c r="K296" s="56"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="38"/>
@@ -48597,7 +48564,7 @@
       <c r="H297" s="38"/>
       <c r="I297" s="38"/>
       <c r="J297" s="38"/>
-      <c r="K297" s="58"/>
+      <c r="K297" s="56"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="38"/>
@@ -48610,7 +48577,7 @@
       <c r="H298" s="38"/>
       <c r="I298" s="38"/>
       <c r="J298" s="38"/>
-      <c r="K298" s="58"/>
+      <c r="K298" s="56"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="38"/>
@@ -48623,7 +48590,7 @@
       <c r="H299" s="38"/>
       <c r="I299" s="38"/>
       <c r="J299" s="38"/>
-      <c r="K299" s="58"/>
+      <c r="K299" s="56"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="38"/>
@@ -48636,7 +48603,7 @@
       <c r="H300" s="38"/>
       <c r="I300" s="38"/>
       <c r="J300" s="38"/>
-      <c r="K300" s="58"/>
+      <c r="K300" s="56"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="38"/>
@@ -48649,7 +48616,7 @@
       <c r="H301" s="38"/>
       <c r="I301" s="38"/>
       <c r="J301" s="38"/>
-      <c r="K301" s="58"/>
+      <c r="K301" s="56"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="38"/>
@@ -48662,7 +48629,7 @@
       <c r="H302" s="38"/>
       <c r="I302" s="38"/>
       <c r="J302" s="38"/>
-      <c r="K302" s="58"/>
+      <c r="K302" s="56"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="38"/>
@@ -48675,7 +48642,7 @@
       <c r="H303" s="38"/>
       <c r="I303" s="38"/>
       <c r="J303" s="38"/>
-      <c r="K303" s="58"/>
+      <c r="K303" s="56"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="38"/>
@@ -48688,7 +48655,7 @@
       <c r="H304" s="38"/>
       <c r="I304" s="38"/>
       <c r="J304" s="38"/>
-      <c r="K304" s="58"/>
+      <c r="K304" s="56"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="38"/>
@@ -48701,7 +48668,7 @@
       <c r="H305" s="38"/>
       <c r="I305" s="38"/>
       <c r="J305" s="38"/>
-      <c r="K305" s="58"/>
+      <c r="K305" s="56"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="38"/>
@@ -48714,7 +48681,7 @@
       <c r="H306" s="38"/>
       <c r="I306" s="38"/>
       <c r="J306" s="38"/>
-      <c r="K306" s="58"/>
+      <c r="K306" s="56"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="38"/>
@@ -48727,7 +48694,7 @@
       <c r="H307" s="38"/>
       <c r="I307" s="38"/>
       <c r="J307" s="38"/>
-      <c r="K307" s="58"/>
+      <c r="K307" s="56"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="38"/>
@@ -48740,7 +48707,7 @@
       <c r="H308" s="38"/>
       <c r="I308" s="38"/>
       <c r="J308" s="38"/>
-      <c r="K308" s="58"/>
+      <c r="K308" s="56"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="38"/>
@@ -48753,7 +48720,7 @@
       <c r="H309" s="38"/>
       <c r="I309" s="38"/>
       <c r="J309" s="38"/>
-      <c r="K309" s="58"/>
+      <c r="K309" s="56"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="38"/>
@@ -48766,7 +48733,7 @@
       <c r="H310" s="38"/>
       <c r="I310" s="38"/>
       <c r="J310" s="38"/>
-      <c r="K310" s="58"/>
+      <c r="K310" s="56"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="38"/>
@@ -48779,7 +48746,7 @@
       <c r="H311" s="38"/>
       <c r="I311" s="38"/>
       <c r="J311" s="38"/>
-      <c r="K311" s="58"/>
+      <c r="K311" s="56"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="38"/>
@@ -48792,7 +48759,7 @@
       <c r="H312" s="38"/>
       <c r="I312" s="38"/>
       <c r="J312" s="38"/>
-      <c r="K312" s="58"/>
+      <c r="K312" s="56"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="38"/>
@@ -48805,7 +48772,7 @@
       <c r="H313" s="38"/>
       <c r="I313" s="38"/>
       <c r="J313" s="38"/>
-      <c r="K313" s="58"/>
+      <c r="K313" s="56"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="38"/>
@@ -48818,7 +48785,7 @@
       <c r="H314" s="38"/>
       <c r="I314" s="38"/>
       <c r="J314" s="38"/>
-      <c r="K314" s="58"/>
+      <c r="K314" s="56"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="38"/>
@@ -48831,7 +48798,7 @@
       <c r="H315" s="38"/>
       <c r="I315" s="38"/>
       <c r="J315" s="38"/>
-      <c r="K315" s="58"/>
+      <c r="K315" s="56"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="38"/>
@@ -48844,7 +48811,7 @@
       <c r="H316" s="38"/>
       <c r="I316" s="38"/>
       <c r="J316" s="38"/>
-      <c r="K316" s="58"/>
+      <c r="K316" s="56"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="38"/>
@@ -48857,7 +48824,7 @@
       <c r="H317" s="38"/>
       <c r="I317" s="38"/>
       <c r="J317" s="38"/>
-      <c r="K317" s="58"/>
+      <c r="K317" s="56"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="38"/>
@@ -48870,7 +48837,7 @@
       <c r="H318" s="38"/>
       <c r="I318" s="38"/>
       <c r="J318" s="38"/>
-      <c r="K318" s="58"/>
+      <c r="K318" s="56"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="38"/>
@@ -48883,7 +48850,7 @@
       <c r="H319" s="38"/>
       <c r="I319" s="38"/>
       <c r="J319" s="38"/>
-      <c r="K319" s="58"/>
+      <c r="K319" s="56"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="38"/>
@@ -48896,7 +48863,7 @@
       <c r="H320" s="38"/>
       <c r="I320" s="38"/>
       <c r="J320" s="38"/>
-      <c r="K320" s="58"/>
+      <c r="K320" s="56"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="38"/>
@@ -48909,7 +48876,7 @@
       <c r="H321" s="38"/>
       <c r="I321" s="38"/>
       <c r="J321" s="38"/>
-      <c r="K321" s="58"/>
+      <c r="K321" s="56"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="38"/>
@@ -48922,7 +48889,7 @@
       <c r="H322" s="38"/>
       <c r="I322" s="38"/>
       <c r="J322" s="38"/>
-      <c r="K322" s="58"/>
+      <c r="K322" s="56"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="38"/>
@@ -48935,7 +48902,7 @@
       <c r="H323" s="38"/>
       <c r="I323" s="38"/>
       <c r="J323" s="38"/>
-      <c r="K323" s="58"/>
+      <c r="K323" s="56"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="38"/>
@@ -48948,7 +48915,7 @@
       <c r="H324" s="38"/>
       <c r="I324" s="38"/>
       <c r="J324" s="38"/>
-      <c r="K324" s="58"/>
+      <c r="K324" s="56"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="38"/>
@@ -48961,7 +48928,7 @@
       <c r="H325" s="38"/>
       <c r="I325" s="38"/>
       <c r="J325" s="38"/>
-      <c r="K325" s="58"/>
+      <c r="K325" s="56"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="38"/>
@@ -48974,7 +48941,7 @@
       <c r="H326" s="38"/>
       <c r="I326" s="38"/>
       <c r="J326" s="38"/>
-      <c r="K326" s="58"/>
+      <c r="K326" s="56"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="38"/>
@@ -48987,7 +48954,7 @@
       <c r="H327" s="38"/>
       <c r="I327" s="38"/>
       <c r="J327" s="38"/>
-      <c r="K327" s="58"/>
+      <c r="K327" s="56"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="38"/>
@@ -49000,7 +48967,7 @@
       <c r="H328" s="38"/>
       <c r="I328" s="38"/>
       <c r="J328" s="38"/>
-      <c r="K328" s="58"/>
+      <c r="K328" s="56"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="38"/>
@@ -49013,7 +48980,7 @@
       <c r="H329" s="38"/>
       <c r="I329" s="38"/>
       <c r="J329" s="38"/>
-      <c r="K329" s="58"/>
+      <c r="K329" s="56"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="38"/>
@@ -49026,7 +48993,7 @@
       <c r="H330" s="38"/>
       <c r="I330" s="38"/>
       <c r="J330" s="38"/>
-      <c r="K330" s="58"/>
+      <c r="K330" s="56"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="38"/>
@@ -49039,7 +49006,7 @@
       <c r="H331" s="38"/>
       <c r="I331" s="38"/>
       <c r="J331" s="38"/>
-      <c r="K331" s="58"/>
+      <c r="K331" s="56"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="38"/>
@@ -49052,7 +49019,7 @@
       <c r="H332" s="38"/>
       <c r="I332" s="38"/>
       <c r="J332" s="38"/>
-      <c r="K332" s="58"/>
+      <c r="K332" s="56"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="38"/>
@@ -49065,7 +49032,7 @@
       <c r="H333" s="38"/>
       <c r="I333" s="38"/>
       <c r="J333" s="38"/>
-      <c r="K333" s="58"/>
+      <c r="K333" s="56"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="38"/>
@@ -49078,7 +49045,7 @@
       <c r="H334" s="38"/>
       <c r="I334" s="38"/>
       <c r="J334" s="38"/>
-      <c r="K334" s="58"/>
+      <c r="K334" s="56"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="38"/>
@@ -49091,7 +49058,7 @@
       <c r="H335" s="38"/>
       <c r="I335" s="38"/>
       <c r="J335" s="38"/>
-      <c r="K335" s="58"/>
+      <c r="K335" s="56"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="38"/>
@@ -49104,7 +49071,7 @@
       <c r="H336" s="38"/>
       <c r="I336" s="38"/>
       <c r="J336" s="38"/>
-      <c r="K336" s="58"/>
+      <c r="K336" s="56"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="38"/>
@@ -49117,7 +49084,7 @@
       <c r="H337" s="38"/>
       <c r="I337" s="38"/>
       <c r="J337" s="38"/>
-      <c r="K337" s="58"/>
+      <c r="K337" s="56"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="38"/>
@@ -49130,7 +49097,7 @@
       <c r="H338" s="38"/>
       <c r="I338" s="38"/>
       <c r="J338" s="38"/>
-      <c r="K338" s="58"/>
+      <c r="K338" s="56"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="38"/>
@@ -49143,7 +49110,7 @@
       <c r="H339" s="38"/>
       <c r="I339" s="38"/>
       <c r="J339" s="38"/>
-      <c r="K339" s="58"/>
+      <c r="K339" s="56"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="38"/>
@@ -49156,7 +49123,7 @@
       <c r="H340" s="38"/>
       <c r="I340" s="38"/>
       <c r="J340" s="38"/>
-      <c r="K340" s="58"/>
+      <c r="K340" s="56"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="38"/>
@@ -49169,7 +49136,7 @@
       <c r="H341" s="38"/>
       <c r="I341" s="38"/>
       <c r="J341" s="38"/>
-      <c r="K341" s="58"/>
+      <c r="K341" s="56"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="38"/>
@@ -49182,7 +49149,7 @@
       <c r="H342" s="38"/>
       <c r="I342" s="38"/>
       <c r="J342" s="38"/>
-      <c r="K342" s="58"/>
+      <c r="K342" s="56"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="38"/>
@@ -49195,7 +49162,7 @@
       <c r="H343" s="38"/>
       <c r="I343" s="38"/>
       <c r="J343" s="38"/>
-      <c r="K343" s="58"/>
+      <c r="K343" s="56"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="38"/>
@@ -49208,7 +49175,7 @@
       <c r="H344" s="38"/>
       <c r="I344" s="38"/>
       <c r="J344" s="38"/>
-      <c r="K344" s="58"/>
+      <c r="K344" s="56"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="38"/>
@@ -49221,7 +49188,7 @@
       <c r="H345" s="38"/>
       <c r="I345" s="38"/>
       <c r="J345" s="38"/>
-      <c r="K345" s="58"/>
+      <c r="K345" s="56"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="38"/>
@@ -49234,7 +49201,7 @@
       <c r="H346" s="38"/>
       <c r="I346" s="38"/>
       <c r="J346" s="38"/>
-      <c r="K346" s="58"/>
+      <c r="K346" s="56"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="38"/>
@@ -49247,7 +49214,7 @@
       <c r="H347" s="38"/>
       <c r="I347" s="38"/>
       <c r="J347" s="38"/>
-      <c r="K347" s="58"/>
+      <c r="K347" s="56"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="38"/>
@@ -49260,7 +49227,7 @@
       <c r="H348" s="38"/>
       <c r="I348" s="38"/>
       <c r="J348" s="38"/>
-      <c r="K348" s="58"/>
+      <c r="K348" s="56"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="38"/>
@@ -49273,7 +49240,7 @@
       <c r="H349" s="38"/>
       <c r="I349" s="38"/>
       <c r="J349" s="38"/>
-      <c r="K349" s="58"/>
+      <c r="K349" s="56"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="38"/>
@@ -49286,7 +49253,7 @@
       <c r="H350" s="38"/>
       <c r="I350" s="38"/>
       <c r="J350" s="38"/>
-      <c r="K350" s="58"/>
+      <c r="K350" s="56"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="38"/>
@@ -49299,7 +49266,7 @@
       <c r="H351" s="38"/>
       <c r="I351" s="38"/>
       <c r="J351" s="38"/>
-      <c r="K351" s="58"/>
+      <c r="K351" s="56"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="38"/>
@@ -49312,7 +49279,7 @@
       <c r="H352" s="38"/>
       <c r="I352" s="38"/>
       <c r="J352" s="38"/>
-      <c r="K352" s="58"/>
+      <c r="K352" s="56"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="38"/>
@@ -49325,7 +49292,7 @@
       <c r="H353" s="38"/>
       <c r="I353" s="38"/>
       <c r="J353" s="38"/>
-      <c r="K353" s="58"/>
+      <c r="K353" s="56"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="38"/>
@@ -49338,7 +49305,7 @@
       <c r="H354" s="38"/>
       <c r="I354" s="38"/>
       <c r="J354" s="38"/>
-      <c r="K354" s="58"/>
+      <c r="K354" s="56"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="38"/>
@@ -49351,7 +49318,7 @@
       <c r="H355" s="38"/>
       <c r="I355" s="38"/>
       <c r="J355" s="38"/>
-      <c r="K355" s="58"/>
+      <c r="K355" s="56"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="38"/>
@@ -49364,7 +49331,7 @@
       <c r="H356" s="38"/>
       <c r="I356" s="38"/>
       <c r="J356" s="38"/>
-      <c r="K356" s="58"/>
+      <c r="K356" s="56"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="38"/>
@@ -49377,7 +49344,7 @@
       <c r="H357" s="38"/>
       <c r="I357" s="38"/>
       <c r="J357" s="38"/>
-      <c r="K357" s="58"/>
+      <c r="K357" s="56"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="38"/>
@@ -49390,7 +49357,7 @@
       <c r="H358" s="38"/>
       <c r="I358" s="38"/>
       <c r="J358" s="38"/>
-      <c r="K358" s="58"/>
+      <c r="K358" s="56"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="38"/>
@@ -49403,7 +49370,7 @@
       <c r="H359" s="38"/>
       <c r="I359" s="38"/>
       <c r="J359" s="38"/>
-      <c r="K359" s="58"/>
+      <c r="K359" s="56"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="38"/>
@@ -49416,7 +49383,7 @@
       <c r="H360" s="38"/>
       <c r="I360" s="38"/>
       <c r="J360" s="38"/>
-      <c r="K360" s="58"/>
+      <c r="K360" s="56"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="38"/>
@@ -49429,7 +49396,7 @@
       <c r="H361" s="38"/>
       <c r="I361" s="38"/>
       <c r="J361" s="38"/>
-      <c r="K361" s="58"/>
+      <c r="K361" s="56"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="38"/>
@@ -49442,7 +49409,7 @@
       <c r="H362" s="38"/>
       <c r="I362" s="38"/>
       <c r="J362" s="38"/>
-      <c r="K362" s="58"/>
+      <c r="K362" s="56"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="38"/>
@@ -49455,7 +49422,7 @@
       <c r="H363" s="38"/>
       <c r="I363" s="38"/>
       <c r="J363" s="38"/>
-      <c r="K363" s="58"/>
+      <c r="K363" s="56"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="38"/>
@@ -49468,7 +49435,7 @@
       <c r="H364" s="38"/>
       <c r="I364" s="38"/>
       <c r="J364" s="38"/>
-      <c r="K364" s="58"/>
+      <c r="K364" s="56"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="38"/>
@@ -49481,7 +49448,7 @@
       <c r="H365" s="38"/>
       <c r="I365" s="38"/>
       <c r="J365" s="38"/>
-      <c r="K365" s="58"/>
+      <c r="K365" s="56"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="38"/>
@@ -49494,7 +49461,7 @@
       <c r="H366" s="38"/>
       <c r="I366" s="38"/>
       <c r="J366" s="38"/>
-      <c r="K366" s="58"/>
+      <c r="K366" s="56"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="38"/>
@@ -49507,7 +49474,7 @@
       <c r="H367" s="38"/>
       <c r="I367" s="38"/>
       <c r="J367" s="38"/>
-      <c r="K367" s="58"/>
+      <c r="K367" s="56"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="38"/>
@@ -49520,7 +49487,7 @@
       <c r="H368" s="38"/>
       <c r="I368" s="38"/>
       <c r="J368" s="38"/>
-      <c r="K368" s="58"/>
+      <c r="K368" s="56"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="38"/>
@@ -49533,7 +49500,7 @@
       <c r="H369" s="38"/>
       <c r="I369" s="38"/>
       <c r="J369" s="38"/>
-      <c r="K369" s="58"/>
+      <c r="K369" s="56"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="38"/>
@@ -49546,7 +49513,7 @@
       <c r="H370" s="38"/>
       <c r="I370" s="38"/>
       <c r="J370" s="38"/>
-      <c r="K370" s="58"/>
+      <c r="K370" s="56"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="38"/>
@@ -49559,7 +49526,7 @@
       <c r="H371" s="38"/>
       <c r="I371" s="38"/>
       <c r="J371" s="38"/>
-      <c r="K371" s="58"/>
+      <c r="K371" s="56"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="38"/>
@@ -49572,7 +49539,7 @@
       <c r="H372" s="38"/>
       <c r="I372" s="38"/>
       <c r="J372" s="38"/>
-      <c r="K372" s="58"/>
+      <c r="K372" s="56"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="38"/>
@@ -49585,7 +49552,7 @@
       <c r="H373" s="38"/>
       <c r="I373" s="38"/>
       <c r="J373" s="38"/>
-      <c r="K373" s="58"/>
+      <c r="K373" s="56"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="38"/>
@@ -49598,7 +49565,7 @@
       <c r="H374" s="38"/>
       <c r="I374" s="38"/>
       <c r="J374" s="38"/>
-      <c r="K374" s="58"/>
+      <c r="K374" s="56"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="38"/>
@@ -49611,7 +49578,7 @@
       <c r="H375" s="38"/>
       <c r="I375" s="38"/>
       <c r="J375" s="38"/>
-      <c r="K375" s="58"/>
+      <c r="K375" s="56"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="38"/>
@@ -49624,7 +49591,7 @@
       <c r="H376" s="38"/>
       <c r="I376" s="38"/>
       <c r="J376" s="38"/>
-      <c r="K376" s="58"/>
+      <c r="K376" s="56"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="38"/>
@@ -49637,7 +49604,7 @@
       <c r="H377" s="38"/>
       <c r="I377" s="38"/>
       <c r="J377" s="38"/>
-      <c r="K377" s="58"/>
+      <c r="K377" s="56"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="38"/>
@@ -49650,7 +49617,7 @@
       <c r="H378" s="38"/>
       <c r="I378" s="38"/>
       <c r="J378" s="38"/>
-      <c r="K378" s="58"/>
+      <c r="K378" s="56"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="38"/>
@@ -49663,7 +49630,7 @@
       <c r="H379" s="38"/>
       <c r="I379" s="38"/>
       <c r="J379" s="38"/>
-      <c r="K379" s="58"/>
+      <c r="K379" s="56"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="38"/>
@@ -49676,7 +49643,7 @@
       <c r="H380" s="38"/>
       <c r="I380" s="38"/>
       <c r="J380" s="38"/>
-      <c r="K380" s="58"/>
+      <c r="K380" s="56"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="38"/>
@@ -49689,7 +49656,7 @@
       <c r="H381" s="38"/>
       <c r="I381" s="38"/>
       <c r="J381" s="38"/>
-      <c r="K381" s="58"/>
+      <c r="K381" s="56"/>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="38"/>
@@ -49702,7 +49669,7 @@
       <c r="H382" s="38"/>
       <c r="I382" s="38"/>
       <c r="J382" s="38"/>
-      <c r="K382" s="58"/>
+      <c r="K382" s="56"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="38"/>
@@ -49715,7 +49682,7 @@
       <c r="H383" s="38"/>
       <c r="I383" s="38"/>
       <c r="J383" s="38"/>
-      <c r="K383" s="58"/>
+      <c r="K383" s="56"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="38"/>
@@ -49728,7 +49695,7 @@
       <c r="H384" s="38"/>
       <c r="I384" s="38"/>
       <c r="J384" s="38"/>
-      <c r="K384" s="58"/>
+      <c r="K384" s="56"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="38"/>
@@ -49741,7 +49708,7 @@
       <c r="H385" s="38"/>
       <c r="I385" s="38"/>
       <c r="J385" s="38"/>
-      <c r="K385" s="58"/>
+      <c r="K385" s="56"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="38"/>
@@ -49754,7 +49721,7 @@
       <c r="H386" s="38"/>
       <c r="I386" s="38"/>
       <c r="J386" s="38"/>
-      <c r="K386" s="58"/>
+      <c r="K386" s="56"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="38"/>
@@ -49767,7 +49734,7 @@
       <c r="H387" s="38"/>
       <c r="I387" s="38"/>
       <c r="J387" s="38"/>
-      <c r="K387" s="58"/>
+      <c r="K387" s="56"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="38"/>
@@ -49780,7 +49747,7 @@
       <c r="H388" s="38"/>
       <c r="I388" s="38"/>
       <c r="J388" s="38"/>
-      <c r="K388" s="58"/>
+      <c r="K388" s="56"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="38"/>
@@ -49793,7 +49760,7 @@
       <c r="H389" s="38"/>
       <c r="I389" s="38"/>
       <c r="J389" s="38"/>
-      <c r="K389" s="58"/>
+      <c r="K389" s="56"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="38"/>
@@ -49806,7 +49773,7 @@
       <c r="H390" s="38"/>
       <c r="I390" s="38"/>
       <c r="J390" s="38"/>
-      <c r="K390" s="58"/>
+      <c r="K390" s="56"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="38"/>
@@ -49819,7 +49786,7 @@
       <c r="H391" s="38"/>
       <c r="I391" s="38"/>
       <c r="J391" s="38"/>
-      <c r="K391" s="58"/>
+      <c r="K391" s="56"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="38"/>
@@ -49832,7 +49799,7 @@
       <c r="H392" s="38"/>
       <c r="I392" s="38"/>
       <c r="J392" s="38"/>
-      <c r="K392" s="58"/>
+      <c r="K392" s="56"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="38"/>
@@ -49845,7 +49812,7 @@
       <c r="H393" s="38"/>
       <c r="I393" s="38"/>
       <c r="J393" s="38"/>
-      <c r="K393" s="58"/>
+      <c r="K393" s="56"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="38"/>
@@ -49858,7 +49825,7 @@
       <c r="H394" s="38"/>
       <c r="I394" s="38"/>
       <c r="J394" s="38"/>
-      <c r="K394" s="58"/>
+      <c r="K394" s="56"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="38"/>
@@ -49871,7 +49838,7 @@
       <c r="H395" s="38"/>
       <c r="I395" s="38"/>
       <c r="J395" s="38"/>
-      <c r="K395" s="58"/>
+      <c r="K395" s="56"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="38"/>
@@ -49884,7 +49851,7 @@
       <c r="H396" s="38"/>
       <c r="I396" s="38"/>
       <c r="J396" s="38"/>
-      <c r="K396" s="58"/>
+      <c r="K396" s="56"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="38"/>
@@ -49897,7 +49864,7 @@
       <c r="H397" s="38"/>
       <c r="I397" s="38"/>
       <c r="J397" s="38"/>
-      <c r="K397" s="58"/>
+      <c r="K397" s="56"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="38"/>
@@ -49910,7 +49877,7 @@
       <c r="H398" s="38"/>
       <c r="I398" s="38"/>
       <c r="J398" s="38"/>
-      <c r="K398" s="58"/>
+      <c r="K398" s="56"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="38"/>
@@ -49923,7 +49890,7 @@
       <c r="H399" s="38"/>
       <c r="I399" s="38"/>
       <c r="J399" s="38"/>
-      <c r="K399" s="58"/>
+      <c r="K399" s="56"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="38"/>
@@ -49936,7 +49903,7 @@
       <c r="H400" s="38"/>
       <c r="I400" s="38"/>
       <c r="J400" s="38"/>
-      <c r="K400" s="58"/>
+      <c r="K400" s="56"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="38"/>
@@ -49949,7 +49916,7 @@
       <c r="H401" s="38"/>
       <c r="I401" s="38"/>
       <c r="J401" s="38"/>
-      <c r="K401" s="58"/>
+      <c r="K401" s="56"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="38"/>
@@ -49962,7 +49929,7 @@
       <c r="H402" s="38"/>
       <c r="I402" s="38"/>
       <c r="J402" s="38"/>
-      <c r="K402" s="58"/>
+      <c r="K402" s="56"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="38"/>
@@ -49975,7 +49942,7 @@
       <c r="H403" s="38"/>
       <c r="I403" s="38"/>
       <c r="J403" s="38"/>
-      <c r="K403" s="58"/>
+      <c r="K403" s="56"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="38"/>
@@ -49988,7 +49955,7 @@
       <c r="H404" s="38"/>
       <c r="I404" s="38"/>
       <c r="J404" s="38"/>
-      <c r="K404" s="58"/>
+      <c r="K404" s="56"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="38"/>
@@ -50001,7 +49968,7 @@
       <c r="H405" s="38"/>
       <c r="I405" s="38"/>
       <c r="J405" s="38"/>
-      <c r="K405" s="58"/>
+      <c r="K405" s="56"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="38"/>
@@ -50014,7 +49981,7 @@
       <c r="H406" s="38"/>
       <c r="I406" s="38"/>
       <c r="J406" s="38"/>
-      <c r="K406" s="58"/>
+      <c r="K406" s="56"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="38"/>
@@ -50027,7 +49994,7 @@
       <c r="H407" s="38"/>
       <c r="I407" s="38"/>
       <c r="J407" s="38"/>
-      <c r="K407" s="58"/>
+      <c r="K407" s="56"/>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="38"/>
@@ -50040,7 +50007,7 @@
       <c r="H408" s="38"/>
       <c r="I408" s="38"/>
       <c r="J408" s="38"/>
-      <c r="K408" s="58"/>
+      <c r="K408" s="56"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="38"/>
@@ -50053,7 +50020,7 @@
       <c r="H409" s="38"/>
       <c r="I409" s="38"/>
       <c r="J409" s="38"/>
-      <c r="K409" s="58"/>
+      <c r="K409" s="56"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="38"/>
@@ -50066,7 +50033,7 @@
       <c r="H410" s="38"/>
       <c r="I410" s="38"/>
       <c r="J410" s="38"/>
-      <c r="K410" s="58"/>
+      <c r="K410" s="56"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="38"/>
@@ -50079,7 +50046,7 @@
       <c r="H411" s="38"/>
       <c r="I411" s="38"/>
       <c r="J411" s="38"/>
-      <c r="K411" s="58"/>
+      <c r="K411" s="56"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="38"/>
@@ -50092,7 +50059,7 @@
       <c r="H412" s="38"/>
       <c r="I412" s="38"/>
       <c r="J412" s="38"/>
-      <c r="K412" s="58"/>
+      <c r="K412" s="56"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="38"/>
@@ -50105,7 +50072,7 @@
       <c r="H413" s="38"/>
       <c r="I413" s="38"/>
       <c r="J413" s="38"/>
-      <c r="K413" s="58"/>
+      <c r="K413" s="56"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="38"/>
@@ -50118,7 +50085,7 @@
       <c r="H414" s="38"/>
       <c r="I414" s="38"/>
       <c r="J414" s="38"/>
-      <c r="K414" s="58"/>
+      <c r="K414" s="56"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="38"/>
@@ -50131,7 +50098,7 @@
       <c r="H415" s="38"/>
       <c r="I415" s="38"/>
       <c r="J415" s="38"/>
-      <c r="K415" s="58"/>
+      <c r="K415" s="56"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="38"/>
@@ -50144,7 +50111,7 @@
       <c r="H416" s="38"/>
       <c r="I416" s="38"/>
       <c r="J416" s="38"/>
-      <c r="K416" s="58"/>
+      <c r="K416" s="56"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="38"/>
@@ -50157,7 +50124,7 @@
       <c r="H417" s="38"/>
       <c r="I417" s="38"/>
       <c r="J417" s="38"/>
-      <c r="K417" s="58"/>
+      <c r="K417" s="56"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="38"/>
@@ -50170,7 +50137,7 @@
       <c r="H418" s="38"/>
       <c r="I418" s="38"/>
       <c r="J418" s="38"/>
-      <c r="K418" s="58"/>
+      <c r="K418" s="56"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="38"/>
@@ -50183,7 +50150,7 @@
       <c r="H419" s="38"/>
       <c r="I419" s="38"/>
       <c r="J419" s="38"/>
-      <c r="K419" s="58"/>
+      <c r="K419" s="56"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="38"/>
@@ -50196,7 +50163,7 @@
       <c r="H420" s="38"/>
       <c r="I420" s="38"/>
       <c r="J420" s="38"/>
-      <c r="K420" s="58"/>
+      <c r="K420" s="56"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="38"/>
@@ -50209,7 +50176,7 @@
       <c r="H421" s="38"/>
       <c r="I421" s="38"/>
       <c r="J421" s="38"/>
-      <c r="K421" s="58"/>
+      <c r="K421" s="56"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="38"/>
@@ -50222,7 +50189,7 @@
       <c r="H422" s="38"/>
       <c r="I422" s="38"/>
       <c r="J422" s="38"/>
-      <c r="K422" s="58"/>
+      <c r="K422" s="56"/>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="38"/>
@@ -50235,7 +50202,7 @@
       <c r="H423" s="38"/>
       <c r="I423" s="38"/>
       <c r="J423" s="38"/>
-      <c r="K423" s="58"/>
+      <c r="K423" s="56"/>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="38"/>
@@ -50248,7 +50215,7 @@
       <c r="H424" s="38"/>
       <c r="I424" s="38"/>
       <c r="J424" s="38"/>
-      <c r="K424" s="58"/>
+      <c r="K424" s="56"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="38"/>
@@ -50261,7 +50228,7 @@
       <c r="H425" s="38"/>
       <c r="I425" s="38"/>
       <c r="J425" s="38"/>
-      <c r="K425" s="58"/>
+      <c r="K425" s="56"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="38"/>
@@ -50274,7 +50241,7 @@
       <c r="H426" s="38"/>
       <c r="I426" s="38"/>
       <c r="J426" s="38"/>
-      <c r="K426" s="58"/>
+      <c r="K426" s="56"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="38"/>
@@ -50287,7 +50254,7 @@
       <c r="H427" s="38"/>
       <c r="I427" s="38"/>
       <c r="J427" s="38"/>
-      <c r="K427" s="58"/>
+      <c r="K427" s="56"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="38"/>
@@ -50300,7 +50267,7 @@
       <c r="H428" s="38"/>
       <c r="I428" s="38"/>
       <c r="J428" s="38"/>
-      <c r="K428" s="58"/>
+      <c r="K428" s="56"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="38"/>
@@ -50313,7 +50280,7 @@
       <c r="H429" s="38"/>
       <c r="I429" s="38"/>
       <c r="J429" s="38"/>
-      <c r="K429" s="58"/>
+      <c r="K429" s="56"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="38"/>
@@ -50326,7 +50293,7 @@
       <c r="H430" s="38"/>
       <c r="I430" s="38"/>
       <c r="J430" s="38"/>
-      <c r="K430" s="58"/>
+      <c r="K430" s="56"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="38"/>
@@ -50339,7 +50306,7 @@
       <c r="H431" s="38"/>
       <c r="I431" s="38"/>
       <c r="J431" s="38"/>
-      <c r="K431" s="58"/>
+      <c r="K431" s="56"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="38"/>
@@ -50352,7 +50319,7 @@
       <c r="H432" s="38"/>
       <c r="I432" s="38"/>
       <c r="J432" s="38"/>
-      <c r="K432" s="58"/>
+      <c r="K432" s="56"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="38"/>
@@ -50365,7 +50332,7 @@
       <c r="H433" s="38"/>
       <c r="I433" s="38"/>
       <c r="J433" s="38"/>
-      <c r="K433" s="58"/>
+      <c r="K433" s="56"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="38"/>
@@ -50378,7 +50345,7 @@
       <c r="H434" s="38"/>
       <c r="I434" s="38"/>
       <c r="J434" s="38"/>
-      <c r="K434" s="58"/>
+      <c r="K434" s="56"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="38"/>
@@ -50391,7 +50358,7 @@
       <c r="H435" s="38"/>
       <c r="I435" s="38"/>
       <c r="J435" s="38"/>
-      <c r="K435" s="58"/>
+      <c r="K435" s="56"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="38"/>
@@ -50404,7 +50371,7 @@
       <c r="H436" s="38"/>
       <c r="I436" s="38"/>
       <c r="J436" s="38"/>
-      <c r="K436" s="58"/>
+      <c r="K436" s="56"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="38"/>
@@ -50417,7 +50384,7 @@
       <c r="H437" s="38"/>
       <c r="I437" s="38"/>
       <c r="J437" s="38"/>
-      <c r="K437" s="58"/>
+      <c r="K437" s="56"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="38"/>
@@ -50430,7 +50397,7 @@
       <c r="H438" s="38"/>
       <c r="I438" s="38"/>
       <c r="J438" s="38"/>
-      <c r="K438" s="58"/>
+      <c r="K438" s="56"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="38"/>
@@ -50443,7 +50410,7 @@
       <c r="H439" s="38"/>
       <c r="I439" s="38"/>
       <c r="J439" s="38"/>
-      <c r="K439" s="58"/>
+      <c r="K439" s="56"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="38"/>
@@ -50456,7 +50423,7 @@
       <c r="H440" s="38"/>
       <c r="I440" s="38"/>
       <c r="J440" s="38"/>
-      <c r="K440" s="58"/>
+      <c r="K440" s="56"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="38"/>
@@ -50469,7 +50436,7 @@
       <c r="H441" s="38"/>
       <c r="I441" s="38"/>
       <c r="J441" s="38"/>
-      <c r="K441" s="58"/>
+      <c r="K441" s="56"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="38"/>
@@ -50482,7 +50449,7 @@
       <c r="H442" s="38"/>
       <c r="I442" s="38"/>
       <c r="J442" s="38"/>
-      <c r="K442" s="58"/>
+      <c r="K442" s="56"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="38"/>
@@ -50495,7 +50462,7 @@
       <c r="H443" s="38"/>
       <c r="I443" s="38"/>
       <c r="J443" s="38"/>
-      <c r="K443" s="58"/>
+      <c r="K443" s="56"/>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="38"/>
@@ -50508,7 +50475,7 @@
       <c r="H444" s="38"/>
       <c r="I444" s="38"/>
       <c r="J444" s="38"/>
-      <c r="K444" s="58"/>
+      <c r="K444" s="56"/>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="38"/>
@@ -50521,7 +50488,7 @@
       <c r="H445" s="38"/>
       <c r="I445" s="38"/>
       <c r="J445" s="38"/>
-      <c r="K445" s="58"/>
+      <c r="K445" s="56"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="38"/>
@@ -50534,7 +50501,7 @@
       <c r="H446" s="38"/>
       <c r="I446" s="38"/>
       <c r="J446" s="38"/>
-      <c r="K446" s="58"/>
+      <c r="K446" s="56"/>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="38"/>
@@ -50547,7 +50514,7 @@
       <c r="H447" s="38"/>
       <c r="I447" s="38"/>
       <c r="J447" s="38"/>
-      <c r="K447" s="58"/>
+      <c r="K447" s="56"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="38"/>
@@ -50560,7 +50527,7 @@
       <c r="H448" s="38"/>
       <c r="I448" s="38"/>
       <c r="J448" s="38"/>
-      <c r="K448" s="58"/>
+      <c r="K448" s="56"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="38"/>
@@ -50573,7 +50540,7 @@
       <c r="H449" s="38"/>
       <c r="I449" s="38"/>
       <c r="J449" s="38"/>
-      <c r="K449" s="58"/>
+      <c r="K449" s="56"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="38"/>
@@ -50586,7 +50553,7 @@
       <c r="H450" s="38"/>
       <c r="I450" s="38"/>
       <c r="J450" s="38"/>
-      <c r="K450" s="58"/>
+      <c r="K450" s="56"/>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="38"/>
@@ -50599,7 +50566,7 @@
       <c r="H451" s="38"/>
       <c r="I451" s="38"/>
       <c r="J451" s="38"/>
-      <c r="K451" s="58"/>
+      <c r="K451" s="56"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="38"/>
@@ -50612,7 +50579,7 @@
       <c r="H452" s="38"/>
       <c r="I452" s="38"/>
       <c r="J452" s="38"/>
-      <c r="K452" s="58"/>
+      <c r="K452" s="56"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="38"/>
@@ -50625,7 +50592,7 @@
       <c r="H453" s="38"/>
       <c r="I453" s="38"/>
       <c r="J453" s="38"/>
-      <c r="K453" s="58"/>
+      <c r="K453" s="56"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="38"/>
@@ -50638,7 +50605,7 @@
       <c r="H454" s="38"/>
       <c r="I454" s="38"/>
       <c r="J454" s="38"/>
-      <c r="K454" s="58"/>
+      <c r="K454" s="56"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="38"/>
@@ -50651,7 +50618,7 @@
       <c r="H455" s="38"/>
       <c r="I455" s="38"/>
       <c r="J455" s="38"/>
-      <c r="K455" s="58"/>
+      <c r="K455" s="56"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="38"/>
@@ -50664,7 +50631,7 @@
       <c r="H456" s="38"/>
       <c r="I456" s="38"/>
       <c r="J456" s="38"/>
-      <c r="K456" s="58"/>
+      <c r="K456" s="56"/>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="38"/>
@@ -50677,7 +50644,7 @@
       <c r="H457" s="38"/>
       <c r="I457" s="38"/>
       <c r="J457" s="38"/>
-      <c r="K457" s="58"/>
+      <c r="K457" s="56"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="38"/>
@@ -50690,7 +50657,7 @@
       <c r="H458" s="38"/>
       <c r="I458" s="38"/>
       <c r="J458" s="38"/>
-      <c r="K458" s="58"/>
+      <c r="K458" s="56"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="38"/>
@@ -50703,7 +50670,7 @@
       <c r="H459" s="38"/>
       <c r="I459" s="38"/>
       <c r="J459" s="38"/>
-      <c r="K459" s="58"/>
+      <c r="K459" s="56"/>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="38"/>
@@ -50716,7 +50683,7 @@
       <c r="H460" s="38"/>
       <c r="I460" s="38"/>
       <c r="J460" s="38"/>
-      <c r="K460" s="58"/>
+      <c r="K460" s="56"/>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="38"/>
@@ -50729,7 +50696,7 @@
       <c r="H461" s="38"/>
       <c r="I461" s="38"/>
       <c r="J461" s="38"/>
-      <c r="K461" s="58"/>
+      <c r="K461" s="56"/>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="38"/>
@@ -50742,7 +50709,7 @@
       <c r="H462" s="38"/>
       <c r="I462" s="38"/>
       <c r="J462" s="38"/>
-      <c r="K462" s="58"/>
+      <c r="K462" s="56"/>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="38"/>
@@ -50755,7 +50722,7 @@
       <c r="H463" s="38"/>
       <c r="I463" s="38"/>
       <c r="J463" s="38"/>
-      <c r="K463" s="58"/>
+      <c r="K463" s="56"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="38"/>
@@ -50768,7 +50735,7 @@
       <c r="H464" s="38"/>
       <c r="I464" s="38"/>
       <c r="J464" s="38"/>
-      <c r="K464" s="58"/>
+      <c r="K464" s="56"/>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="38"/>
@@ -50781,7 +50748,7 @@
       <c r="H465" s="38"/>
       <c r="I465" s="38"/>
       <c r="J465" s="38"/>
-      <c r="K465" s="58"/>
+      <c r="K465" s="56"/>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="38"/>
@@ -50794,7 +50761,7 @@
       <c r="H466" s="38"/>
       <c r="I466" s="38"/>
       <c r="J466" s="38"/>
-      <c r="K466" s="58"/>
+      <c r="K466" s="56"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="38"/>
@@ -50807,7 +50774,7 @@
       <c r="H467" s="38"/>
       <c r="I467" s="38"/>
       <c r="J467" s="38"/>
-      <c r="K467" s="58"/>
+      <c r="K467" s="56"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="38"/>
@@ -50820,7 +50787,7 @@
       <c r="H468" s="38"/>
       <c r="I468" s="38"/>
       <c r="J468" s="38"/>
-      <c r="K468" s="58"/>
+      <c r="K468" s="56"/>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="38"/>
@@ -50833,7 +50800,7 @@
       <c r="H469" s="38"/>
       <c r="I469" s="38"/>
       <c r="J469" s="38"/>
-      <c r="K469" s="58"/>
+      <c r="K469" s="56"/>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="38"/>
@@ -50846,7 +50813,7 @@
       <c r="H470" s="38"/>
       <c r="I470" s="38"/>
       <c r="J470" s="38"/>
-      <c r="K470" s="58"/>
+      <c r="K470" s="56"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="38"/>
@@ -50859,7 +50826,7 @@
       <c r="H471" s="38"/>
       <c r="I471" s="38"/>
       <c r="J471" s="38"/>
-      <c r="K471" s="58"/>
+      <c r="K471" s="56"/>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="38"/>
@@ -50872,7 +50839,7 @@
       <c r="H472" s="38"/>
       <c r="I472" s="38"/>
       <c r="J472" s="38"/>
-      <c r="K472" s="58"/>
+      <c r="K472" s="56"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="38"/>
@@ -50885,7 +50852,7 @@
       <c r="H473" s="38"/>
       <c r="I473" s="38"/>
       <c r="J473" s="38"/>
-      <c r="K473" s="58"/>
+      <c r="K473" s="56"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="38"/>
@@ -50898,7 +50865,7 @@
       <c r="H474" s="38"/>
       <c r="I474" s="38"/>
       <c r="J474" s="38"/>
-      <c r="K474" s="58"/>
+      <c r="K474" s="56"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="38"/>
@@ -50911,7 +50878,7 @@
       <c r="H475" s="38"/>
       <c r="I475" s="38"/>
       <c r="J475" s="38"/>
-      <c r="K475" s="58"/>
+      <c r="K475" s="56"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="38"/>
@@ -50924,7 +50891,7 @@
       <c r="H476" s="38"/>
       <c r="I476" s="38"/>
       <c r="J476" s="38"/>
-      <c r="K476" s="58"/>
+      <c r="K476" s="56"/>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="38"/>
@@ -50937,7 +50904,7 @@
       <c r="H477" s="38"/>
       <c r="I477" s="38"/>
       <c r="J477" s="38"/>
-      <c r="K477" s="58"/>
+      <c r="K477" s="56"/>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="38"/>
@@ -50950,7 +50917,7 @@
       <c r="H478" s="38"/>
       <c r="I478" s="38"/>
       <c r="J478" s="38"/>
-      <c r="K478" s="58"/>
+      <c r="K478" s="56"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="38"/>
@@ -50963,7 +50930,7 @@
       <c r="H479" s="38"/>
       <c r="I479" s="38"/>
       <c r="J479" s="38"/>
-      <c r="K479" s="58"/>
+      <c r="K479" s="56"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="38"/>
@@ -50976,7 +50943,7 @@
       <c r="H480" s="38"/>
       <c r="I480" s="38"/>
       <c r="J480" s="38"/>
-      <c r="K480" s="58"/>
+      <c r="K480" s="56"/>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="38"/>
@@ -50989,7 +50956,7 @@
       <c r="H481" s="38"/>
       <c r="I481" s="38"/>
       <c r="J481" s="38"/>
-      <c r="K481" s="58"/>
+      <c r="K481" s="56"/>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="38"/>
@@ -51002,7 +50969,7 @@
       <c r="H482" s="38"/>
       <c r="I482" s="38"/>
       <c r="J482" s="38"/>
-      <c r="K482" s="58"/>
+      <c r="K482" s="56"/>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="38"/>
@@ -51015,7 +50982,7 @@
       <c r="H483" s="38"/>
       <c r="I483" s="38"/>
       <c r="J483" s="38"/>
-      <c r="K483" s="58"/>
+      <c r="K483" s="56"/>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="38"/>
@@ -51028,7 +50995,7 @@
       <c r="H484" s="38"/>
       <c r="I484" s="38"/>
       <c r="J484" s="38"/>
-      <c r="K484" s="58"/>
+      <c r="K484" s="56"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="38"/>
@@ -51041,7 +51008,7 @@
       <c r="H485" s="38"/>
       <c r="I485" s="38"/>
       <c r="J485" s="38"/>
-      <c r="K485" s="58"/>
+      <c r="K485" s="56"/>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="38"/>
@@ -51054,7 +51021,7 @@
       <c r="H486" s="38"/>
       <c r="I486" s="38"/>
       <c r="J486" s="38"/>
-      <c r="K486" s="58"/>
+      <c r="K486" s="56"/>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="38"/>
@@ -51067,7 +51034,7 @@
       <c r="H487" s="38"/>
       <c r="I487" s="38"/>
       <c r="J487" s="38"/>
-      <c r="K487" s="58"/>
+      <c r="K487" s="56"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="38"/>
@@ -51080,7 +51047,7 @@
       <c r="H488" s="38"/>
       <c r="I488" s="38"/>
       <c r="J488" s="38"/>
-      <c r="K488" s="58"/>
+      <c r="K488" s="56"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="38"/>
@@ -51093,7 +51060,7 @@
       <c r="H489" s="38"/>
       <c r="I489" s="38"/>
       <c r="J489" s="38"/>
-      <c r="K489" s="58"/>
+      <c r="K489" s="56"/>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="38"/>
@@ -51106,7 +51073,7 @@
       <c r="H490" s="38"/>
       <c r="I490" s="38"/>
       <c r="J490" s="38"/>
-      <c r="K490" s="58"/>
+      <c r="K490" s="56"/>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="38"/>
@@ -51119,7 +51086,7 @@
       <c r="H491" s="38"/>
       <c r="I491" s="38"/>
       <c r="J491" s="38"/>
-      <c r="K491" s="58"/>
+      <c r="K491" s="56"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="38"/>
@@ -51132,7 +51099,7 @@
       <c r="H492" s="38"/>
       <c r="I492" s="38"/>
       <c r="J492" s="38"/>
-      <c r="K492" s="58"/>
+      <c r="K492" s="56"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="38"/>
@@ -51145,7 +51112,7 @@
       <c r="H493" s="38"/>
       <c r="I493" s="38"/>
       <c r="J493" s="38"/>
-      <c r="K493" s="58"/>
+      <c r="K493" s="56"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="38"/>
@@ -51158,7 +51125,7 @@
       <c r="H494" s="38"/>
       <c r="I494" s="38"/>
       <c r="J494" s="38"/>
-      <c r="K494" s="58"/>
+      <c r="K494" s="56"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="38"/>
@@ -51171,7 +51138,7 @@
       <c r="H495" s="38"/>
       <c r="I495" s="38"/>
       <c r="J495" s="38"/>
-      <c r="K495" s="58"/>
+      <c r="K495" s="56"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="38"/>
@@ -51184,7 +51151,7 @@
       <c r="H496" s="38"/>
       <c r="I496" s="38"/>
       <c r="J496" s="38"/>
-      <c r="K496" s="58"/>
+      <c r="K496" s="56"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="38"/>
@@ -51197,7 +51164,7 @@
       <c r="H497" s="38"/>
       <c r="I497" s="38"/>
       <c r="J497" s="38"/>
-      <c r="K497" s="58"/>
+      <c r="K497" s="56"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="38"/>
@@ -51210,7 +51177,7 @@
       <c r="H498" s="38"/>
       <c r="I498" s="38"/>
       <c r="J498" s="38"/>
-      <c r="K498" s="58"/>
+      <c r="K498" s="56"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="38"/>
@@ -51223,7 +51190,7 @@
       <c r="H499" s="38"/>
       <c r="I499" s="38"/>
       <c r="J499" s="38"/>
-      <c r="K499" s="58"/>
+      <c r="K499" s="56"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="38"/>
@@ -51236,7 +51203,7 @@
       <c r="H500" s="38"/>
       <c r="I500" s="38"/>
       <c r="J500" s="38"/>
-      <c r="K500" s="58"/>
+      <c r="K500" s="56"/>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="38"/>
@@ -51249,7 +51216,7 @@
       <c r="H501" s="38"/>
       <c r="I501" s="38"/>
       <c r="J501" s="38"/>
-      <c r="K501" s="58"/>
+      <c r="K501" s="56"/>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="38"/>
@@ -51262,7 +51229,7 @@
       <c r="H502" s="38"/>
       <c r="I502" s="38"/>
       <c r="J502" s="38"/>
-      <c r="K502" s="58"/>
+      <c r="K502" s="56"/>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="38"/>
@@ -51275,7 +51242,7 @@
       <c r="H503" s="38"/>
       <c r="I503" s="38"/>
       <c r="J503" s="38"/>
-      <c r="K503" s="58"/>
+      <c r="K503" s="56"/>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="38"/>
@@ -51288,7 +51255,7 @@
       <c r="H504" s="38"/>
       <c r="I504" s="38"/>
       <c r="J504" s="38"/>
-      <c r="K504" s="58"/>
+      <c r="K504" s="56"/>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="38"/>
@@ -51301,7 +51268,7 @@
       <c r="H505" s="38"/>
       <c r="I505" s="38"/>
       <c r="J505" s="38"/>
-      <c r="K505" s="58"/>
+      <c r="K505" s="56"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="38"/>
@@ -51314,7 +51281,7 @@
       <c r="H506" s="38"/>
       <c r="I506" s="38"/>
       <c r="J506" s="38"/>
-      <c r="K506" s="58"/>
+      <c r="K506" s="56"/>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="38"/>
@@ -51327,7 +51294,7 @@
       <c r="H507" s="38"/>
       <c r="I507" s="38"/>
       <c r="J507" s="38"/>
-      <c r="K507" s="58"/>
+      <c r="K507" s="56"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="38"/>
@@ -51340,7 +51307,7 @@
       <c r="H508" s="38"/>
       <c r="I508" s="38"/>
       <c r="J508" s="38"/>
-      <c r="K508" s="58"/>
+      <c r="K508" s="56"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="38"/>
@@ -51353,7 +51320,7 @@
       <c r="H509" s="38"/>
       <c r="I509" s="38"/>
       <c r="J509" s="38"/>
-      <c r="K509" s="58"/>
+      <c r="K509" s="56"/>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="38"/>
@@ -51366,7 +51333,7 @@
       <c r="H510" s="38"/>
       <c r="I510" s="38"/>
       <c r="J510" s="38"/>
-      <c r="K510" s="58"/>
+      <c r="K510" s="56"/>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="38"/>
@@ -51379,7 +51346,7 @@
       <c r="H511" s="38"/>
       <c r="I511" s="38"/>
       <c r="J511" s="38"/>
-      <c r="K511" s="58"/>
+      <c r="K511" s="56"/>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="38"/>
@@ -51392,7 +51359,7 @@
       <c r="H512" s="38"/>
       <c r="I512" s="38"/>
       <c r="J512" s="38"/>
-      <c r="K512" s="58"/>
+      <c r="K512" s="56"/>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="38"/>
@@ -51405,7 +51372,7 @@
       <c r="H513" s="38"/>
       <c r="I513" s="38"/>
       <c r="J513" s="38"/>
-      <c r="K513" s="58"/>
+      <c r="K513" s="56"/>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="38"/>
@@ -51418,7 +51385,7 @@
       <c r="H514" s="38"/>
       <c r="I514" s="38"/>
       <c r="J514" s="38"/>
-      <c r="K514" s="58"/>
+      <c r="K514" s="56"/>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="38"/>
@@ -51431,7 +51398,7 @@
       <c r="H515" s="38"/>
       <c r="I515" s="38"/>
       <c r="J515" s="38"/>
-      <c r="K515" s="58"/>
+      <c r="K515" s="56"/>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="38"/>
@@ -51444,7 +51411,7 @@
       <c r="H516" s="38"/>
       <c r="I516" s="38"/>
       <c r="J516" s="38"/>
-      <c r="K516" s="58"/>
+      <c r="K516" s="56"/>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="38"/>
@@ -51457,7 +51424,7 @@
       <c r="H517" s="38"/>
       <c r="I517" s="38"/>
       <c r="J517" s="38"/>
-      <c r="K517" s="58"/>
+      <c r="K517" s="56"/>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="38"/>
@@ -51470,7 +51437,7 @@
       <c r="H518" s="38"/>
       <c r="I518" s="38"/>
       <c r="J518" s="38"/>
-      <c r="K518" s="58"/>
+      <c r="K518" s="56"/>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="38"/>
@@ -51483,7 +51450,7 @@
       <c r="H519" s="38"/>
       <c r="I519" s="38"/>
       <c r="J519" s="38"/>
-      <c r="K519" s="58"/>
+      <c r="K519" s="56"/>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="38"/>
@@ -51496,7 +51463,7 @@
       <c r="H520" s="38"/>
       <c r="I520" s="38"/>
       <c r="J520" s="38"/>
-      <c r="K520" s="58"/>
+      <c r="K520" s="56"/>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="38"/>
@@ -51509,7 +51476,7 @@
       <c r="H521" s="38"/>
       <c r="I521" s="38"/>
       <c r="J521" s="38"/>
-      <c r="K521" s="58"/>
+      <c r="K521" s="56"/>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="38"/>
@@ -51522,7 +51489,7 @@
       <c r="H522" s="38"/>
       <c r="I522" s="38"/>
       <c r="J522" s="38"/>
-      <c r="K522" s="58"/>
+      <c r="K522" s="56"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="38"/>
@@ -51535,7 +51502,7 @@
       <c r="H523" s="38"/>
       <c r="I523" s="38"/>
       <c r="J523" s="38"/>
-      <c r="K523" s="58"/>
+      <c r="K523" s="56"/>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="38"/>
@@ -51548,7 +51515,7 @@
       <c r="H524" s="38"/>
       <c r="I524" s="38"/>
       <c r="J524" s="38"/>
-      <c r="K524" s="58"/>
+      <c r="K524" s="56"/>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="38"/>
@@ -51561,7 +51528,7 @@
       <c r="H525" s="38"/>
       <c r="I525" s="38"/>
       <c r="J525" s="38"/>
-      <c r="K525" s="58"/>
+      <c r="K525" s="56"/>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="38"/>
@@ -51574,7 +51541,7 @@
       <c r="H526" s="38"/>
       <c r="I526" s="38"/>
       <c r="J526" s="38"/>
-      <c r="K526" s="58"/>
+      <c r="K526" s="56"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="38"/>
@@ -51587,7 +51554,7 @@
       <c r="H527" s="38"/>
       <c r="I527" s="38"/>
       <c r="J527" s="38"/>
-      <c r="K527" s="58"/>
+      <c r="K527" s="56"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="38"/>
@@ -51600,7 +51567,7 @@
       <c r="H528" s="38"/>
       <c r="I528" s="38"/>
       <c r="J528" s="38"/>
-      <c r="K528" s="58"/>
+      <c r="K528" s="56"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="38"/>
@@ -51613,7 +51580,7 @@
       <c r="H529" s="38"/>
       <c r="I529" s="38"/>
       <c r="J529" s="38"/>
-      <c r="K529" s="58"/>
+      <c r="K529" s="56"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="38"/>
@@ -51626,7 +51593,7 @@
       <c r="H530" s="38"/>
       <c r="I530" s="38"/>
       <c r="J530" s="38"/>
-      <c r="K530" s="58"/>
+      <c r="K530" s="56"/>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="38"/>
@@ -51639,7 +51606,7 @@
       <c r="H531" s="38"/>
       <c r="I531" s="38"/>
       <c r="J531" s="38"/>
-      <c r="K531" s="58"/>
+      <c r="K531" s="56"/>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="38"/>
@@ -51652,7 +51619,7 @@
       <c r="H532" s="38"/>
       <c r="I532" s="38"/>
       <c r="J532" s="38"/>
-      <c r="K532" s="58"/>
+      <c r="K532" s="56"/>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="38"/>
@@ -51665,7 +51632,7 @@
       <c r="H533" s="38"/>
       <c r="I533" s="38"/>
       <c r="J533" s="38"/>
-      <c r="K533" s="58"/>
+      <c r="K533" s="56"/>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="38"/>
@@ -51678,7 +51645,7 @@
       <c r="H534" s="38"/>
       <c r="I534" s="38"/>
       <c r="J534" s="38"/>
-      <c r="K534" s="58"/>
+      <c r="K534" s="56"/>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="38"/>
@@ -51691,7 +51658,7 @@
       <c r="H535" s="38"/>
       <c r="I535" s="38"/>
       <c r="J535" s="38"/>
-      <c r="K535" s="58"/>
+      <c r="K535" s="56"/>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="38"/>
@@ -51704,7 +51671,7 @@
       <c r="H536" s="38"/>
       <c r="I536" s="38"/>
       <c r="J536" s="38"/>
-      <c r="K536" s="58"/>
+      <c r="K536" s="56"/>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
@@ -51717,7 +51684,7 @@
       <c r="H537" s="40"/>
       <c r="I537" s="40"/>
       <c r="J537" s="40"/>
-      <c r="K537" s="59"/>
+      <c r="K537" s="57"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
@@ -51730,7 +51697,7 @@
       <c r="H538" s="40"/>
       <c r="I538" s="40"/>
       <c r="J538" s="40"/>
-      <c r="K538" s="59"/>
+      <c r="K538" s="57"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
@@ -51743,7 +51710,7 @@
       <c r="H539" s="40"/>
       <c r="I539" s="40"/>
       <c r="J539" s="40"/>
-      <c r="K539" s="59"/>
+      <c r="K539" s="57"/>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
@@ -51756,7 +51723,7 @@
       <c r="H540" s="40"/>
       <c r="I540" s="40"/>
       <c r="J540" s="40"/>
-      <c r="K540" s="59"/>
+      <c r="K540" s="57"/>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
@@ -51769,7 +51736,7 @@
       <c r="H541" s="40"/>
       <c r="I541" s="40"/>
       <c r="J541" s="40"/>
-      <c r="K541" s="59"/>
+      <c r="K541" s="57"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
@@ -51782,7 +51749,7 @@
       <c r="H542" s="40"/>
       <c r="I542" s="40"/>
       <c r="J542" s="40"/>
-      <c r="K542" s="59"/>
+      <c r="K542" s="57"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
@@ -51795,7 +51762,7 @@
       <c r="H543" s="40"/>
       <c r="I543" s="40"/>
       <c r="J543" s="40"/>
-      <c r="K543" s="59"/>
+      <c r="K543" s="57"/>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
@@ -51808,7 +51775,7 @@
       <c r="H544" s="40"/>
       <c r="I544" s="40"/>
       <c r="J544" s="40"/>
-      <c r="K544" s="59"/>
+      <c r="K544" s="57"/>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
@@ -51821,7 +51788,7 @@
       <c r="H545" s="40"/>
       <c r="I545" s="40"/>
       <c r="J545" s="40"/>
-      <c r="K545" s="59"/>
+      <c r="K545" s="57"/>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
@@ -51834,7 +51801,7 @@
       <c r="H546" s="40"/>
       <c r="I546" s="40"/>
       <c r="J546" s="40"/>
-      <c r="K546" s="59"/>
+      <c r="K546" s="57"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
@@ -51847,7 +51814,7 @@
       <c r="H547" s="40"/>
       <c r="I547" s="40"/>
       <c r="J547" s="40"/>
-      <c r="K547" s="59"/>
+      <c r="K547" s="57"/>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
@@ -51860,7 +51827,7 @@
       <c r="H548" s="40"/>
       <c r="I548" s="40"/>
       <c r="J548" s="40"/>
-      <c r="K548" s="59"/>
+      <c r="K548" s="57"/>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
@@ -51873,7 +51840,7 @@
       <c r="H549" s="40"/>
       <c r="I549" s="40"/>
       <c r="J549" s="40"/>
-      <c r="K549" s="59"/>
+      <c r="K549" s="57"/>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
@@ -51886,7 +51853,7 @@
       <c r="H550" s="40"/>
       <c r="I550" s="40"/>
       <c r="J550" s="40"/>
-      <c r="K550" s="59"/>
+      <c r="K550" s="57"/>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
@@ -51899,7 +51866,7 @@
       <c r="H551" s="40"/>
       <c r="I551" s="40"/>
       <c r="J551" s="40"/>
-      <c r="K551" s="59"/>
+      <c r="K551" s="57"/>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
@@ -51912,7 +51879,7 @@
       <c r="H552" s="40"/>
       <c r="I552" s="40"/>
       <c r="J552" s="40"/>
-      <c r="K552" s="59"/>
+      <c r="K552" s="57"/>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
@@ -51925,7 +51892,7 @@
       <c r="H553" s="40"/>
       <c r="I553" s="40"/>
       <c r="J553" s="40"/>
-      <c r="K553" s="59"/>
+      <c r="K553" s="57"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
@@ -51938,7 +51905,7 @@
       <c r="H554" s="40"/>
       <c r="I554" s="40"/>
       <c r="J554" s="40"/>
-      <c r="K554" s="59"/>
+      <c r="K554" s="57"/>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
@@ -51951,7 +51918,7 @@
       <c r="H555" s="40"/>
       <c r="I555" s="40"/>
       <c r="J555" s="40"/>
-      <c r="K555" s="59"/>
+      <c r="K555" s="57"/>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
@@ -51964,7 +51931,7 @@
       <c r="H556" s="40"/>
       <c r="I556" s="40"/>
       <c r="J556" s="40"/>
-      <c r="K556" s="59"/>
+      <c r="K556" s="57"/>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
@@ -51977,7 +51944,7 @@
       <c r="H557" s="40"/>
       <c r="I557" s="40"/>
       <c r="J557" s="40"/>
-      <c r="K557" s="59"/>
+      <c r="K557" s="57"/>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
@@ -51990,7 +51957,7 @@
       <c r="H558" s="40"/>
       <c r="I558" s="40"/>
       <c r="J558" s="40"/>
-      <c r="K558" s="59"/>
+      <c r="K558" s="57"/>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
@@ -52003,7 +51970,7 @@
       <c r="H559" s="40"/>
       <c r="I559" s="40"/>
       <c r="J559" s="40"/>
-      <c r="K559" s="59"/>
+      <c r="K559" s="57"/>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
@@ -52016,7 +51983,7 @@
       <c r="H560" s="40"/>
       <c r="I560" s="40"/>
       <c r="J560" s="40"/>
-      <c r="K560" s="59"/>
+      <c r="K560" s="57"/>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
@@ -52029,7 +51996,7 @@
       <c r="H561" s="40"/>
       <c r="I561" s="40"/>
       <c r="J561" s="40"/>
-      <c r="K561" s="59"/>
+      <c r="K561" s="57"/>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
@@ -52042,7 +52009,7 @@
       <c r="H562" s="40"/>
       <c r="I562" s="40"/>
       <c r="J562" s="40"/>
-      <c r="K562" s="59"/>
+      <c r="K562" s="57"/>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
@@ -52055,7 +52022,7 @@
       <c r="H563" s="40"/>
       <c r="I563" s="40"/>
       <c r="J563" s="40"/>
-      <c r="K563" s="59"/>
+      <c r="K563" s="57"/>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
@@ -52068,7 +52035,7 @@
       <c r="H564" s="40"/>
       <c r="I564" s="40"/>
       <c r="J564" s="40"/>
-      <c r="K564" s="59"/>
+      <c r="K564" s="57"/>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
@@ -52081,7 +52048,7 @@
       <c r="H565" s="40"/>
       <c r="I565" s="40"/>
       <c r="J565" s="40"/>
-      <c r="K565" s="59"/>
+      <c r="K565" s="57"/>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
@@ -52094,7 +52061,7 @@
       <c r="H566" s="40"/>
       <c r="I566" s="40"/>
       <c r="J566" s="40"/>
-      <c r="K566" s="59"/>
+      <c r="K566" s="57"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
@@ -52107,7 +52074,7 @@
       <c r="H567" s="40"/>
       <c r="I567" s="40"/>
       <c r="J567" s="40"/>
-      <c r="K567" s="59"/>
+      <c r="K567" s="57"/>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
@@ -52120,7 +52087,7 @@
       <c r="H568" s="40"/>
       <c r="I568" s="40"/>
       <c r="J568" s="40"/>
-      <c r="K568" s="59"/>
+      <c r="K568" s="57"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
@@ -52133,7 +52100,7 @@
       <c r="H569" s="40"/>
       <c r="I569" s="40"/>
       <c r="J569" s="40"/>
-      <c r="K569" s="59"/>
+      <c r="K569" s="57"/>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
@@ -52146,7 +52113,7 @@
       <c r="H570" s="40"/>
       <c r="I570" s="40"/>
       <c r="J570" s="40"/>
-      <c r="K570" s="59"/>
+      <c r="K570" s="57"/>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
@@ -52159,7 +52126,7 @@
       <c r="H571" s="40"/>
       <c r="I571" s="40"/>
       <c r="J571" s="40"/>
-      <c r="K571" s="59"/>
+      <c r="K571" s="57"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
@@ -52172,7 +52139,7 @@
       <c r="H572" s="40"/>
       <c r="I572" s="40"/>
       <c r="J572" s="40"/>
-      <c r="K572" s="59"/>
+      <c r="K572" s="57"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
@@ -52185,7 +52152,7 @@
       <c r="H573" s="40"/>
       <c r="I573" s="40"/>
       <c r="J573" s="40"/>
-      <c r="K573" s="59"/>
+      <c r="K573" s="57"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
@@ -52198,7 +52165,7 @@
       <c r="H574" s="40"/>
       <c r="I574" s="40"/>
       <c r="J574" s="40"/>
-      <c r="K574" s="59"/>
+      <c r="K574" s="57"/>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
@@ -52211,7 +52178,7 @@
       <c r="H575" s="40"/>
       <c r="I575" s="40"/>
       <c r="J575" s="40"/>
-      <c r="K575" s="59"/>
+      <c r="K575" s="57"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
@@ -52224,7 +52191,7 @@
       <c r="H576" s="40"/>
       <c r="I576" s="40"/>
       <c r="J576" s="40"/>
-      <c r="K576" s="59"/>
+      <c r="K576" s="57"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
@@ -52237,7 +52204,7 @@
       <c r="H577" s="40"/>
       <c r="I577" s="40"/>
       <c r="J577" s="40"/>
-      <c r="K577" s="59"/>
+      <c r="K577" s="57"/>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
@@ -52250,7 +52217,7 @@
       <c r="H578" s="40"/>
       <c r="I578" s="40"/>
       <c r="J578" s="40"/>
-      <c r="K578" s="59"/>
+      <c r="K578" s="57"/>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
@@ -52263,7 +52230,7 @@
       <c r="H579" s="40"/>
       <c r="I579" s="40"/>
       <c r="J579" s="40"/>
-      <c r="K579" s="59"/>
+      <c r="K579" s="57"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
@@ -52276,7 +52243,7 @@
       <c r="H580" s="40"/>
       <c r="I580" s="40"/>
       <c r="J580" s="40"/>
-      <c r="K580" s="59"/>
+      <c r="K580" s="57"/>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
@@ -52289,7 +52256,7 @@
       <c r="H581" s="40"/>
       <c r="I581" s="40"/>
       <c r="J581" s="40"/>
-      <c r="K581" s="59"/>
+      <c r="K581" s="57"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
@@ -52302,7 +52269,7 @@
       <c r="H582" s="40"/>
       <c r="I582" s="40"/>
       <c r="J582" s="40"/>
-      <c r="K582" s="59"/>
+      <c r="K582" s="57"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
@@ -52315,7 +52282,7 @@
       <c r="H583" s="40"/>
       <c r="I583" s="40"/>
       <c r="J583" s="40"/>
-      <c r="K583" s="59"/>
+      <c r="K583" s="57"/>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
@@ -52328,7 +52295,7 @@
       <c r="H584" s="40"/>
       <c r="I584" s="40"/>
       <c r="J584" s="40"/>
-      <c r="K584" s="59"/>
+      <c r="K584" s="57"/>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
@@ -52341,7 +52308,7 @@
       <c r="H585" s="40"/>
       <c r="I585" s="40"/>
       <c r="J585" s="40"/>
-      <c r="K585" s="59"/>
+      <c r="K585" s="57"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
@@ -52354,7 +52321,7 @@
       <c r="H586" s="40"/>
       <c r="I586" s="40"/>
       <c r="J586" s="40"/>
-      <c r="K586" s="59"/>
+      <c r="K586" s="57"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
@@ -52367,7 +52334,7 @@
       <c r="H587" s="40"/>
       <c r="I587" s="40"/>
       <c r="J587" s="40"/>
-      <c r="K587" s="59"/>
+      <c r="K587" s="57"/>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
@@ -52380,7 +52347,7 @@
       <c r="H588" s="40"/>
       <c r="I588" s="40"/>
       <c r="J588" s="40"/>
-      <c r="K588" s="59"/>
+      <c r="K588" s="57"/>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
@@ -52393,7 +52360,7 @@
       <c r="H589" s="40"/>
       <c r="I589" s="40"/>
       <c r="J589" s="40"/>
-      <c r="K589" s="59"/>
+      <c r="K589" s="57"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
@@ -52406,7 +52373,7 @@
       <c r="H590" s="40"/>
       <c r="I590" s="40"/>
       <c r="J590" s="40"/>
-      <c r="K590" s="59"/>
+      <c r="K590" s="57"/>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
@@ -52419,7 +52386,7 @@
       <c r="H591" s="40"/>
       <c r="I591" s="40"/>
       <c r="J591" s="40"/>
-      <c r="K591" s="59"/>
+      <c r="K591" s="57"/>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
@@ -52432,7 +52399,7 @@
       <c r="H592" s="40"/>
       <c r="I592" s="40"/>
       <c r="J592" s="40"/>
-      <c r="K592" s="59"/>
+      <c r="K592" s="57"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
@@ -52445,7 +52412,7 @@
       <c r="H593" s="40"/>
       <c r="I593" s="40"/>
       <c r="J593" s="40"/>
-      <c r="K593" s="59"/>
+      <c r="K593" s="57"/>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
@@ -52458,7 +52425,7 @@
       <c r="H594" s="40"/>
       <c r="I594" s="40"/>
       <c r="J594" s="40"/>
-      <c r="K594" s="59"/>
+      <c r="K594" s="57"/>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
@@ -52471,7 +52438,7 @@
       <c r="H595" s="40"/>
       <c r="I595" s="40"/>
       <c r="J595" s="40"/>
-      <c r="K595" s="59"/>
+      <c r="K595" s="57"/>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
@@ -52484,7 +52451,7 @@
       <c r="H596" s="40"/>
       <c r="I596" s="40"/>
       <c r="J596" s="40"/>
-      <c r="K596" s="59"/>
+      <c r="K596" s="57"/>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
@@ -52497,7 +52464,7 @@
       <c r="H597" s="40"/>
       <c r="I597" s="40"/>
       <c r="J597" s="40"/>
-      <c r="K597" s="59"/>
+      <c r="K597" s="57"/>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
@@ -52510,7 +52477,7 @@
       <c r="H598" s="40"/>
       <c r="I598" s="40"/>
       <c r="J598" s="40"/>
-      <c r="K598" s="59"/>
+      <c r="K598" s="57"/>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
@@ -52523,7 +52490,7 @@
       <c r="H599" s="40"/>
       <c r="I599" s="40"/>
       <c r="J599" s="40"/>
-      <c r="K599" s="59"/>
+      <c r="K599" s="57"/>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
@@ -52536,7 +52503,7 @@
       <c r="H600" s="40"/>
       <c r="I600" s="40"/>
       <c r="J600" s="40"/>
-      <c r="K600" s="59"/>
+      <c r="K600" s="57"/>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
@@ -52549,7 +52516,7 @@
       <c r="H601" s="40"/>
       <c r="I601" s="40"/>
       <c r="J601" s="40"/>
-      <c r="K601" s="59"/>
+      <c r="K601" s="57"/>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
@@ -52562,7 +52529,7 @@
       <c r="H602" s="40"/>
       <c r="I602" s="40"/>
       <c r="J602" s="40"/>
-      <c r="K602" s="59"/>
+      <c r="K602" s="57"/>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
@@ -52575,7 +52542,7 @@
       <c r="H603" s="40"/>
       <c r="I603" s="40"/>
       <c r="J603" s="40"/>
-      <c r="K603" s="59"/>
+      <c r="K603" s="57"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
@@ -52588,7 +52555,7 @@
       <c r="H604" s="40"/>
       <c r="I604" s="40"/>
       <c r="J604" s="40"/>
-      <c r="K604" s="59"/>
+      <c r="K604" s="57"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40"/>
@@ -52601,7 +52568,7 @@
       <c r="H605" s="40"/>
       <c r="I605" s="40"/>
       <c r="J605" s="40"/>
-      <c r="K605" s="59"/>
+      <c r="K605" s="57"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
@@ -52614,7 +52581,7 @@
       <c r="H606" s="40"/>
       <c r="I606" s="40"/>
       <c r="J606" s="40"/>
-      <c r="K606" s="59"/>
+      <c r="K606" s="57"/>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
@@ -52627,7 +52594,7 @@
       <c r="H607" s="40"/>
       <c r="I607" s="40"/>
       <c r="J607" s="40"/>
-      <c r="K607" s="59"/>
+      <c r="K607" s="57"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
@@ -52640,7 +52607,7 @@
       <c r="H608" s="40"/>
       <c r="I608" s="40"/>
       <c r="J608" s="40"/>
-      <c r="K608" s="59"/>
+      <c r="K608" s="57"/>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40"/>
@@ -52653,7 +52620,7 @@
       <c r="H609" s="40"/>
       <c r="I609" s="40"/>
       <c r="J609" s="40"/>
-      <c r="K609" s="59"/>
+      <c r="K609" s="57"/>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
@@ -52666,7 +52633,7 @@
       <c r="H610" s="40"/>
       <c r="I610" s="40"/>
       <c r="J610" s="40"/>
-      <c r="K610" s="59"/>
+      <c r="K610" s="57"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
@@ -52679,7 +52646,7 @@
       <c r="H611" s="40"/>
       <c r="I611" s="40"/>
       <c r="J611" s="40"/>
-      <c r="K611" s="59"/>
+      <c r="K611" s="57"/>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
@@ -52692,7 +52659,7 @@
       <c r="H612" s="40"/>
       <c r="I612" s="40"/>
       <c r="J612" s="40"/>
-      <c r="K612" s="59"/>
+      <c r="K612" s="57"/>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40"/>
@@ -52705,7 +52672,7 @@
       <c r="H613" s="40"/>
       <c r="I613" s="40"/>
       <c r="J613" s="40"/>
-      <c r="K613" s="59"/>
+      <c r="K613" s="57"/>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40"/>
@@ -52718,7 +52685,7 @@
       <c r="H614" s="40"/>
       <c r="I614" s="40"/>
       <c r="J614" s="40"/>
-      <c r="K614" s="59"/>
+      <c r="K614" s="57"/>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
@@ -52731,7 +52698,7 @@
       <c r="H615" s="40"/>
       <c r="I615" s="40"/>
       <c r="J615" s="40"/>
-      <c r="K615" s="59"/>
+      <c r="K615" s="57"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
@@ -52744,7 +52711,7 @@
       <c r="H616" s="40"/>
       <c r="I616" s="40"/>
       <c r="J616" s="40"/>
-      <c r="K616" s="59"/>
+      <c r="K616" s="57"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
@@ -52757,7 +52724,7 @@
       <c r="H617" s="40"/>
       <c r="I617" s="40"/>
       <c r="J617" s="40"/>
-      <c r="K617" s="59"/>
+      <c r="K617" s="57"/>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
@@ -52770,7 +52737,7 @@
       <c r="H618" s="40"/>
       <c r="I618" s="40"/>
       <c r="J618" s="40"/>
-      <c r="K618" s="59"/>
+      <c r="K618" s="57"/>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
@@ -52783,7 +52750,7 @@
       <c r="H619" s="40"/>
       <c r="I619" s="40"/>
       <c r="J619" s="40"/>
-      <c r="K619" s="59"/>
+      <c r="K619" s="57"/>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
@@ -52796,7 +52763,7 @@
       <c r="H620" s="40"/>
       <c r="I620" s="40"/>
       <c r="J620" s="40"/>
-      <c r="K620" s="59"/>
+      <c r="K620" s="57"/>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
@@ -52809,7 +52776,7 @@
       <c r="H621" s="40"/>
       <c r="I621" s="40"/>
       <c r="J621" s="40"/>
-      <c r="K621" s="59"/>
+      <c r="K621" s="57"/>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40"/>
@@ -52822,7 +52789,7 @@
       <c r="H622" s="40"/>
       <c r="I622" s="40"/>
       <c r="J622" s="40"/>
-      <c r="K622" s="59"/>
+      <c r="K622" s="57"/>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
@@ -52835,7 +52802,7 @@
       <c r="H623" s="40"/>
       <c r="I623" s="40"/>
       <c r="J623" s="40"/>
-      <c r="K623" s="59"/>
+      <c r="K623" s="57"/>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40"/>
@@ -52848,7 +52815,7 @@
       <c r="H624" s="40"/>
       <c r="I624" s="40"/>
       <c r="J624" s="40"/>
-      <c r="K624" s="59"/>
+      <c r="K624" s="57"/>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
@@ -52861,7 +52828,7 @@
       <c r="H625" s="40"/>
       <c r="I625" s="40"/>
       <c r="J625" s="40"/>
-      <c r="K625" s="59"/>
+      <c r="K625" s="57"/>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40"/>
@@ -52874,7 +52841,7 @@
       <c r="H626" s="40"/>
       <c r="I626" s="40"/>
       <c r="J626" s="40"/>
-      <c r="K626" s="59"/>
+      <c r="K626" s="57"/>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40"/>
@@ -52887,7 +52854,7 @@
       <c r="H627" s="40"/>
       <c r="I627" s="40"/>
       <c r="J627" s="40"/>
-      <c r="K627" s="59"/>
+      <c r="K627" s="57"/>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
@@ -52900,7 +52867,7 @@
       <c r="H628" s="40"/>
       <c r="I628" s="40"/>
       <c r="J628" s="40"/>
-      <c r="K628" s="59"/>
+      <c r="K628" s="57"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40"/>
@@ -52913,7 +52880,7 @@
       <c r="H629" s="40"/>
       <c r="I629" s="40"/>
       <c r="J629" s="40"/>
-      <c r="K629" s="59"/>
+      <c r="K629" s="57"/>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
@@ -52926,7 +52893,7 @@
       <c r="H630" s="40"/>
       <c r="I630" s="40"/>
       <c r="J630" s="40"/>
-      <c r="K630" s="59"/>
+      <c r="K630" s="57"/>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40"/>
@@ -52939,7 +52906,7 @@
       <c r="H631" s="40"/>
       <c r="I631" s="40"/>
       <c r="J631" s="40"/>
-      <c r="K631" s="59"/>
+      <c r="K631" s="57"/>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40"/>
@@ -52952,7 +52919,7 @@
       <c r="H632" s="40"/>
       <c r="I632" s="40"/>
       <c r="J632" s="40"/>
-      <c r="K632" s="59"/>
+      <c r="K632" s="57"/>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
@@ -52965,7 +52932,7 @@
       <c r="H633" s="40"/>
       <c r="I633" s="40"/>
       <c r="J633" s="40"/>
-      <c r="K633" s="59"/>
+      <c r="K633" s="57"/>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
@@ -52978,7 +52945,7 @@
       <c r="H634" s="40"/>
       <c r="I634" s="40"/>
       <c r="J634" s="40"/>
-      <c r="K634" s="59"/>
+      <c r="K634" s="57"/>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
@@ -52991,7 +52958,7 @@
       <c r="H635" s="40"/>
       <c r="I635" s="40"/>
       <c r="J635" s="40"/>
-      <c r="K635" s="59"/>
+      <c r="K635" s="57"/>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
@@ -53004,7 +52971,7 @@
       <c r="H636" s="40"/>
       <c r="I636" s="40"/>
       <c r="J636" s="40"/>
-      <c r="K636" s="59"/>
+      <c r="K636" s="57"/>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40"/>
@@ -53017,7 +52984,7 @@
       <c r="H637" s="40"/>
       <c r="I637" s="40"/>
       <c r="J637" s="40"/>
-      <c r="K637" s="59"/>
+      <c r="K637" s="57"/>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40"/>
@@ -53030,7 +52997,7 @@
       <c r="H638" s="40"/>
       <c r="I638" s="40"/>
       <c r="J638" s="40"/>
-      <c r="K638" s="59"/>
+      <c r="K638" s="57"/>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40"/>
@@ -53043,7 +53010,7 @@
       <c r="H639" s="40"/>
       <c r="I639" s="40"/>
       <c r="J639" s="40"/>
-      <c r="K639" s="59"/>
+      <c r="K639" s="57"/>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
@@ -53056,7 +53023,7 @@
       <c r="H640" s="40"/>
       <c r="I640" s="40"/>
       <c r="J640" s="40"/>
-      <c r="K640" s="59"/>
+      <c r="K640" s="57"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40"/>
@@ -53069,7 +53036,7 @@
       <c r="H641" s="40"/>
       <c r="I641" s="40"/>
       <c r="J641" s="40"/>
-      <c r="K641" s="59"/>
+      <c r="K641" s="57"/>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
@@ -53082,7 +53049,7 @@
       <c r="H642" s="40"/>
       <c r="I642" s="40"/>
       <c r="J642" s="40"/>
-      <c r="K642" s="59"/>
+      <c r="K642" s="57"/>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
@@ -53095,7 +53062,7 @@
       <c r="H643" s="40"/>
       <c r="I643" s="40"/>
       <c r="J643" s="40"/>
-      <c r="K643" s="59"/>
+      <c r="K643" s="57"/>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40"/>
@@ -53108,7 +53075,7 @@
       <c r="H644" s="40"/>
       <c r="I644" s="40"/>
       <c r="J644" s="40"/>
-      <c r="K644" s="59"/>
+      <c r="K644" s="57"/>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40"/>
@@ -53121,7 +53088,7 @@
       <c r="H645" s="40"/>
       <c r="I645" s="40"/>
       <c r="J645" s="40"/>
-      <c r="K645" s="59"/>
+      <c r="K645" s="57"/>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40"/>
@@ -53134,7 +53101,7 @@
       <c r="H646" s="40"/>
       <c r="I646" s="40"/>
       <c r="J646" s="40"/>
-      <c r="K646" s="59"/>
+      <c r="K646" s="57"/>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40"/>
@@ -53147,7 +53114,7 @@
       <c r="H647" s="40"/>
       <c r="I647" s="40"/>
       <c r="J647" s="40"/>
-      <c r="K647" s="59"/>
+      <c r="K647" s="57"/>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40"/>
@@ -53160,7 +53127,7 @@
       <c r="H648" s="40"/>
       <c r="I648" s="40"/>
       <c r="J648" s="40"/>
-      <c r="K648" s="59"/>
+      <c r="K648" s="57"/>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40"/>
@@ -53173,7 +53140,7 @@
       <c r="H649" s="40"/>
       <c r="I649" s="40"/>
       <c r="J649" s="40"/>
-      <c r="K649" s="59"/>
+      <c r="K649" s="57"/>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40"/>
@@ -53186,7 +53153,7 @@
       <c r="H650" s="40"/>
       <c r="I650" s="40"/>
       <c r="J650" s="40"/>
-      <c r="K650" s="59"/>
+      <c r="K650" s="57"/>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40"/>
@@ -53199,7 +53166,7 @@
       <c r="H651" s="40"/>
       <c r="I651" s="40"/>
       <c r="J651" s="40"/>
-      <c r="K651" s="59"/>
+      <c r="K651" s="57"/>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40"/>
@@ -53212,7 +53179,7 @@
       <c r="H652" s="40"/>
       <c r="I652" s="40"/>
       <c r="J652" s="40"/>
-      <c r="K652" s="59"/>
+      <c r="K652" s="57"/>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40"/>
@@ -53225,7 +53192,7 @@
       <c r="H653" s="40"/>
       <c r="I653" s="40"/>
       <c r="J653" s="40"/>
-      <c r="K653" s="59"/>
+      <c r="K653" s="57"/>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40"/>
@@ -53238,7 +53205,7 @@
       <c r="H654" s="40"/>
       <c r="I654" s="40"/>
       <c r="J654" s="40"/>
-      <c r="K654" s="59"/>
+      <c r="K654" s="57"/>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40"/>
@@ -53251,7 +53218,7 @@
       <c r="H655" s="40"/>
       <c r="I655" s="40"/>
       <c r="J655" s="40"/>
-      <c r="K655" s="59"/>
+      <c r="K655" s="57"/>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40"/>
@@ -53264,7 +53231,7 @@
       <c r="H656" s="40"/>
       <c r="I656" s="40"/>
       <c r="J656" s="40"/>
-      <c r="K656" s="59"/>
+      <c r="K656" s="57"/>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40"/>
@@ -53277,7 +53244,7 @@
       <c r="H657" s="40"/>
       <c r="I657" s="40"/>
       <c r="J657" s="40"/>
-      <c r="K657" s="59"/>
+      <c r="K657" s="57"/>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40"/>
@@ -53290,7 +53257,7 @@
       <c r="H658" s="40"/>
       <c r="I658" s="40"/>
       <c r="J658" s="40"/>
-      <c r="K658" s="59"/>
+      <c r="K658" s="57"/>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40"/>
@@ -53303,7 +53270,7 @@
       <c r="H659" s="40"/>
       <c r="I659" s="40"/>
       <c r="J659" s="40"/>
-      <c r="K659" s="59"/>
+      <c r="K659" s="57"/>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40"/>
@@ -53316,7 +53283,7 @@
       <c r="H660" s="40"/>
       <c r="I660" s="40"/>
       <c r="J660" s="40"/>
-      <c r="K660" s="59"/>
+      <c r="K660" s="57"/>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40"/>
@@ -53329,7 +53296,7 @@
       <c r="H661" s="40"/>
       <c r="I661" s="40"/>
       <c r="J661" s="40"/>
-      <c r="K661" s="59"/>
+      <c r="K661" s="57"/>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
@@ -53342,7 +53309,7 @@
       <c r="H662" s="40"/>
       <c r="I662" s="40"/>
       <c r="J662" s="40"/>
-      <c r="K662" s="59"/>
+      <c r="K662" s="57"/>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
@@ -53355,7 +53322,7 @@
       <c r="H663" s="40"/>
       <c r="I663" s="40"/>
       <c r="J663" s="40"/>
-      <c r="K663" s="59"/>
+      <c r="K663" s="57"/>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40"/>
@@ -53368,7 +53335,7 @@
       <c r="H664" s="40"/>
       <c r="I664" s="40"/>
       <c r="J664" s="40"/>
-      <c r="K664" s="59"/>
+      <c r="K664" s="57"/>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40"/>
@@ -53381,7 +53348,7 @@
       <c r="H665" s="40"/>
       <c r="I665" s="40"/>
       <c r="J665" s="40"/>
-      <c r="K665" s="59"/>
+      <c r="K665" s="57"/>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40"/>
@@ -53394,7 +53361,7 @@
       <c r="H666" s="40"/>
       <c r="I666" s="40"/>
       <c r="J666" s="40"/>
-      <c r="K666" s="59"/>
+      <c r="K666" s="57"/>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40"/>
@@ -53407,7 +53374,7 @@
       <c r="H667" s="40"/>
       <c r="I667" s="40"/>
       <c r="J667" s="40"/>
-      <c r="K667" s="59"/>
+      <c r="K667" s="57"/>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40"/>
@@ -53420,7 +53387,7 @@
       <c r="H668" s="40"/>
       <c r="I668" s="40"/>
       <c r="J668" s="40"/>
-      <c r="K668" s="59"/>
+      <c r="K668" s="57"/>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40"/>
@@ -53433,7 +53400,7 @@
       <c r="H669" s="40"/>
       <c r="I669" s="40"/>
       <c r="J669" s="40"/>
-      <c r="K669" s="59"/>
+      <c r="K669" s="57"/>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40"/>
@@ -53446,7 +53413,7 @@
       <c r="H670" s="40"/>
       <c r="I670" s="40"/>
       <c r="J670" s="40"/>
-      <c r="K670" s="59"/>
+      <c r="K670" s="57"/>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40"/>
@@ -53459,7 +53426,7 @@
       <c r="H671" s="40"/>
       <c r="I671" s="40"/>
       <c r="J671" s="40"/>
-      <c r="K671" s="59"/>
+      <c r="K671" s="57"/>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40"/>
@@ -53472,7 +53439,7 @@
       <c r="H672" s="40"/>
       <c r="I672" s="40"/>
       <c r="J672" s="40"/>
-      <c r="K672" s="59"/>
+      <c r="K672" s="57"/>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40"/>
@@ -53485,7 +53452,7 @@
       <c r="H673" s="40"/>
       <c r="I673" s="40"/>
       <c r="J673" s="40"/>
-      <c r="K673" s="59"/>
+      <c r="K673" s="57"/>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40"/>
@@ -53498,7 +53465,7 @@
       <c r="H674" s="40"/>
       <c r="I674" s="40"/>
       <c r="J674" s="40"/>
-      <c r="K674" s="59"/>
+      <c r="K674" s="57"/>
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40"/>
@@ -53511,7 +53478,7 @@
       <c r="H675" s="40"/>
       <c r="I675" s="40"/>
       <c r="J675" s="40"/>
-      <c r="K675" s="59"/>
+      <c r="K675" s="57"/>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40"/>
@@ -53524,7 +53491,7 @@
       <c r="H676" s="40"/>
       <c r="I676" s="40"/>
       <c r="J676" s="40"/>
-      <c r="K676" s="59"/>
+      <c r="K676" s="57"/>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
@@ -53537,7 +53504,7 @@
       <c r="H677" s="40"/>
       <c r="I677" s="40"/>
       <c r="J677" s="40"/>
-      <c r="K677" s="59"/>
+      <c r="K677" s="57"/>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40"/>
@@ -53550,7 +53517,7 @@
       <c r="H678" s="40"/>
       <c r="I678" s="40"/>
       <c r="J678" s="40"/>
-      <c r="K678" s="59"/>
+      <c r="K678" s="57"/>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
@@ -53563,7 +53530,7 @@
       <c r="H679" s="40"/>
       <c r="I679" s="40"/>
       <c r="J679" s="40"/>
-      <c r="K679" s="59"/>
+      <c r="K679" s="57"/>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40"/>
@@ -53576,7 +53543,7 @@
       <c r="H680" s="40"/>
       <c r="I680" s="40"/>
       <c r="J680" s="40"/>
-      <c r="K680" s="59"/>
+      <c r="K680" s="57"/>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40"/>
@@ -53589,7 +53556,7 @@
       <c r="H681" s="40"/>
       <c r="I681" s="40"/>
       <c r="J681" s="40"/>
-      <c r="K681" s="59"/>
+      <c r="K681" s="57"/>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40"/>
@@ -53602,7 +53569,7 @@
       <c r="H682" s="40"/>
       <c r="I682" s="40"/>
       <c r="J682" s="40"/>
-      <c r="K682" s="59"/>
+      <c r="K682" s="57"/>
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
@@ -53615,7 +53582,7 @@
       <c r="H683" s="40"/>
       <c r="I683" s="40"/>
       <c r="J683" s="40"/>
-      <c r="K683" s="59"/>
+      <c r="K683" s="57"/>
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
@@ -53628,7 +53595,7 @@
       <c r="H684" s="40"/>
       <c r="I684" s="40"/>
       <c r="J684" s="40"/>
-      <c r="K684" s="59"/>
+      <c r="K684" s="57"/>
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40"/>
@@ -53641,7 +53608,7 @@
       <c r="H685" s="40"/>
       <c r="I685" s="40"/>
       <c r="J685" s="40"/>
-      <c r="K685" s="59"/>
+      <c r="K685" s="57"/>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40"/>
@@ -53654,7 +53621,7 @@
       <c r="H686" s="40"/>
       <c r="I686" s="40"/>
       <c r="J686" s="40"/>
-      <c r="K686" s="59"/>
+      <c r="K686" s="57"/>
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40"/>
@@ -53667,7 +53634,7 @@
       <c r="H687" s="40"/>
       <c r="I687" s="40"/>
       <c r="J687" s="40"/>
-      <c r="K687" s="59"/>
+      <c r="K687" s="57"/>
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40"/>
@@ -53680,7 +53647,7 @@
       <c r="H688" s="40"/>
       <c r="I688" s="40"/>
       <c r="J688" s="40"/>
-      <c r="K688" s="59"/>
+      <c r="K688" s="57"/>
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40"/>
@@ -53693,7 +53660,7 @@
       <c r="H689" s="40"/>
       <c r="I689" s="40"/>
       <c r="J689" s="40"/>
-      <c r="K689" s="59"/>
+      <c r="K689" s="57"/>
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40"/>
@@ -53706,7 +53673,7 @@
       <c r="H690" s="40"/>
       <c r="I690" s="40"/>
       <c r="J690" s="40"/>
-      <c r="K690" s="59"/>
+      <c r="K690" s="57"/>
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40"/>
@@ -53719,7 +53686,7 @@
       <c r="H691" s="40"/>
       <c r="I691" s="40"/>
       <c r="J691" s="40"/>
-      <c r="K691" s="59"/>
+      <c r="K691" s="57"/>
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
@@ -53732,7 +53699,7 @@
       <c r="H692" s="40"/>
       <c r="I692" s="40"/>
       <c r="J692" s="40"/>
-      <c r="K692" s="59"/>
+      <c r="K692" s="57"/>
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40"/>
@@ -53745,7 +53712,7 @@
       <c r="H693" s="40"/>
       <c r="I693" s="40"/>
       <c r="J693" s="40"/>
-      <c r="K693" s="59"/>
+      <c r="K693" s="57"/>
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
@@ -53758,7 +53725,7 @@
       <c r="H694" s="40"/>
       <c r="I694" s="40"/>
       <c r="J694" s="40"/>
-      <c r="K694" s="59"/>
+      <c r="K694" s="57"/>
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40"/>
@@ -53771,7 +53738,7 @@
       <c r="H695" s="40"/>
       <c r="I695" s="40"/>
       <c r="J695" s="40"/>
-      <c r="K695" s="59"/>
+      <c r="K695" s="57"/>
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
@@ -53784,7 +53751,7 @@
       <c r="H696" s="40"/>
       <c r="I696" s="40"/>
       <c r="J696" s="40"/>
-      <c r="K696" s="59"/>
+      <c r="K696" s="57"/>
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40"/>
@@ -53797,7 +53764,7 @@
       <c r="H697" s="40"/>
       <c r="I697" s="40"/>
       <c r="J697" s="40"/>
-      <c r="K697" s="59"/>
+      <c r="K697" s="57"/>
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
@@ -53810,7 +53777,7 @@
       <c r="H698" s="40"/>
       <c r="I698" s="40"/>
       <c r="J698" s="40"/>
-      <c r="K698" s="59"/>
+      <c r="K698" s="57"/>
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
@@ -53823,7 +53790,7 @@
       <c r="H699" s="40"/>
       <c r="I699" s="40"/>
       <c r="J699" s="40"/>
-      <c r="K699" s="59"/>
+      <c r="K699" s="57"/>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40"/>
@@ -53836,7 +53803,7 @@
       <c r="H700" s="40"/>
       <c r="I700" s="40"/>
       <c r="J700" s="40"/>
-      <c r="K700" s="59"/>
+      <c r="K700" s="57"/>
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40"/>
@@ -53849,7 +53816,7 @@
       <c r="H701" s="40"/>
       <c r="I701" s="40"/>
       <c r="J701" s="40"/>
-      <c r="K701" s="59"/>
+      <c r="K701" s="57"/>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40"/>
@@ -53862,7 +53829,7 @@
       <c r="H702" s="40"/>
       <c r="I702" s="40"/>
       <c r="J702" s="40"/>
-      <c r="K702" s="59"/>
+      <c r="K702" s="57"/>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40"/>
@@ -53875,7 +53842,7 @@
       <c r="H703" s="40"/>
       <c r="I703" s="40"/>
       <c r="J703" s="40"/>
-      <c r="K703" s="59"/>
+      <c r="K703" s="57"/>
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40"/>
@@ -53888,7 +53855,7 @@
       <c r="H704" s="40"/>
       <c r="I704" s="40"/>
       <c r="J704" s="40"/>
-      <c r="K704" s="59"/>
+      <c r="K704" s="57"/>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40"/>
@@ -53901,7 +53868,7 @@
       <c r="H705" s="40"/>
       <c r="I705" s="40"/>
       <c r="J705" s="40"/>
-      <c r="K705" s="59"/>
+      <c r="K705" s="57"/>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40"/>
@@ -53914,7 +53881,7 @@
       <c r="H706" s="40"/>
       <c r="I706" s="40"/>
       <c r="J706" s="40"/>
-      <c r="K706" s="59"/>
+      <c r="K706" s="57"/>
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40"/>
@@ -53927,7 +53894,7 @@
       <c r="H707" s="40"/>
       <c r="I707" s="40"/>
       <c r="J707" s="40"/>
-      <c r="K707" s="59"/>
+      <c r="K707" s="57"/>
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40"/>
@@ -53940,7 +53907,7 @@
       <c r="H708" s="40"/>
       <c r="I708" s="40"/>
       <c r="J708" s="40"/>
-      <c r="K708" s="59"/>
+      <c r="K708" s="57"/>
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40"/>
@@ -53953,7 +53920,7 @@
       <c r="H709" s="40"/>
       <c r="I709" s="40"/>
       <c r="J709" s="40"/>
-      <c r="K709" s="59"/>
+      <c r="K709" s="57"/>
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40"/>
@@ -53966,7 +53933,7 @@
       <c r="H710" s="40"/>
       <c r="I710" s="40"/>
       <c r="J710" s="40"/>
-      <c r="K710" s="59"/>
+      <c r="K710" s="57"/>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40"/>
@@ -53979,7 +53946,7 @@
       <c r="H711" s="40"/>
       <c r="I711" s="40"/>
       <c r="J711" s="40"/>
-      <c r="K711" s="59"/>
+      <c r="K711" s="57"/>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40"/>
@@ -53992,7 +53959,7 @@
       <c r="H712" s="40"/>
       <c r="I712" s="40"/>
       <c r="J712" s="40"/>
-      <c r="K712" s="59"/>
+      <c r="K712" s="57"/>
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40"/>
@@ -54005,7 +53972,7 @@
       <c r="H713" s="40"/>
       <c r="I713" s="40"/>
       <c r="J713" s="40"/>
-      <c r="K713" s="59"/>
+      <c r="K713" s="57"/>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40"/>
@@ -54018,7 +53985,7 @@
       <c r="H714" s="40"/>
       <c r="I714" s="40"/>
       <c r="J714" s="40"/>
-      <c r="K714" s="59"/>
+      <c r="K714" s="57"/>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40"/>
@@ -54031,7 +53998,7 @@
       <c r="H715" s="40"/>
       <c r="I715" s="40"/>
       <c r="J715" s="40"/>
-      <c r="K715" s="59"/>
+      <c r="K715" s="57"/>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
@@ -54044,7 +54011,7 @@
       <c r="H716" s="40"/>
       <c r="I716" s="40"/>
       <c r="J716" s="40"/>
-      <c r="K716" s="59"/>
+      <c r="K716" s="57"/>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40"/>
@@ -54057,7 +54024,7 @@
       <c r="H717" s="40"/>
       <c r="I717" s="40"/>
       <c r="J717" s="40"/>
-      <c r="K717" s="59"/>
+      <c r="K717" s="57"/>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40"/>
@@ -54070,7 +54037,7 @@
       <c r="H718" s="40"/>
       <c r="I718" s="40"/>
       <c r="J718" s="40"/>
-      <c r="K718" s="59"/>
+      <c r="K718" s="57"/>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40"/>
@@ -54083,7 +54050,7 @@
       <c r="H719" s="40"/>
       <c r="I719" s="40"/>
       <c r="J719" s="40"/>
-      <c r="K719" s="59"/>
+      <c r="K719" s="57"/>
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40"/>
@@ -54096,7 +54063,7 @@
       <c r="H720" s="40"/>
       <c r="I720" s="40"/>
       <c r="J720" s="40"/>
-      <c r="K720" s="59"/>
+      <c r="K720" s="57"/>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40"/>
@@ -54109,7 +54076,7 @@
       <c r="H721" s="40"/>
       <c r="I721" s="40"/>
       <c r="J721" s="40"/>
-      <c r="K721" s="59"/>
+      <c r="K721" s="57"/>
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40"/>
@@ -54122,7 +54089,7 @@
       <c r="H722" s="40"/>
       <c r="I722" s="40"/>
       <c r="J722" s="40"/>
-      <c r="K722" s="59"/>
+      <c r="K722" s="57"/>
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40"/>
@@ -54135,7 +54102,7 @@
       <c r="H723" s="40"/>
       <c r="I723" s="40"/>
       <c r="J723" s="40"/>
-      <c r="K723" s="59"/>
+      <c r="K723" s="57"/>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40"/>
@@ -54148,7 +54115,7 @@
       <c r="H724" s="40"/>
       <c r="I724" s="40"/>
       <c r="J724" s="40"/>
-      <c r="K724" s="59"/>
+      <c r="K724" s="57"/>
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40"/>
@@ -54161,7 +54128,7 @@
       <c r="H725" s="40"/>
       <c r="I725" s="40"/>
       <c r="J725" s="40"/>
-      <c r="K725" s="59"/>
+      <c r="K725" s="57"/>
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40"/>
@@ -54174,7 +54141,7 @@
       <c r="H726" s="40"/>
       <c r="I726" s="40"/>
       <c r="J726" s="40"/>
-      <c r="K726" s="59"/>
+      <c r="K726" s="57"/>
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40"/>
@@ -54187,7 +54154,7 @@
       <c r="H727" s="40"/>
       <c r="I727" s="40"/>
       <c r="J727" s="40"/>
-      <c r="K727" s="59"/>
+      <c r="K727" s="57"/>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40"/>
@@ -54200,7 +54167,7 @@
       <c r="H728" s="40"/>
       <c r="I728" s="40"/>
       <c r="J728" s="40"/>
-      <c r="K728" s="59"/>
+      <c r="K728" s="57"/>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40"/>
@@ -54213,7 +54180,7 @@
       <c r="H729" s="40"/>
       <c r="I729" s="40"/>
       <c r="J729" s="40"/>
-      <c r="K729" s="59"/>
+      <c r="K729" s="57"/>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40"/>
@@ -54226,7 +54193,7 @@
       <c r="H730" s="40"/>
       <c r="I730" s="40"/>
       <c r="J730" s="40"/>
-      <c r="K730" s="59"/>
+      <c r="K730" s="57"/>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40"/>
@@ -54239,7 +54206,7 @@
       <c r="H731" s="40"/>
       <c r="I731" s="40"/>
       <c r="J731" s="40"/>
-      <c r="K731" s="59"/>
+      <c r="K731" s="57"/>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40"/>
@@ -54252,7 +54219,7 @@
       <c r="H732" s="40"/>
       <c r="I732" s="40"/>
       <c r="J732" s="40"/>
-      <c r="K732" s="59"/>
+      <c r="K732" s="57"/>
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40"/>
@@ -54265,7 +54232,7 @@
       <c r="H733" s="40"/>
       <c r="I733" s="40"/>
       <c r="J733" s="40"/>
-      <c r="K733" s="59"/>
+      <c r="K733" s="57"/>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40"/>
@@ -54278,7 +54245,7 @@
       <c r="H734" s="40"/>
       <c r="I734" s="40"/>
       <c r="J734" s="40"/>
-      <c r="K734" s="59"/>
+      <c r="K734" s="57"/>
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40"/>
@@ -54291,7 +54258,7 @@
       <c r="H735" s="40"/>
       <c r="I735" s="40"/>
       <c r="J735" s="40"/>
-      <c r="K735" s="59"/>
+      <c r="K735" s="57"/>
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40"/>
@@ -54304,7 +54271,7 @@
       <c r="H736" s="40"/>
       <c r="I736" s="40"/>
       <c r="J736" s="40"/>
-      <c r="K736" s="59"/>
+      <c r="K736" s="57"/>
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40"/>
@@ -54317,7 +54284,7 @@
       <c r="H737" s="40"/>
       <c r="I737" s="40"/>
       <c r="J737" s="40"/>
-      <c r="K737" s="59"/>
+      <c r="K737" s="57"/>
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40"/>
@@ -54330,7 +54297,7 @@
       <c r="H738" s="40"/>
       <c r="I738" s="40"/>
       <c r="J738" s="40"/>
-      <c r="K738" s="59"/>
+      <c r="K738" s="57"/>
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40"/>
@@ -54343,7 +54310,7 @@
       <c r="H739" s="40"/>
       <c r="I739" s="40"/>
       <c r="J739" s="40"/>
-      <c r="K739" s="59"/>
+      <c r="K739" s="57"/>
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="40"/>
@@ -54356,7 +54323,7 @@
       <c r="H740" s="40"/>
       <c r="I740" s="40"/>
       <c r="J740" s="40"/>
-      <c r="K740" s="59"/>
+      <c r="K740" s="57"/>
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="40"/>
@@ -54369,7 +54336,7 @@
       <c r="H741" s="40"/>
       <c r="I741" s="40"/>
       <c r="J741" s="40"/>
-      <c r="K741" s="59"/>
+      <c r="K741" s="57"/>
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="40"/>
@@ -54382,7 +54349,7 @@
       <c r="H742" s="40"/>
       <c r="I742" s="40"/>
       <c r="J742" s="40"/>
-      <c r="K742" s="59"/>
+      <c r="K742" s="57"/>
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="40"/>
@@ -54395,7 +54362,7 @@
       <c r="H743" s="40"/>
       <c r="I743" s="40"/>
       <c r="J743" s="40"/>
-      <c r="K743" s="59"/>
+      <c r="K743" s="57"/>
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="40"/>
@@ -54408,7 +54375,7 @@
       <c r="H744" s="40"/>
       <c r="I744" s="40"/>
       <c r="J744" s="40"/>
-      <c r="K744" s="59"/>
+      <c r="K744" s="57"/>
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="40"/>
@@ -54421,7 +54388,7 @@
       <c r="H745" s="40"/>
       <c r="I745" s="40"/>
       <c r="J745" s="40"/>
-      <c r="K745" s="59"/>
+      <c r="K745" s="57"/>
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="40"/>
@@ -54434,7 +54401,7 @@
       <c r="H746" s="40"/>
       <c r="I746" s="40"/>
       <c r="J746" s="40"/>
-      <c r="K746" s="59"/>
+      <c r="K746" s="57"/>
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="40"/>
@@ -54447,7 +54414,7 @@
       <c r="H747" s="40"/>
       <c r="I747" s="40"/>
       <c r="J747" s="40"/>
-      <c r="K747" s="59"/>
+      <c r="K747" s="57"/>
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="40"/>
@@ -54460,7 +54427,7 @@
       <c r="H748" s="40"/>
       <c r="I748" s="40"/>
       <c r="J748" s="40"/>
-      <c r="K748" s="59"/>
+      <c r="K748" s="57"/>
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="40"/>
@@ -54473,7 +54440,7 @@
       <c r="H749" s="40"/>
       <c r="I749" s="40"/>
       <c r="J749" s="40"/>
-      <c r="K749" s="59"/>
+      <c r="K749" s="57"/>
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="40"/>
@@ -54486,7 +54453,7 @@
       <c r="H750" s="40"/>
       <c r="I750" s="40"/>
       <c r="J750" s="40"/>
-      <c r="K750" s="59"/>
+      <c r="K750" s="57"/>
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="40"/>
@@ -54499,7 +54466,7 @@
       <c r="H751" s="40"/>
       <c r="I751" s="40"/>
       <c r="J751" s="40"/>
-      <c r="K751" s="59"/>
+      <c r="K751" s="57"/>
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="40"/>
@@ -54512,7 +54479,7 @@
       <c r="H752" s="40"/>
       <c r="I752" s="40"/>
       <c r="J752" s="40"/>
-      <c r="K752" s="59"/>
+      <c r="K752" s="57"/>
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="40"/>
@@ -54525,7 +54492,7 @@
       <c r="H753" s="40"/>
       <c r="I753" s="40"/>
       <c r="J753" s="40"/>
-      <c r="K753" s="59"/>
+      <c r="K753" s="57"/>
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="40"/>
@@ -54538,7 +54505,7 @@
       <c r="H754" s="40"/>
       <c r="I754" s="40"/>
       <c r="J754" s="40"/>
-      <c r="K754" s="59"/>
+      <c r="K754" s="57"/>
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="40"/>
@@ -54551,7 +54518,7 @@
       <c r="H755" s="40"/>
       <c r="I755" s="40"/>
       <c r="J755" s="40"/>
-      <c r="K755" s="59"/>
+      <c r="K755" s="57"/>
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="40"/>
@@ -54564,7 +54531,7 @@
       <c r="H756" s="40"/>
       <c r="I756" s="40"/>
       <c r="J756" s="40"/>
-      <c r="K756" s="59"/>
+      <c r="K756" s="57"/>
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="40"/>
@@ -54577,7 +54544,7 @@
       <c r="H757" s="40"/>
       <c r="I757" s="40"/>
       <c r="J757" s="40"/>
-      <c r="K757" s="59"/>
+      <c r="K757" s="57"/>
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="40"/>
@@ -54590,7 +54557,7 @@
       <c r="H758" s="40"/>
       <c r="I758" s="40"/>
       <c r="J758" s="40"/>
-      <c r="K758" s="59"/>
+      <c r="K758" s="57"/>
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="40"/>
@@ -54603,7 +54570,7 @@
       <c r="H759" s="40"/>
       <c r="I759" s="40"/>
       <c r="J759" s="40"/>
-      <c r="K759" s="59"/>
+      <c r="K759" s="57"/>
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="40"/>
@@ -54616,7 +54583,7 @@
       <c r="H760" s="40"/>
       <c r="I760" s="40"/>
       <c r="J760" s="40"/>
-      <c r="K760" s="59"/>
+      <c r="K760" s="57"/>
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="40"/>
@@ -54629,7 +54596,7 @@
       <c r="H761" s="40"/>
       <c r="I761" s="40"/>
       <c r="J761" s="40"/>
-      <c r="K761" s="59"/>
+      <c r="K761" s="57"/>
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="40"/>
@@ -54642,7 +54609,7 @@
       <c r="H762" s="40"/>
       <c r="I762" s="40"/>
       <c r="J762" s="40"/>
-      <c r="K762" s="59"/>
+      <c r="K762" s="57"/>
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="40"/>
@@ -54655,7 +54622,7 @@
       <c r="H763" s="40"/>
       <c r="I763" s="40"/>
       <c r="J763" s="40"/>
-      <c r="K763" s="59"/>
+      <c r="K763" s="57"/>
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="40"/>
@@ -54668,7 +54635,7 @@
       <c r="H764" s="40"/>
       <c r="I764" s="40"/>
       <c r="J764" s="40"/>
-      <c r="K764" s="59"/>
+      <c r="K764" s="57"/>
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="40"/>
@@ -54681,7 +54648,7 @@
       <c r="H765" s="40"/>
       <c r="I765" s="40"/>
       <c r="J765" s="40"/>
-      <c r="K765" s="59"/>
+      <c r="K765" s="57"/>
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="40"/>
@@ -54694,7 +54661,7 @@
       <c r="H766" s="40"/>
       <c r="I766" s="40"/>
       <c r="J766" s="40"/>
-      <c r="K766" s="59"/>
+      <c r="K766" s="57"/>
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="40"/>
@@ -54707,7 +54674,7 @@
       <c r="H767" s="40"/>
       <c r="I767" s="40"/>
       <c r="J767" s="40"/>
-      <c r="K767" s="59"/>
+      <c r="K767" s="57"/>
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="40"/>
@@ -54720,7 +54687,7 @@
       <c r="H768" s="40"/>
       <c r="I768" s="40"/>
       <c r="J768" s="40"/>
-      <c r="K768" s="59"/>
+      <c r="K768" s="57"/>
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="40"/>
@@ -54733,7 +54700,7 @@
       <c r="H769" s="40"/>
       <c r="I769" s="40"/>
       <c r="J769" s="40"/>
-      <c r="K769" s="59"/>
+      <c r="K769" s="57"/>
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="40"/>
@@ -54746,7 +54713,7 @@
       <c r="H770" s="40"/>
       <c r="I770" s="40"/>
       <c r="J770" s="40"/>
-      <c r="K770" s="59"/>
+      <c r="K770" s="57"/>
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="40"/>
@@ -54759,7 +54726,7 @@
       <c r="H771" s="40"/>
       <c r="I771" s="40"/>
       <c r="J771" s="40"/>
-      <c r="K771" s="59"/>
+      <c r="K771" s="57"/>
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="40"/>
@@ -54772,7 +54739,7 @@
       <c r="H772" s="40"/>
       <c r="I772" s="40"/>
       <c r="J772" s="40"/>
-      <c r="K772" s="59"/>
+      <c r="K772" s="57"/>
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="40"/>
@@ -54785,7 +54752,7 @@
       <c r="H773" s="40"/>
       <c r="I773" s="40"/>
       <c r="J773" s="40"/>
-      <c r="K773" s="59"/>
+      <c r="K773" s="57"/>
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
@@ -66046,16 +66013,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C51:C65">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C110">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C50">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -66132,10 +66099,8 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.77734375" customWidth="1"/>
-    <col min="4" max="5" width="5.77734375" style="57" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="57" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="57"/>
+    <col min="2" max="5" width="5.77734375" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -66176,16 +66141,16 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
@@ -66200,23 +66165,23 @@
       <c r="D3" s="1">
         <v>7</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -66227,8 +66192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCAE31F-FEDF-454B-8ECA-940E002E025C}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66349,7 +66314,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66392,17 +66357,17 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="str">
@@ -66414,17 +66379,17 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="str">
@@ -66436,17 +66401,17 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="str">
@@ -66458,17 +66423,17 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
@@ -66568,9 +66533,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="4.77734375" style="57" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -66602,7 +66566,7 @@
       <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="56"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
@@ -66617,7 +66581,7 @@
       <c r="D3" s="1">
         <v>7</v>
       </c>
-      <c r="E3" s="56"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
@@ -66632,7 +66596,7 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">

--- a/File KPI.xlsx
+++ b/File KPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\yonatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A19AE-7290-4343-A162-582697E1394E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1083C900-3396-4ECD-9BE8-18A6DE766DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pemukiman" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,12 @@
     <sheet name="Pabrikkk" sheetId="14" r:id="rId8"/>
     <sheet name="Pabrik" sheetId="15" r:id="rId9"/>
     <sheet name="Target Program" sheetId="4" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pasar - Terminal'!$A$1:$K$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pemukiman!$A$1:$K$501</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet1!$G$11:$J$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="421">
   <si>
     <t>Promotor</t>
   </si>
@@ -784,9 +786,6 @@
     <t>BAJA05 TK CANDRA</t>
   </si>
   <si>
-    <t>Risky Sabara</t>
-  </si>
-  <si>
     <t xml:space="preserve">PORA01 TOKO MAWAR </t>
   </si>
   <si>
@@ -1317,11 +1316,35 @@
   <si>
     <t>Pasar - Terminal</t>
   </si>
+  <si>
+    <t>AVG OAP</t>
+  </si>
+  <si>
+    <t>Pemukiman</t>
+  </si>
+  <si>
+    <t>OJOL</t>
+  </si>
+  <si>
+    <t>Pasar Terminal</t>
+  </si>
+  <si>
+    <t>PABRIK</t>
+  </si>
+  <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <t>% OAP ALL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1383,7 +1406,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1430,6 +1453,12 @@
       <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1761,10 +1790,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1936,9 +1966,43 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2262,7 +2326,7 @@
   <dimension ref="A1:K2395"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B472" sqref="B1:B472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2332,7 +2396,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>58</v>
@@ -2363,7 +2427,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>58</v>
@@ -2421,7 +2485,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
@@ -2452,7 +2516,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
@@ -2483,7 +2547,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
@@ -2514,7 +2578,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
@@ -2824,7 +2888,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
@@ -2886,7 +2950,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
@@ -3010,11 +3074,11 @@
         <v>28</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>70</v>
@@ -3045,7 +3109,7 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>60</v>
@@ -3072,11 +3136,11 @@
         <v>158</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>60</v>
@@ -3107,7 +3171,7 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>172</v>
@@ -3134,11 +3198,11 @@
         <v>140</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>77</v>
@@ -3324,7 +3388,7 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>84</v>
@@ -3382,7 +3446,7 @@
         <v>17</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="3" t="s">
@@ -3417,7 +3481,7 @@
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>58</v>
@@ -3444,11 +3508,11 @@
         <v>38</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>58</v>
@@ -3479,7 +3543,7 @@
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>58</v>
@@ -3506,11 +3570,11 @@
         <v>28</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>70</v>
@@ -3537,11 +3601,11 @@
         <v>22</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>71</v>
@@ -3568,11 +3632,11 @@
         <v>132</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>70</v>
@@ -3599,11 +3663,11 @@
         <v>21</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>83</v>
@@ -3661,7 +3725,7 @@
         <v>40</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="3" t="s">
@@ -3692,7 +3756,7 @@
         <v>41</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="3" t="s">
@@ -3847,7 +3911,7 @@
         <v>212</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="3" t="s">
@@ -3869,7 +3933,7 @@
         <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>9</v>
@@ -3878,11 +3942,11 @@
         <v>213</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>66</v>
@@ -3900,7 +3964,7 @@
         <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>9</v>
@@ -3931,7 +3995,7 @@
         <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>9</v>
@@ -3962,7 +4026,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>9</v>
@@ -3971,7 +4035,7 @@
         <v>214</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
@@ -3993,7 +4057,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
@@ -4002,7 +4066,7 @@
         <v>138</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="3" t="s">
@@ -4024,7 +4088,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>9</v>
@@ -4055,7 +4119,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>9</v>
@@ -4064,7 +4128,7 @@
         <v>54</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="3" t="s">
@@ -4095,7 +4159,7 @@
         <v>157</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="3" t="s">
@@ -4126,7 +4190,7 @@
         <v>154</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="3" t="s">
@@ -4161,7 +4225,7 @@
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>60</v>
@@ -4188,11 +4252,11 @@
         <v>195</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>84</v>
@@ -4219,11 +4283,11 @@
         <v>210</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>82</v>
@@ -4250,11 +4314,11 @@
         <v>43</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>82</v>
@@ -4281,11 +4345,11 @@
         <v>197</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>82</v>
@@ -4312,11 +4376,11 @@
         <v>153</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>77</v>
@@ -4343,11 +4407,11 @@
         <v>142</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>77</v>
@@ -4471,7 +4535,7 @@
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>84</v>
@@ -4533,7 +4597,7 @@
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>58</v>
@@ -4564,7 +4628,7 @@
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>58</v>
@@ -4591,11 +4655,11 @@
         <v>28</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>70</v>
@@ -4622,11 +4686,11 @@
         <v>22</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>71</v>
@@ -4653,11 +4717,11 @@
         <v>30</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>83</v>
@@ -4684,11 +4748,11 @@
         <v>33</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>83</v>
@@ -4715,11 +4779,11 @@
         <v>21</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>83</v>
@@ -4746,7 +4810,7 @@
         <v>146</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="3" t="s">
@@ -4870,7 +4934,7 @@
         <v>127</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="3" t="s">
@@ -4932,7 +4996,7 @@
         <v>212</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="3" t="s">
@@ -4954,7 +5018,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>9</v>
@@ -4985,7 +5049,7 @@
         <v>21</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>9</v>
@@ -5016,7 +5080,7 @@
         <v>21</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>9</v>
@@ -5025,7 +5089,7 @@
         <v>138</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="3" t="s">
@@ -5047,7 +5111,7 @@
         <v>21</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>9</v>
@@ -5087,7 +5151,7 @@
         <v>156</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="3" t="s">
@@ -5118,7 +5182,7 @@
         <v>187</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="3" t="s">
@@ -5149,7 +5213,7 @@
         <v>149</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="3" t="s">
@@ -5180,11 +5244,11 @@
         <v>121</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>60</v>
@@ -5215,7 +5279,7 @@
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>84</v>
@@ -5242,11 +5306,11 @@
         <v>210</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>82</v>
@@ -5273,11 +5337,11 @@
         <v>124</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>82</v>
@@ -5304,11 +5368,11 @@
         <v>197</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>82</v>
@@ -5339,7 +5403,7 @@
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>172</v>
@@ -5366,11 +5430,11 @@
         <v>131</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>172</v>
@@ -5401,7 +5465,7 @@
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>77</v>
@@ -5428,11 +5492,11 @@
         <v>141</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>77</v>
@@ -5459,11 +5523,11 @@
         <v>49</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>77</v>
@@ -5490,11 +5554,11 @@
         <v>137</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>77</v>
@@ -5680,7 +5744,7 @@
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>59</v>
@@ -5707,11 +5771,11 @@
         <v>38</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>58</v>
@@ -5738,11 +5802,11 @@
         <v>14</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>59</v>
@@ -5769,11 +5833,11 @@
         <v>28</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>70</v>
@@ -5800,11 +5864,11 @@
         <v>22</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>71</v>
@@ -5831,11 +5895,11 @@
         <v>33</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>83</v>
@@ -5862,11 +5926,11 @@
         <v>21</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>83</v>
@@ -5893,7 +5957,7 @@
         <v>184</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="3" t="s">
@@ -5924,7 +5988,7 @@
         <v>40</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="3" t="s">
@@ -6017,7 +6081,7 @@
         <v>52</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="3" t="s">
@@ -6070,7 +6134,7 @@
         <v>21</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>9</v>
@@ -6101,7 +6165,7 @@
         <v>21</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>9</v>
@@ -6132,7 +6196,7 @@
         <v>21</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>9</v>
@@ -6141,7 +6205,7 @@
         <v>214</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="3" t="s">
@@ -6163,7 +6227,7 @@
         <v>21</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>9</v>
@@ -6172,7 +6236,7 @@
         <v>138</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="3" t="s">
@@ -6203,7 +6267,7 @@
         <v>156</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="3" t="s">
@@ -6234,7 +6298,7 @@
         <v>157</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="3" t="s">
@@ -6265,7 +6329,7 @@
         <v>185</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="3" t="s">
@@ -6296,7 +6360,7 @@
         <v>156</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="3" t="s">
@@ -6327,7 +6391,7 @@
         <v>156</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="3" t="s">
@@ -6420,7 +6484,7 @@
         <v>157</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="3" t="s">
@@ -6544,11 +6608,11 @@
         <v>195</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>84</v>
@@ -6575,7 +6639,7 @@
         <v>149</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="3" t="s">
@@ -6668,11 +6732,11 @@
         <v>124</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>82</v>
@@ -6761,7 +6825,7 @@
         <v>157</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="3" t="s">
@@ -6951,7 +7015,7 @@
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>60</v>
@@ -6978,11 +7042,11 @@
         <v>158</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F152" s="4"/>
       <c r="G152" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>60</v>
@@ -7009,7 +7073,7 @@
         <v>52</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="3" t="s">
@@ -7040,11 +7104,11 @@
         <v>151</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>77</v>
@@ -7102,7 +7166,7 @@
         <v>133</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="3" t="s">
@@ -7164,11 +7228,11 @@
         <v>153</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>77</v>
@@ -7257,7 +7321,7 @@
         <v>187</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="3" t="s">
@@ -7288,7 +7352,7 @@
         <v>154</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="3" t="s">
@@ -7381,7 +7445,7 @@
         <v>53</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="3" t="s">
@@ -7474,11 +7538,11 @@
         <v>30</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F168" s="4"/>
       <c r="G168" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>83</v>
@@ -7505,11 +7569,11 @@
         <v>33</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F169" s="4"/>
       <c r="G169" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H169" s="3" t="s">
         <v>83</v>
@@ -7540,7 +7604,7 @@
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>83</v>
@@ -7629,7 +7693,7 @@
         <v>53</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F173" s="4"/>
       <c r="G173" s="3" t="s">
@@ -7722,7 +7786,7 @@
         <v>211</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F176" s="4"/>
       <c r="G176" s="3" t="s">
@@ -7753,11 +7817,11 @@
         <v>135</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F177" s="4"/>
       <c r="G177" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H177" s="3" t="s">
         <v>174</v>
@@ -7784,11 +7848,11 @@
         <v>33</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F178" s="4"/>
       <c r="G178" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>83</v>
@@ -7939,7 +8003,7 @@
         <v>211</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F183" s="4"/>
       <c r="G183" s="3" t="s">
@@ -7967,14 +8031,14 @@
         <v>9</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F184" s="4"/>
       <c r="G184" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>84</v>
@@ -8001,11 +8065,11 @@
         <v>197</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F185" s="4"/>
       <c r="G185" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>82</v>
@@ -8032,11 +8096,11 @@
         <v>131</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F186" s="4"/>
       <c r="G186" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>172</v>
@@ -8191,7 +8255,7 @@
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>58</v>
@@ -8222,7 +8286,7 @@
       </c>
       <c r="F192" s="4"/>
       <c r="G192" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>58</v>
@@ -8249,7 +8313,7 @@
         <v>40</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F193" s="4"/>
       <c r="G193" s="3" t="s">
@@ -8342,7 +8406,7 @@
         <v>133</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F196" s="4"/>
       <c r="G196" s="3" t="s">
@@ -8466,7 +8530,7 @@
         <v>185</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F200" s="4"/>
       <c r="G200" s="3" t="s">
@@ -8497,7 +8561,7 @@
         <v>157</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F201" s="4"/>
       <c r="G201" s="3" t="s">
@@ -8528,7 +8592,7 @@
         <v>187</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F202" s="4"/>
       <c r="G202" s="3" t="s">
@@ -8559,7 +8623,7 @@
         <v>149</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F203" s="4"/>
       <c r="G203" s="3" t="s">
@@ -8590,11 +8654,11 @@
         <v>195</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F204" s="4"/>
       <c r="G204" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>84</v>
@@ -8621,11 +8685,11 @@
         <v>196</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F205" s="4"/>
       <c r="G205" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>82</v>
@@ -8652,11 +8716,11 @@
         <v>43</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F206" s="4"/>
       <c r="G206" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>82</v>
@@ -8687,7 +8751,7 @@
       </c>
       <c r="F207" s="4"/>
       <c r="G207" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H207" s="3" t="s">
         <v>60</v>
@@ -8714,11 +8778,11 @@
         <v>158</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F208" s="4"/>
       <c r="G208" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>60</v>
@@ -8745,11 +8809,11 @@
         <v>151</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F209" s="4"/>
       <c r="G209" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H209" s="3" t="s">
         <v>77</v>
@@ -8776,11 +8840,11 @@
         <v>153</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F210" s="4"/>
       <c r="G210" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>77</v>
@@ -8807,11 +8871,11 @@
         <v>140</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F211" s="4"/>
       <c r="G211" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H211" s="3" t="s">
         <v>77</v>
@@ -8838,11 +8902,11 @@
         <v>142</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F212" s="4"/>
       <c r="G212" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>77</v>
@@ -8869,11 +8933,11 @@
         <v>137</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F213" s="4"/>
       <c r="G213" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H213" s="3" t="s">
         <v>77</v>
@@ -8966,7 +9030,7 @@
       </c>
       <c r="F216" s="4"/>
       <c r="G216" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H216" s="3" t="s">
         <v>58</v>
@@ -8993,11 +9057,11 @@
         <v>30</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F217" s="4"/>
       <c r="G217" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H217" s="3" t="s">
         <v>83</v>
@@ -9024,11 +9088,11 @@
         <v>33</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F218" s="4"/>
       <c r="G218" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H218" s="3" t="s">
         <v>83</v>
@@ -9059,7 +9123,7 @@
       </c>
       <c r="F219" s="4"/>
       <c r="G219" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H219" s="3" t="s">
         <v>83</v>
@@ -9086,7 +9150,7 @@
         <v>146</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F220" s="4"/>
       <c r="G220" s="3" t="s">
@@ -9458,7 +9522,7 @@
         <v>53</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F232" s="4"/>
       <c r="G232" s="3" t="s">
@@ -9520,7 +9584,7 @@
         <v>211</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F234" s="4"/>
       <c r="G234" s="3" t="s">
@@ -9551,7 +9615,7 @@
         <v>185</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F235" s="4"/>
       <c r="G235" s="3" t="s">
@@ -9582,7 +9646,7 @@
         <v>156</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F236" s="4"/>
       <c r="G236" s="3" t="s">
@@ -9613,7 +9677,7 @@
         <v>157</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F237" s="4"/>
       <c r="G237" s="3" t="s">
@@ -9644,7 +9708,7 @@
         <v>187</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F238" s="4"/>
       <c r="G238" s="3" t="s">
@@ -9675,7 +9739,7 @@
         <v>161</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F239" s="4"/>
       <c r="G239" s="3" t="s">
@@ -9706,7 +9770,7 @@
         <v>149</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F240" s="4"/>
       <c r="G240" s="3" t="s">
@@ -9737,7 +9801,7 @@
         <v>129</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F241" s="4"/>
       <c r="G241" s="3" t="s">
@@ -9765,10 +9829,10 @@
         <v>9</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F242" s="4"/>
       <c r="G242" s="3" t="s">
@@ -9799,11 +9863,11 @@
         <v>196</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F243" s="4"/>
       <c r="G243" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H243" s="3" t="s">
         <v>82</v>
@@ -9834,7 +9898,7 @@
       </c>
       <c r="F244" s="4"/>
       <c r="G244" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H244" s="3" t="s">
         <v>172</v>
@@ -9861,11 +9925,11 @@
         <v>194</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F245" s="4"/>
       <c r="G245" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H245" s="3" t="s">
         <v>172</v>
@@ -9892,11 +9956,11 @@
         <v>186</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F246" s="4"/>
       <c r="G246" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H246" s="3" t="s">
         <v>172</v>
@@ -9920,14 +9984,14 @@
         <v>9</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F247" s="4"/>
       <c r="G247" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H247" s="3" t="s">
         <v>77</v>
@@ -9954,11 +10018,11 @@
         <v>49</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F248" s="4"/>
       <c r="G248" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H248" s="3" t="s">
         <v>77</v>
@@ -9985,11 +10049,11 @@
         <v>137</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F249" s="4"/>
       <c r="G249" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H249" s="3" t="s">
         <v>77</v>
@@ -10171,7 +10235,7 @@
         <v>17</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F255" s="4"/>
       <c r="G255" s="3" t="s">
@@ -10202,7 +10266,7 @@
         <v>215</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F256" s="4"/>
       <c r="G256" s="3" t="s">
@@ -10237,7 +10301,7 @@
       </c>
       <c r="F257" s="4"/>
       <c r="G257" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H257" s="3" t="s">
         <v>59</v>
@@ -10268,7 +10332,7 @@
       </c>
       <c r="F258" s="4"/>
       <c r="G258" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H258" s="3" t="s">
         <v>58</v>
@@ -10295,11 +10359,11 @@
         <v>33</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F259" s="4"/>
       <c r="G259" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H259" s="3" t="s">
         <v>83</v>
@@ -10326,7 +10390,7 @@
         <v>184</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F260" s="4"/>
       <c r="G260" s="3" t="s">
@@ -10357,7 +10421,7 @@
         <v>48</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F261" s="4"/>
       <c r="G261" s="3" t="s">
@@ -10419,7 +10483,7 @@
         <v>40</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F263" s="4"/>
       <c r="G263" s="3" t="s">
@@ -10512,7 +10576,7 @@
         <v>52</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F266" s="4"/>
       <c r="G266" s="3" t="s">
@@ -10698,7 +10762,7 @@
         <v>211</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F272" s="4"/>
       <c r="G272" s="3" t="s">
@@ -10729,7 +10793,7 @@
         <v>185</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F273" s="4"/>
       <c r="G273" s="3" t="s">
@@ -10760,7 +10824,7 @@
         <v>156</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F274" s="4"/>
       <c r="G274" s="3" t="s">
@@ -10791,7 +10855,7 @@
         <v>157</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F275" s="4"/>
       <c r="G275" s="3" t="s">
@@ -10822,7 +10886,7 @@
         <v>187</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F276" s="4"/>
       <c r="G276" s="3" t="s">
@@ -10850,10 +10914,10 @@
         <v>9</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F277" s="4"/>
       <c r="G277" s="3" t="s">
@@ -10884,7 +10948,7 @@
         <v>156</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F278" s="4"/>
       <c r="G278" s="3" t="s">
@@ -10981,7 +11045,7 @@
       </c>
       <c r="F281" s="4"/>
       <c r="G281" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H281" s="3" t="s">
         <v>58</v>
@@ -11008,11 +11072,11 @@
         <v>38</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F282" s="4"/>
       <c r="G282" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H282" s="3" t="s">
         <v>58</v>
@@ -11043,7 +11107,7 @@
       </c>
       <c r="F283" s="4"/>
       <c r="G283" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H283" s="3" t="s">
         <v>58</v>
@@ -11070,11 +11134,11 @@
         <v>14</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F284" s="4"/>
       <c r="G284" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H284" s="3" t="s">
         <v>59</v>
@@ -11132,7 +11196,7 @@
         <v>42</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F286" s="4"/>
       <c r="G286" s="3" t="s">
@@ -11163,7 +11227,7 @@
         <v>40</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F287" s="4"/>
       <c r="G287" s="3" t="s">
@@ -11194,7 +11258,7 @@
         <v>41</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F288" s="4"/>
       <c r="G288" s="3" t="s">
@@ -11287,7 +11351,7 @@
         <v>149</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F291" s="4"/>
       <c r="G291" s="3" t="s">
@@ -11384,7 +11448,7 @@
       </c>
       <c r="F294" s="4"/>
       <c r="G294" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H294" s="3" t="s">
         <v>84</v>
@@ -11473,7 +11537,7 @@
         <v>17</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F297" s="4"/>
       <c r="G297" s="3" t="s">
@@ -11594,14 +11658,14 @@
         <v>9</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F301" s="4"/>
       <c r="G301" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H301" s="3" t="s">
         <v>60</v>
@@ -11628,11 +11692,11 @@
         <v>158</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F302" s="4"/>
       <c r="G302" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H302" s="3" t="s">
         <v>60</v>
@@ -11783,11 +11847,11 @@
         <v>28</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F307" s="4"/>
       <c r="G307" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H307" s="3" t="s">
         <v>70</v>
@@ -11814,11 +11878,11 @@
         <v>22</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F308" s="4"/>
       <c r="G308" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H308" s="3" t="s">
         <v>71</v>
@@ -11845,11 +11909,11 @@
         <v>132</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F309" s="4"/>
       <c r="G309" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H309" s="3" t="s">
         <v>70</v>
@@ -11867,23 +11931,23 @@
         <v>23</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F310" s="4"/>
       <c r="G310" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I310" s="4" t="s">
         <v>11</v>
@@ -11898,7 +11962,7 @@
         <v>23</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>9</v>
@@ -11938,11 +12002,11 @@
         <v>151</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F312" s="4"/>
       <c r="G312" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H312" s="3" t="s">
         <v>77</v>
@@ -11969,11 +12033,11 @@
         <v>140</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F313" s="4"/>
       <c r="G313" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H313" s="3" t="s">
         <v>77</v>
@@ -12022,7 +12086,7 @@
         <v>23</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>9</v>
@@ -12031,7 +12095,7 @@
         <v>138</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F315" s="4"/>
       <c r="G315" s="3" t="s">
@@ -12190,7 +12254,7 @@
       </c>
       <c r="F320" s="4"/>
       <c r="G320" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H320" s="3" t="s">
         <v>58</v>
@@ -12221,7 +12285,7 @@
       </c>
       <c r="F321" s="4"/>
       <c r="G321" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H321" s="3" t="s">
         <v>58</v>
@@ -12248,7 +12312,7 @@
         <v>146</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F322" s="4"/>
       <c r="G322" s="3" t="s">
@@ -12310,7 +12374,7 @@
         <v>41</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F324" s="4"/>
       <c r="G324" s="3" t="s">
@@ -12434,7 +12498,7 @@
         <v>157</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F328" s="4"/>
       <c r="G328" s="3" t="s">
@@ -12465,7 +12529,7 @@
         <v>149</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F329" s="4"/>
       <c r="G329" s="3" t="s">
@@ -12496,11 +12560,11 @@
         <v>195</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F330" s="4"/>
       <c r="G330" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H330" s="3" t="s">
         <v>84</v>
@@ -12527,7 +12591,7 @@
         <v>127</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F331" s="4"/>
       <c r="G331" s="3" t="s">
@@ -12593,7 +12657,7 @@
       </c>
       <c r="F333" s="4"/>
       <c r="G333" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H333" s="3" t="s">
         <v>60</v>
@@ -12620,7 +12684,7 @@
         <v>133</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F334" s="4"/>
       <c r="G334" s="3" t="s">
@@ -12648,10 +12712,10 @@
         <v>9</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F335" s="4"/>
       <c r="G335" s="3" t="s">
@@ -12679,10 +12743,10 @@
         <v>9</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F336" s="4"/>
       <c r="G336" s="3" t="s">
@@ -12713,11 +12777,11 @@
         <v>28</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F337" s="4"/>
       <c r="G337" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H337" s="3" t="s">
         <v>70</v>
@@ -12744,11 +12808,11 @@
         <v>22</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F338" s="4"/>
       <c r="G338" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H338" s="3" t="s">
         <v>71</v>
@@ -12766,23 +12830,23 @@
         <v>23</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F339" s="4"/>
       <c r="G339" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I339" s="4" t="s">
         <v>51</v>
@@ -12797,7 +12861,7 @@
         <v>23</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>9</v>
@@ -12837,11 +12901,11 @@
         <v>153</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F341" s="4"/>
       <c r="G341" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H341" s="3" t="s">
         <v>77</v>
@@ -12868,11 +12932,11 @@
         <v>30</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F342" s="4"/>
       <c r="G342" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H342" s="3" t="s">
         <v>83</v>
@@ -12899,11 +12963,11 @@
         <v>33</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F343" s="4"/>
       <c r="G343" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H343" s="3" t="s">
         <v>83</v>
@@ -12934,7 +12998,7 @@
       </c>
       <c r="F344" s="4"/>
       <c r="G344" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H344" s="3" t="s">
         <v>83</v>
@@ -13054,7 +13118,7 @@
         <v>156</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F348" s="4"/>
       <c r="G348" s="3" t="s">
@@ -13120,7 +13184,7 @@
       </c>
       <c r="F350" s="4"/>
       <c r="G350" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H350" s="3" t="s">
         <v>59</v>
@@ -13147,11 +13211,11 @@
         <v>38</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F351" s="4"/>
       <c r="G351" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H351" s="3" t="s">
         <v>58</v>
@@ -13182,7 +13246,7 @@
       </c>
       <c r="F352" s="4"/>
       <c r="G352" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H352" s="3" t="s">
         <v>58</v>
@@ -13209,11 +13273,11 @@
         <v>14</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F353" s="4"/>
       <c r="G353" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H353" s="3" t="s">
         <v>59</v>
@@ -13240,11 +13304,11 @@
         <v>123</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F354" s="4"/>
       <c r="G354" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H354" s="3" t="s">
         <v>59</v>
@@ -13302,7 +13366,7 @@
         <v>40</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F356" s="4"/>
       <c r="G356" s="3" t="s">
@@ -13333,7 +13397,7 @@
         <v>41</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F357" s="4"/>
       <c r="G357" s="3" t="s">
@@ -13488,7 +13552,7 @@
         <v>157</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F362" s="4"/>
       <c r="G362" s="3" t="s">
@@ -13554,7 +13618,7 @@
       </c>
       <c r="F364" s="4"/>
       <c r="G364" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H364" s="3" t="s">
         <v>84</v>
@@ -13674,7 +13738,7 @@
         <v>17</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F368" s="4"/>
       <c r="G368" s="3" t="s">
@@ -13702,10 +13766,10 @@
         <v>9</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F369" s="4"/>
       <c r="G369" s="3" t="s">
@@ -13736,7 +13800,7 @@
         <v>52</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F370" s="4"/>
       <c r="G370" s="3" t="s">
@@ -13767,11 +13831,11 @@
         <v>158</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F371" s="4"/>
       <c r="G371" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H371" s="3" t="s">
         <v>60</v>
@@ -13857,10 +13921,10 @@
         <v>9</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F374" s="4"/>
       <c r="G374" s="3" t="s">
@@ -13891,11 +13955,11 @@
         <v>28</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F375" s="4"/>
       <c r="G375" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H375" s="3" t="s">
         <v>70</v>
@@ -13913,7 +13977,7 @@
         <v>23</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>9</v>
@@ -13984,11 +14048,11 @@
         <v>33</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F378" s="4"/>
       <c r="G378" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H378" s="3" t="s">
         <v>83</v>
@@ -14015,11 +14079,11 @@
         <v>21</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F379" s="4"/>
       <c r="G379" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H379" s="3" t="s">
         <v>83</v>
@@ -14046,11 +14110,11 @@
         <v>137</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F380" s="4"/>
       <c r="G380" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H380" s="3" t="s">
         <v>77</v>
@@ -14232,7 +14296,7 @@
         <v>211</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F386" s="4"/>
       <c r="G386" s="3" t="s">
@@ -14263,11 +14327,11 @@
         <v>194</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F387" s="4"/>
       <c r="G387" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H387" s="3" t="s">
         <v>172</v>
@@ -14294,11 +14358,11 @@
         <v>151</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F388" s="4"/>
       <c r="G388" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H388" s="3" t="s">
         <v>77</v>
@@ -14325,11 +14389,11 @@
         <v>140</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F389" s="4"/>
       <c r="G389" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H389" s="3" t="s">
         <v>77</v>
@@ -14546,7 +14610,7 @@
       </c>
       <c r="F396" s="4"/>
       <c r="G396" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H396" s="3" t="s">
         <v>58</v>
@@ -14577,7 +14641,7 @@
       </c>
       <c r="F397" s="4"/>
       <c r="G397" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H397" s="3" t="s">
         <v>58</v>
@@ -14604,11 +14668,11 @@
         <v>28</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F398" s="4"/>
       <c r="G398" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H398" s="3" t="s">
         <v>70</v>
@@ -14635,11 +14699,11 @@
         <v>22</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F399" s="4"/>
       <c r="G399" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H399" s="3" t="s">
         <v>71</v>
@@ -14666,11 +14730,11 @@
         <v>132</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F400" s="4"/>
       <c r="G400" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H400" s="3" t="s">
         <v>70</v>
@@ -14759,7 +14823,7 @@
         <v>41</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F403" s="4"/>
       <c r="G403" s="3" t="s">
@@ -14821,7 +14885,7 @@
         <v>212</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F405" s="4"/>
       <c r="G405" s="3" t="s">
@@ -14852,7 +14916,7 @@
         <v>157</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F406" s="4"/>
       <c r="G406" s="3" t="s">
@@ -14883,7 +14947,7 @@
         <v>149</v>
       </c>
       <c r="E407" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F407" s="4"/>
       <c r="G407" s="3" t="s">
@@ -14911,14 +14975,14 @@
         <v>9</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F408" s="4"/>
       <c r="G408" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H408" s="3" t="s">
         <v>84</v>
@@ -14949,7 +15013,7 @@
       </c>
       <c r="F409" s="4"/>
       <c r="G409" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H409" s="3" t="s">
         <v>84</v>
@@ -14976,11 +15040,11 @@
         <v>195</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F410" s="4"/>
       <c r="G410" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H410" s="3" t="s">
         <v>84</v>
@@ -15004,14 +15068,14 @@
         <v>9</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F411" s="4"/>
       <c r="G411" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H411" s="3" t="s">
         <v>84</v>
@@ -15038,11 +15102,11 @@
         <v>43</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F412" s="4"/>
       <c r="G412" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H412" s="3" t="s">
         <v>82</v>
@@ -15069,11 +15133,11 @@
         <v>197</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F413" s="4"/>
       <c r="G413" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H413" s="3" t="s">
         <v>82</v>
@@ -15100,11 +15164,11 @@
         <v>153</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F414" s="4"/>
       <c r="G414" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H414" s="3" t="s">
         <v>77</v>
@@ -15131,11 +15195,11 @@
         <v>186</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F415" s="4"/>
       <c r="G415" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H415" s="3" t="s">
         <v>172</v>
@@ -15321,7 +15385,7 @@
       </c>
       <c r="F421" s="4"/>
       <c r="G421" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H421" s="3" t="s">
         <v>58</v>
@@ -15348,11 +15412,11 @@
         <v>28</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F422" s="4"/>
       <c r="G422" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H422" s="3" t="s">
         <v>70</v>
@@ -15410,7 +15474,7 @@
         <v>41</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F424" s="4"/>
       <c r="G424" s="3" t="s">
@@ -15534,7 +15598,7 @@
         <v>133</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F428" s="4"/>
       <c r="G428" s="3" t="s">
@@ -15562,10 +15626,10 @@
         <v>9</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F429" s="4"/>
       <c r="G429" s="3" t="s">
@@ -15596,7 +15660,7 @@
         <v>212</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F430" s="4"/>
       <c r="G430" s="3" t="s">
@@ -15627,7 +15691,7 @@
         <v>211</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F431" s="4"/>
       <c r="G431" s="3" t="s">
@@ -15658,7 +15722,7 @@
         <v>156</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F432" s="4"/>
       <c r="G432" s="3" t="s">
@@ -15689,7 +15753,7 @@
         <v>157</v>
       </c>
       <c r="E433" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F433" s="4"/>
       <c r="G433" s="3" t="s">
@@ -15717,10 +15781,10 @@
         <v>9</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F434" s="4"/>
       <c r="G434" s="3" t="s">
@@ -15748,14 +15812,14 @@
         <v>9</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E435" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F435" s="4"/>
       <c r="G435" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H435" s="3" t="s">
         <v>60</v>
@@ -15782,11 +15846,11 @@
         <v>210</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F436" s="4"/>
       <c r="G436" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H436" s="3" t="s">
         <v>82</v>
@@ -15813,11 +15877,11 @@
         <v>158</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F437" s="4"/>
       <c r="G437" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H437" s="3" t="s">
         <v>60</v>
@@ -15848,7 +15912,7 @@
       </c>
       <c r="F438" s="4"/>
       <c r="G438" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H438" s="3" t="s">
         <v>172</v>
@@ -15875,11 +15939,11 @@
         <v>194</v>
       </c>
       <c r="E439" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F439" s="4"/>
       <c r="G439" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H439" s="3" t="s">
         <v>172</v>
@@ -15906,11 +15970,11 @@
         <v>131</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F440" s="4"/>
       <c r="G440" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H440" s="3" t="s">
         <v>172</v>
@@ -15937,11 +16001,11 @@
         <v>153</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F441" s="4"/>
       <c r="G441" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H441" s="3" t="s">
         <v>77</v>
@@ -15968,11 +16032,11 @@
         <v>186</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F442" s="4"/>
       <c r="G442" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H442" s="3" t="s">
         <v>172</v>
@@ -16278,7 +16342,7 @@
         <v>17</v>
       </c>
       <c r="E452" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F452" s="4"/>
       <c r="G452" s="3" t="s">
@@ -16313,7 +16377,7 @@
       </c>
       <c r="F453" s="4"/>
       <c r="G453" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H453" s="3" t="s">
         <v>59</v>
@@ -16340,11 +16404,11 @@
         <v>38</v>
       </c>
       <c r="E454" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F454" s="4"/>
       <c r="G454" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H454" s="3" t="s">
         <v>58</v>
@@ -16375,7 +16439,7 @@
       </c>
       <c r="F455" s="4"/>
       <c r="G455" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H455" s="3" t="s">
         <v>58</v>
@@ -16402,11 +16466,11 @@
         <v>28</v>
       </c>
       <c r="E456" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F456" s="4"/>
       <c r="G456" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H456" s="3" t="s">
         <v>70</v>
@@ -16433,11 +16497,11 @@
         <v>22</v>
       </c>
       <c r="E457" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F457" s="4"/>
       <c r="G457" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H457" s="3" t="s">
         <v>71</v>
@@ -16464,11 +16528,11 @@
         <v>132</v>
       </c>
       <c r="E458" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F458" s="4"/>
       <c r="G458" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H458" s="3" t="s">
         <v>70</v>
@@ -16526,7 +16590,7 @@
         <v>40</v>
       </c>
       <c r="E460" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F460" s="4"/>
       <c r="G460" s="3" t="s">
@@ -16557,7 +16621,7 @@
         <v>41</v>
       </c>
       <c r="E461" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F461" s="4"/>
       <c r="G461" s="3" t="s">
@@ -16712,7 +16776,7 @@
         <v>52</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F466" s="4"/>
       <c r="G466" s="3" t="s">
@@ -16771,10 +16835,10 @@
         <v>9</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F468" s="4"/>
       <c r="G468" s="3" t="s">
@@ -16805,7 +16869,7 @@
         <v>211</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F469" s="4"/>
       <c r="G469" s="3" t="s">
@@ -16836,7 +16900,7 @@
         <v>156</v>
       </c>
       <c r="E470" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F470" s="4"/>
       <c r="G470" s="3" t="s">
@@ -16867,7 +16931,7 @@
         <v>157</v>
       </c>
       <c r="E471" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F471" s="4"/>
       <c r="G471" s="3" t="s">
@@ -16895,10 +16959,10 @@
         <v>9</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E472" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F472" s="4"/>
       <c r="G472" s="3" t="s">
@@ -41932,7 +41996,7 @@
   <dimension ref="A1:H490"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H6" activeCellId="3" sqref="C6 D6 G6 H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41958,7 +42022,7 @@
         <v>113</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>115</v>
@@ -42079,7 +42143,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B6" s="17">
         <v>0</v>
@@ -43610,6 +43674,471 @@
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B490" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F075F0B-5557-43C5-B5B0-6CF319867A35}">
+  <dimension ref="B1:N17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="50.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="10.88671875" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="L2" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="N2" s="65" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="66">
+        <v>10.3</v>
+      </c>
+      <c r="D3" s="67">
+        <v>15</v>
+      </c>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66">
+        <v>2</v>
+      </c>
+      <c r="H3" s="67">
+        <v>8</v>
+      </c>
+      <c r="I3" s="66">
+        <v>12.7</v>
+      </c>
+      <c r="J3" s="67">
+        <v>40</v>
+      </c>
+      <c r="K3" s="66"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="66">
+        <v>0</v>
+      </c>
+      <c r="N3" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="66">
+        <v>25</v>
+      </c>
+      <c r="D4" s="67">
+        <v>40</v>
+      </c>
+      <c r="E4" s="66">
+        <v>4.7</v>
+      </c>
+      <c r="F4" s="67">
+        <v>10</v>
+      </c>
+      <c r="G4" s="66">
+        <v>5</v>
+      </c>
+      <c r="H4" s="67">
+        <v>10</v>
+      </c>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="67">
+        <v>5</v>
+      </c>
+      <c r="M4" s="66">
+        <v>2.7</v>
+      </c>
+      <c r="N4" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="66">
+        <v>19</v>
+      </c>
+      <c r="D5" s="67">
+        <v>37</v>
+      </c>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="66">
+        <v>1</v>
+      </c>
+      <c r="H5" s="67">
+        <v>7</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="66">
+        <v>2.5</v>
+      </c>
+      <c r="L5" s="67">
+        <v>25</v>
+      </c>
+      <c r="M5" s="66">
+        <v>0</v>
+      </c>
+      <c r="N5" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="66">
+        <v>5.3</v>
+      </c>
+      <c r="D6" s="67">
+        <v>25</v>
+      </c>
+      <c r="E6" s="66">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F6" s="67">
+        <v>10</v>
+      </c>
+      <c r="G6" s="66">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H6" s="67">
+        <v>2</v>
+      </c>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="66">
+        <v>0</v>
+      </c>
+      <c r="L6" s="67">
+        <v>10</v>
+      </c>
+      <c r="M6" s="66">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N6" s="67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="66">
+        <v>4</v>
+      </c>
+      <c r="D7" s="67">
+        <v>20</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="66">
+        <v>1</v>
+      </c>
+      <c r="L7" s="67">
+        <v>5</v>
+      </c>
+      <c r="M7" s="66"/>
+      <c r="N7" s="67"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="68">
+        <v>13</v>
+      </c>
+      <c r="D8" s="69">
+        <v>13</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68">
+        <v>13.3</v>
+      </c>
+      <c r="H8" s="69">
+        <v>13</v>
+      </c>
+      <c r="I8" s="68">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J8" s="69">
+        <v>37</v>
+      </c>
+      <c r="K8" s="68"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="69"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="61">
+        <f t="shared" ref="C12:D17" si="0">SUM(C3,E3,G3,I3,K3,M3)</f>
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E12" s="60">
+        <f t="shared" ref="E12:E17" si="1">C12/D12</f>
+        <v>0.37313432835820898</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="H12" s="61">
+        <v>36</v>
+      </c>
+      <c r="I12" s="1">
+        <v>63</v>
+      </c>
+      <c r="J12" s="60">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="61">
+        <f t="shared" si="0"/>
+        <v>37.900000000000006</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E13" s="60">
+        <f t="shared" si="1"/>
+        <v>0.51917808219178085</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="61">
+        <v>37.900000000000006</v>
+      </c>
+      <c r="I13" s="1">
+        <v>73</v>
+      </c>
+      <c r="J13" s="60">
+        <v>0.51917808219178085</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="61">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E14" s="60">
+        <f t="shared" si="1"/>
+        <v>0.2848101265822785</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="61">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1">
+        <v>67</v>
+      </c>
+      <c r="J14" s="60">
+        <v>0.37313432835820898</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="61">
+        <f t="shared" si="0"/>
+        <v>20.9</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E15" s="60">
+        <f t="shared" si="1"/>
+        <v>0.27142857142857141</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="61">
+        <v>22.5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>79</v>
+      </c>
+      <c r="J15" s="60">
+        <v>0.2848101265822785</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" s="61">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="60">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="61">
+        <v>20.9</v>
+      </c>
+      <c r="I16" s="1">
+        <v>77</v>
+      </c>
+      <c r="J16" s="60">
+        <v>0.27142857142857141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="61">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E17" s="60">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="H17" s="61">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45</v>
+      </c>
+      <c r="J17" s="60">
+        <f>H17/I17</f>
+        <v>0.1111111111111111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43621,8 +44150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E63E29-95E2-4652-8249-573E7E5C6E10}">
   <dimension ref="A1:K1331"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView showGridLines="0" topLeftCell="E33" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43668,10 +44197,10 @@
         <v>163</v>
       </c>
       <c r="J1" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" s="58" t="s">
         <v>411</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -43682,10 +44211,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>105</v>
@@ -43713,16 +44242,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>71</v>
@@ -43744,10 +44273,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>105</v>
@@ -43775,10 +44304,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>105</v>
@@ -43806,10 +44335,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>104</v>
@@ -43837,16 +44366,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>58</v>
@@ -43868,16 +44397,16 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>58</v>
@@ -43899,10 +44428,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>105</v>
@@ -43930,10 +44459,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>105</v>
@@ -43961,19 +44490,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>219</v>
@@ -43992,19 +44521,19 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>219</v>
@@ -44023,10 +44552,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>105</v>
@@ -44035,7 +44564,7 @@
         <v>91</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>201</v>
@@ -44054,10 +44583,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>105</v>
@@ -44085,10 +44614,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>105</v>
@@ -44119,10 +44648,10 @@
         <v>130</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>109</v>
@@ -44147,10 +44676,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>105</v>
@@ -44178,10 +44707,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>104</v>
@@ -44209,10 +44738,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>104</v>
@@ -44240,10 +44769,10 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>104</v>
@@ -44271,10 +44800,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>104</v>
@@ -44302,10 +44831,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>104</v>
@@ -44333,10 +44862,10 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>104</v>
@@ -44364,10 +44893,10 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>104</v>
@@ -44395,10 +44924,10 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>104</v>
@@ -44426,10 +44955,10 @@
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>105</v>
@@ -44457,10 +44986,10 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
@@ -44488,10 +45017,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>105</v>
@@ -44519,10 +45048,10 @@
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>104</v>
@@ -44550,16 +45079,16 @@
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>58</v>
@@ -44581,10 +45110,10 @@
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>104</v>
@@ -44612,10 +45141,10 @@
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>105</v>
@@ -44643,10 +45172,10 @@
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>105</v>
@@ -44674,22 +45203,22 @@
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
@@ -44705,19 +45234,19 @@
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>219</v>
@@ -44736,10 +45265,10 @@
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>104</v>
@@ -44767,10 +45296,10 @@
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>104</v>
@@ -44798,10 +45327,10 @@
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>104</v>
@@ -44829,16 +45358,16 @@
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>70</v>
@@ -44860,16 +45389,16 @@
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>70</v>
@@ -44891,16 +45420,16 @@
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>70</v>
@@ -44922,10 +45451,10 @@
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>105</v>
@@ -44953,10 +45482,10 @@
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>105</v>
@@ -44984,10 +45513,10 @@
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>104</v>
@@ -44996,10 +45525,10 @@
         <v>73</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I44" s="1">
         <v>5</v>
@@ -45015,10 +45544,10 @@
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>104</v>
@@ -45030,7 +45559,7 @@
         <v>91</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I45" s="1">
         <v>1</v>
@@ -45046,10 +45575,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>104</v>
@@ -45058,10 +45587,10 @@
         <v>73</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I46" s="1">
         <v>1</v>
@@ -45077,10 +45606,10 @@
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>105</v>
@@ -45092,7 +45621,7 @@
         <v>9</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I47" s="1">
         <v>1</v>
@@ -45108,10 +45637,10 @@
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>104</v>
@@ -45123,7 +45652,7 @@
         <v>79</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I48" s="1">
         <v>2</v>
@@ -45139,10 +45668,10 @@
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>104</v>
@@ -45170,10 +45699,10 @@
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>104</v>
@@ -45201,10 +45730,10 @@
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>104</v>
@@ -45232,10 +45761,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>105</v>
@@ -45263,10 +45792,10 @@
         <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>104</v>
@@ -45278,7 +45807,7 @@
         <v>79</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1">
@@ -45294,10 +45823,10 @@
         <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>104</v>
@@ -45325,10 +45854,10 @@
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>104</v>
@@ -45340,7 +45869,7 @@
         <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -45356,10 +45885,10 @@
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>104</v>
@@ -45368,10 +45897,10 @@
         <v>73</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -45387,10 +45916,10 @@
         <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>104</v>
@@ -45399,10 +45928,10 @@
         <v>73</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -45418,10 +45947,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>104</v>
@@ -45449,10 +45978,10 @@
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>104</v>
@@ -62017,8 +62546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BF88FA-18C1-4B68-BD02-7E04D8DA2DB1}">
   <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62203,10 +62732,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>105</v>
@@ -62453,10 +62982,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>104</v>
@@ -62465,10 +62994,10 @@
         <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -62546,22 +63075,22 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I17" s="1">
         <v>6</v>
@@ -62608,10 +63137,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>104</v>
@@ -62670,10 +63199,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>104</v>
@@ -62685,7 +63214,7 @@
         <v>9</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -62701,22 +63230,22 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
@@ -62732,10 +63261,10 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>104</v>
@@ -62763,10 +63292,10 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>104</v>
@@ -62825,22 +63354,22 @@
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
@@ -62856,10 +63385,10 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>104</v>
@@ -62868,10 +63397,10 @@
         <v>73</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
@@ -62887,10 +63416,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>104</v>
@@ -63011,10 +63540,10 @@
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>104</v>
@@ -66192,7 +66721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCAE31F-FEDF-454B-8ECA-940E002E025C}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -66220,7 +66749,7 @@
         <v>198</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
